--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5899B-BE55-4247-929C-D3B2E0605E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551D98D-E6CB-4FC9-912B-9B63695D157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31155" yWindow="1425" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="25875" yWindow="1935" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>SPX Open</t>
   </si>
@@ -138,15 +138,9 @@
     <t>Delta Selection</t>
   </si>
   <si>
-    <t>11:41pm</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>30 - 40%</t>
   </si>
   <si>
@@ -154,6 +148,48 @@
   </si>
   <si>
     <t>60 - 70%</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>9:39am</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>STO BullPut</t>
+  </si>
+  <si>
+    <t>STO BearCall</t>
+  </si>
+  <si>
+    <t>Time (EST)</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Credit ea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit total </t>
+  </si>
+  <si>
+    <t>Sep20 3830/3805 @ -4.30</t>
+  </si>
+  <si>
+    <t>Sep20 3895/3925 @ -3.00</t>
   </si>
 </sst>
 </file>
@@ -323,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +380,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -426,6 +459,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +782,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,20 +798,20 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>36</v>
+      <c r="C1" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="21">
-        <v>44823</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>34</v>
+      <c r="B2" s="20">
+        <v>44824</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="18"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -784,96 +823,96 @@
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3880.95</v>
+        <v>3849.91</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.30575832035120087</v>
-      </c>
-      <c r="G5" s="26">
+        <v>0.15789949041116</v>
+      </c>
+      <c r="G5" s="25">
         <v>0.4</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3872.56</v>
+        <v>3899.89</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.27388744578886004</v>
-      </c>
-      <c r="G6" s="26">
+        <v>0.33367455910870258</v>
+      </c>
+      <c r="G6" s="25">
         <v>0.33</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="13">
-        <v>3887.34</v>
+        <v>3886.61</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.11139920269140981</v>
-      </c>
-      <c r="G7" s="27">
+        <v>0.31097814236282023</v>
+      </c>
+      <c r="G7" s="26">
         <v>0.27</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
-        <v>3952.76</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="13">
+        <v>3910.65</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.24276396997748484</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="18"/>
+        <v>0.25723649910829732</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3849.91</v>
+        <v>3857.7</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -882,34 +921,30 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3899.89</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
-        <v>3886.61</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="F11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="30">
         <v>-0.21</v>
       </c>
     </row>
@@ -917,16 +952,14 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13">
-        <v>3910.65</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="13"/>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="F12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="32">
         <v>-0.18</v>
       </c>
     </row>
@@ -934,27 +967,27 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="14">
+        <v>0.251</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>0.09</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>-0.15</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="32">
+      <c r="E14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="31">
         <v>0.12</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>-0.15</v>
       </c>
     </row>
@@ -963,13 +996,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="E15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="32">
+      <c r="E15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="31">
         <v>0.15</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>-0.15</v>
       </c>
     </row>
@@ -979,15 +1012,15 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>58.30365563393174</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="32">
+        <v>61.663164504938784</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="31">
         <v>0.15</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>-0.12</v>
       </c>
     </row>
@@ -997,15 +1030,15 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3930.8636556339316</v>
-      </c>
-      <c r="E17" s="17" t="s">
+        <v>3961.5531645049386</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>0.15</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>-0.09</v>
       </c>
     </row>
@@ -1015,27 +1048,27 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3814.2563443660683</v>
-      </c>
-      <c r="E18" s="17" t="s">
+        <v>3838.2268354950611</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>0.18</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>35</v>
+      <c r="G18" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>0.21</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>35</v>
+      <c r="G19" s="41" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1050,7 +1083,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>82.768513518822218</v>
+        <v>86.907931357580395</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1059,7 +1092,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3970.1085135188223</v>
+        <v>3973.5179313575804</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1068,7 +1101,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3804.571486481178</v>
+        <v>3799.7020686424198</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1117,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>132.3337480421155</v>
+        <v>140.06316693182609</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1093,7 +1126,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>4085.0937480421157</v>
+        <v>4050.713166931826</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,7 +1135,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3820.4262519578847</v>
+        <v>3770.5868330681742</v>
       </c>
     </row>
   </sheetData>
@@ -1113,12 +1146,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>44824</v>
+      </c>
+      <c r="B2" s="44">
+        <v>949</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>-0.15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="46">
+        <v>4.3</v>
+      </c>
+      <c r="H2" s="46">
+        <f>G2*F2</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>44824</v>
+      </c>
+      <c r="B3" s="44">
+        <v>950</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="46">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46">
+        <f>G3*F3</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551D98D-E6CB-4FC9-912B-9B63695D157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE018856-5F3F-4EEF-B7A3-10E520314E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25875" yWindow="1935" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="30360" yWindow="3615" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
-    <sheet name="Trades" sheetId="2" r:id="rId2"/>
+    <sheet name="Tracker" sheetId="3" r:id="rId2"/>
+    <sheet name="Trades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>SPX Open</t>
   </si>
@@ -153,9 +154,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>9:39am</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -180,16 +178,37 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Credit ea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit total </t>
-  </si>
-  <si>
     <t>Sep20 3830/3805 @ -4.30</t>
   </si>
   <si>
     <t>Sep20 3895/3925 @ -3.00</t>
+  </si>
+  <si>
+    <t>P/L ea.</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>2D MA</t>
+  </si>
+  <si>
+    <t>5D MA</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Wt. stdPos</t>
+  </si>
+  <si>
+    <t>P/L</t>
+  </si>
+  <si>
+    <t>Linked Data</t>
+  </si>
+  <si>
+    <t>4:03pm</t>
   </si>
 </sst>
 </file>
@@ -359,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +484,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +825,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -807,7 +850,7 @@
         <v>44824</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -843,7 +886,7 @@
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.15789949041116</v>
+        <v>0.30966785750188597</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -862,7 +905,7 @@
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.33367455910870258</v>
+        <v>0.44075371198480678</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -881,7 +924,7 @@
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.31097814236282023</v>
+        <v>0.37811331435020734</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -900,7 +943,7 @@
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.25723649910829732</v>
+        <v>0.37140646283029666</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>34</v>
@@ -912,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3857.7</v>
+        <v>3876.23</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -921,7 +964,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3856.04</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
@@ -937,7 +982,9 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3877.96</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
@@ -952,7 +999,9 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3895.32</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
@@ -968,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>26</v>
@@ -1012,7 +1061,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>61.663164504938784</v>
+        <v>62.154504461153429</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>37</v>
@@ -1030,7 +1079,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3961.5531645049386</v>
+        <v>3962.0445044611533</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>27</v>
@@ -1048,7 +1097,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3838.2268354950611</v>
+        <v>3837.7354955388464</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
@@ -1083,7 +1132,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>86.907931357580395</v>
+        <v>87.600424834533229</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1141,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3973.5179313575804</v>
+        <v>3974.2104248345336</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1101,7 +1150,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3799.7020686424198</v>
+        <v>3799.0095751654667</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1166,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>140.06316693182609</v>
+        <v>141.1967181505629</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1126,7 +1175,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>4050.713166931826</v>
+        <v>4051.846718150563</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1135,7 +1184,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3770.5868330681742</v>
+        <v>3769.4532818494372</v>
       </c>
     </row>
   </sheetData>
@@ -1145,11 +1194,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="50"/>
+    <col min="6" max="6" width="9.140625" style="49"/>
+    <col min="7" max="7" width="10.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <f>Indicator!B2</f>
+        <v>44824</v>
+      </c>
+      <c r="B2" s="50">
+        <f>Indicator!$C$9</f>
+        <v>3876.23</v>
+      </c>
+      <c r="C2" s="50">
+        <f>Indicator!$C$10</f>
+        <v>3856.04</v>
+      </c>
+      <c r="D2" s="50">
+        <f>Indicator!$C$11</f>
+        <v>3877.96</v>
+      </c>
+      <c r="E2" s="50">
+        <f>Indicator!$C$12</f>
+        <v>3895.32</v>
+      </c>
+      <c r="F2" s="49">
+        <f>Indicator!$C$13</f>
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="49">
+        <f>Indicator!$F$8</f>
+        <v>0.37140646283029666</v>
+      </c>
+      <c r="H2" s="46">
+        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
+        <v>7.2899999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>44823</v>
+      </c>
+      <c r="B5" s="50">
+        <v>3849.91</v>
+      </c>
+      <c r="C5" s="50">
+        <v>3899.89</v>
+      </c>
+      <c r="D5" s="50">
+        <v>3886.61</v>
+      </c>
+      <c r="E5" s="50">
+        <v>3910.65</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>44824</v>
+      </c>
+      <c r="B6" s="50">
+        <v>3876.23</v>
+      </c>
+      <c r="C6" s="50">
+        <v>3856.04</v>
+      </c>
+      <c r="D6" s="50">
+        <v>3877.96</v>
+      </c>
+      <c r="E6" s="50">
+        <v>3895.32</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.253</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.37140646283029666</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7.2899999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,34 +1361,33 @@
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>49</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,10 +1398,10 @@
         <v>949</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>-0.15</v>
@@ -1210,11 +1410,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="46">
-        <v>4.3</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="46">
         <f>G2*F2</f>
-        <v>4.3</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,10 +1425,10 @@
         <v>950</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0.09</v>
@@ -1237,11 +1437,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="46">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="H3" s="46">
         <f>G3*F3</f>
-        <v>3</v>
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE018856-5F3F-4EEF-B7A3-10E520314E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726259B0-8AE0-4213-B49E-DE15B6C65508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="3615" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>SPX Open</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>STO BullPut</t>
-  </si>
-  <si>
-    <t>STO BearCall</t>
-  </si>
-  <si>
     <t>Time (EST)</t>
   </si>
   <si>
@@ -178,12 +172,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Sep20 3830/3805 @ -4.30</t>
-  </si>
-  <si>
-    <t>Sep20 3895/3925 @ -3.00</t>
-  </si>
-  <si>
     <t>P/L ea.</t>
   </si>
   <si>
@@ -208,7 +196,40 @@
     <t>Linked Data</t>
   </si>
   <si>
-    <t>4:03pm</t>
+    <t>Max. P/L</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>Sep20 3830/3805 @ -4.30 BullPut</t>
+  </si>
+  <si>
+    <t>Sep20 3895/3925 @ -3.00 BearCall</t>
+  </si>
+  <si>
+    <t>Capture %</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>High volitility expected, betting that market goes up overall</t>
+  </si>
+  <si>
+    <t>Sep21 3815/3790 @ -5.20 BullPut</t>
+  </si>
+  <si>
+    <t>Stop Loss Value</t>
+  </si>
+  <si>
+    <t>Profit Taker %</t>
+  </si>
+  <si>
+    <t>Stop Loss %</t>
+  </si>
+  <si>
+    <t>Profit Taker Value</t>
   </si>
 </sst>
 </file>
@@ -378,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,35 +500,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +871,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,16 +887,14 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44824</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>57</v>
+        <v>44825</v>
+      </c>
+      <c r="C2" s="55">
+        <v>0.40972222222222227</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -879,14 +923,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3849.91</v>
+        <v>3876.23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.30966785750188597</v>
+        <v>0.67418322291861388</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -898,14 +942,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3899.89</v>
+        <v>3855.93</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.44075371198480678</v>
+        <v>0.49471068299340765</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -917,14 +961,14 @@
         <v>13</v>
       </c>
       <c r="C7" s="13">
-        <v>3886.61</v>
+        <v>3877.91</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.37811331435020734</v>
+        <v>0.43338859247351447</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -936,14 +980,14 @@
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <v>3910.65</v>
+        <v>3895.3</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.37140646283029666</v>
+        <v>0.54994273452311893</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>34</v>
@@ -955,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3876.23</v>
+        <v>3877</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -964,9 +1008,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3856.04</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
@@ -982,9 +1024,7 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
-        <v>3877.96</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
@@ -999,9 +1039,7 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13">
-        <v>3895.32</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.253</v>
+        <v>0.249</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>26</v>
@@ -1061,7 +1099,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>62.154504461153429</v>
+        <v>60.482288842034471</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>37</v>
@@ -1079,7 +1117,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3962.0445044611533</v>
+        <v>3916.4122888420343</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>27</v>
@@ -1097,7 +1135,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3837.7354955388464</v>
+        <v>3795.4477111579654</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
@@ -1132,7 +1170,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>87.600424834533229</v>
+        <v>86.022448537842592</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1141,7 +1179,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3974.2104248345336</v>
+        <v>3963.9324485378424</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,7 +1188,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3799.0095751654667</v>
+        <v>3791.8875514621573</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1204,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>141.1967181505629</v>
+        <v>137.36385913121455</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1175,7 +1213,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>4051.846718150563</v>
+        <v>4032.6638591312148</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1184,7 +1222,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3769.4532818494372</v>
+        <v>3757.9361408687855</v>
       </c>
     </row>
   </sheetData>
@@ -1195,148 +1233,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="50"/>
-    <col min="6" max="6" width="9.140625" style="49"/>
-    <col min="7" max="7" width="10.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="2" max="5" width="9.140625" style="46"/>
+    <col min="6" max="6" width="9.140625" style="45"/>
+    <col min="7" max="7" width="10.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <f>Indicator!B2</f>
+        <v>44825</v>
+      </c>
+      <c r="B2" s="47">
+        <f>Indicator!$C$9</f>
+        <v>3877</v>
+      </c>
+      <c r="C2" s="47">
+        <f>Indicator!$C$10</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="47">
+        <f>Indicator!$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="47">
+        <f>Indicator!$C$12</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="48">
+        <f>Indicator!$C$13</f>
+        <v>0.249</v>
+      </c>
+      <c r="G2" s="48">
+        <f>Indicator!$F$8</f>
+        <v>0.54994273452311893</v>
+      </c>
+      <c r="H2" s="49">
+        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
+        <v>5.17</v>
+      </c>
+      <c r="I2" s="50">
+        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
+        <v>5.17</v>
+      </c>
+      <c r="J2" s="21">
+        <f>H2/I2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>44824</v>
       </c>
-      <c r="B2" s="50">
-        <f>Indicator!$C$9</f>
+      <c r="B5" s="46">
         <v>3876.23</v>
       </c>
-      <c r="C2" s="50">
-        <f>Indicator!$C$10</f>
+      <c r="C5" s="46">
         <v>3856.04</v>
       </c>
-      <c r="D2" s="50">
-        <f>Indicator!$C$11</f>
+      <c r="D5" s="46">
         <v>3877.96</v>
       </c>
-      <c r="E2" s="50">
-        <f>Indicator!$C$12</f>
+      <c r="E5" s="46">
         <v>3895.32</v>
       </c>
-      <c r="F2" s="49">
-        <f>Indicator!$C$13</f>
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="49">
-        <f>Indicator!$F$8</f>
-        <v>0.37140646283029666</v>
-      </c>
-      <c r="H2" s="46">
-        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
+      <c r="F5" s="45">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H5" s="17">
         <v>7.2899999999999991</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>44823</v>
-      </c>
-      <c r="B5" s="50">
-        <v>3849.91</v>
-      </c>
-      <c r="C5" s="50">
-        <v>3899.89</v>
-      </c>
-      <c r="D5" s="50">
-        <v>3886.61</v>
-      </c>
-      <c r="E5" s="50">
-        <v>3910.65</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H5" s="48"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>44824</v>
-      </c>
-      <c r="B6" s="50">
-        <v>3876.23</v>
-      </c>
-      <c r="C6" s="50">
-        <v>3856.04</v>
-      </c>
-      <c r="D6" s="50">
-        <v>3877.96</v>
-      </c>
-      <c r="E6" s="50">
-        <v>3895.32</v>
-      </c>
-      <c r="F6" s="49">
-        <v>0.253</v>
-      </c>
-      <c r="G6" s="49">
-        <v>0.37140646283029666</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="I5">
         <v>7.2899999999999991</v>
+      </c>
+      <c r="J5" s="21">
+        <f>H5/I5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1347,101 +1395,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="G1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="62">
+        <v>44824</v>
+      </c>
+      <c r="B2" s="63">
+        <v>949</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>44824</v>
-      </c>
-      <c r="B2" s="44">
-        <v>949</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="31">
         <v>-0.15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="31">
         <v>1</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="64">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="65">
         <f>G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="I2" s="66">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>-I2*G2</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="62">
         <v>44824</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="63">
         <v>950</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="31">
         <v>0.09</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="64">
         <v>3.02</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="65">
         <f>G3*F3</f>
         <v>3.02</v>
+      </c>
+      <c r="I3" s="66">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f>-I3*G3</f>
+        <v>-9.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>44825</v>
+      </c>
+      <c r="B4" s="63">
+        <v>944</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="31">
+        <v>-0.15</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="64">
+        <v>5.17</v>
+      </c>
+      <c r="H4" s="65">
+        <f>G4*F4</f>
+        <v>5.17</v>
+      </c>
+      <c r="I4" s="66">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>-I4*G4</f>
+        <v>-15.51</v>
+      </c>
+      <c r="K4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="L4">
+        <f>-G4+K4*G4</f>
+        <v>-1.2925</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726259B0-8AE0-4213-B49E-DE15B6C65508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D14D4-9879-4E00-98B9-67A730D9D979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="3615" windowWidth="20280" windowHeight="15420" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="30360" yWindow="3615" windowWidth="20280" windowHeight="15420" activeTab="1" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>SPX Open</t>
   </si>
@@ -223,13 +223,19 @@
     <t>Stop Loss Value</t>
   </si>
   <si>
-    <t>Profit Taker %</t>
-  </si>
-  <si>
     <t>Stop Loss %</t>
   </si>
   <si>
-    <t>Profit Taker Value</t>
+    <t>Sep21 3815/3790 @ -1.30 BullPut</t>
+  </si>
+  <si>
+    <t>BTC PT</t>
+  </si>
+  <si>
+    <t>Profit Take %</t>
+  </si>
+  <si>
+    <t>Profit Take Value</t>
   </si>
 </sst>
 </file>
@@ -870,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +900,7 @@
         <v>44825</v>
       </c>
       <c r="C2" s="55">
-        <v>0.40972222222222227</v>
+        <v>0.18263888888888891</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +936,7 @@
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.67418322291861388</v>
+        <v>0.62788867862130904</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -949,7 +955,7 @@
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.49471068299340765</v>
+        <v>0.46216103987591151</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -968,7 +974,7 @@
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.43338859247351447</v>
+        <v>0.41300477377688555</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -987,7 +993,7 @@
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.54994273452311893</v>
+        <v>0.51517990352733356</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>34</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3877</v>
+        <v>3871.4</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1008,7 +1014,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3789.93</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1032,9 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3822.93</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1049,9 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3864.09</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1235,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,19 +1281,19 @@
       </c>
       <c r="B2" s="47">
         <f>Indicator!$C$9</f>
-        <v>3877</v>
+        <v>3871.4</v>
       </c>
       <c r="C2" s="47">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3789.93</v>
       </c>
       <c r="D2" s="47">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3822.93</v>
       </c>
       <c r="E2" s="47">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3864.09</v>
       </c>
       <c r="F2" s="48">
         <f>Indicator!$C$13</f>
@@ -1289,11 +1301,11 @@
       </c>
       <c r="G2" s="48">
         <f>Indicator!$F$8</f>
-        <v>0.54994273452311893</v>
+        <v>0.51517990352733356</v>
       </c>
       <c r="H2" s="49">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>5.17</v>
+        <v>3.84</v>
       </c>
       <c r="I2" s="50">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
@@ -1301,7 +1313,7 @@
       </c>
       <c r="J2" s="21">
         <f>H2/I2</f>
-        <v>1</v>
+        <v>0.74274661508704065</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1383,6 +1395,37 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>44825</v>
+      </c>
+      <c r="B6" s="46">
+        <v>3871.4</v>
+      </c>
+      <c r="C6" s="46">
+        <v>3789.93</v>
+      </c>
+      <c r="D6" s="46">
+        <v>3822.93</v>
+      </c>
+      <c r="E6" s="46">
+        <v>3864.09</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.249</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0.51517990352733356</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.84</v>
+      </c>
+      <c r="I6" s="17">
+        <v>5.17</v>
+      </c>
+      <c r="J6" s="21">
+        <f>H6/I6</f>
+        <v>0.74274661508704065</v>
+      </c>
       <c r="K6" s="17" t="s">
         <v>59</v>
       </c>
@@ -1395,17 +1438,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
@@ -1443,16 +1486,16 @@
         <v>51</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1550,11 +1593,11 @@
         <v>5.17</v>
       </c>
       <c r="I4" s="66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
         <f>-I4*G4</f>
-        <v>-15.51</v>
+        <v>-12.925000000000001</v>
       </c>
       <c r="K4" s="66">
         <v>0.75</v>
@@ -1562,6 +1605,30 @@
       <c r="L4">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>44825</v>
+      </c>
+      <c r="B5" s="63">
+        <v>243</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="64">
+        <v>-1.33</v>
+      </c>
+      <c r="H5" s="65">
+        <f>G5*F5</f>
+        <v>-1.33</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D14D4-9879-4E00-98B9-67A730D9D979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980CFE5-9A86-46E4-93E9-A88D792B02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="3615" windowWidth="20280" windowHeight="15420" activeTab="1" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="27525" yWindow="5010" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
-    <sheet name="Tracker" sheetId="3" r:id="rId2"/>
-    <sheet name="Trades" sheetId="2" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
+    <sheet name="Tracker" sheetId="3" r:id="rId3"/>
+    <sheet name="Trades" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SPX Open</t>
   </si>
@@ -67,9 +68,6 @@
     <t>E. Price Move</t>
   </si>
   <si>
-    <t>&lt; 0.0%</t>
-  </si>
-  <si>
     <t>SPX Prior 5D MA</t>
   </si>
   <si>
@@ -109,21 +107,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>&gt; 100.0%</t>
-  </si>
-  <si>
-    <t>0 - 15%</t>
-  </si>
-  <si>
-    <t>15 - 30%</t>
-  </si>
-  <si>
-    <t>70 - 85%</t>
-  </si>
-  <si>
-    <t>85 - 100%</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
@@ -142,15 +125,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>30 - 40%</t>
-  </si>
-  <si>
     <t>40 - 60%</t>
   </si>
   <si>
-    <t>60 - 70%</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -196,9 +173,6 @@
     <t>Linked Data</t>
   </si>
   <si>
-    <t>Max. P/L</t>
-  </si>
-  <si>
     <t>STO</t>
   </si>
   <si>
@@ -236,13 +210,117 @@
   </si>
   <si>
     <t>Profit Take Value</t>
+  </si>
+  <si>
+    <t>&lt; 10.0%</t>
+  </si>
+  <si>
+    <t>&gt; 90.0%</t>
+  </si>
+  <si>
+    <t>10 - 25%</t>
+  </si>
+  <si>
+    <t>25 - 40%</t>
+  </si>
+  <si>
+    <t>60 - 75%</t>
+  </si>
+  <si>
+    <t>75 - 90%</t>
+  </si>
+  <si>
+    <t>P. Max.</t>
+  </si>
+  <si>
+    <t>Portfolio P/L</t>
+  </si>
+  <si>
+    <t>(EST)</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t>% N. Liquid</t>
+  </si>
+  <si>
+    <t>Starting N. Liquid</t>
+  </si>
+  <si>
+    <t>Current N. Liquid</t>
+  </si>
+  <si>
+    <t>P/L %</t>
+  </si>
+  <si>
+    <t>Premium Capture %</t>
+  </si>
+  <si>
+    <t>Premium Sold</t>
+  </si>
+  <si>
+    <t>P. Max Total</t>
+  </si>
+  <si>
+    <t>Spread Strike Width</t>
+  </si>
+  <si>
+    <t>P/L % Annualized</t>
+  </si>
+  <si>
+    <t>P/L % Projected 2022End</t>
+  </si>
+  <si>
+    <t>Margin Required Total</t>
+  </si>
+  <si>
+    <t>Number of Spreads per Side</t>
+  </si>
+  <si>
+    <t>Number of Trade Days</t>
+  </si>
+  <si>
+    <t>Number of Wins</t>
+  </si>
+  <si>
+    <t>Number of Losses</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Avg. P/(L)</t>
+  </si>
+  <si>
+    <t>Rate %</t>
+  </si>
+  <si>
+    <t>Premium Target per Day</t>
+  </si>
+  <si>
+    <t>Stop Loss Target per Day</t>
+  </si>
+  <si>
+    <t>Avg. Risk Target per Day</t>
+  </si>
+  <si>
+    <t>Sep22 3820/3845 @ -2.40 Bear Call</t>
+  </si>
+  <si>
+    <t>Sep22 3745/3720 @ -5.00 Bull Put</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -405,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,20 +571,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -515,9 +585,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -528,9 +595,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +624,73 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,6 +706,3518 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tracker!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio P/L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tracker!$K$5:$K$700</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>728.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA3-4209-9688-99EAB6BA8CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1590737584"/>
+        <c:axId val="1590738000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$H$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>P/L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$H$5:$H$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>7.2899999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.84</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3EA3-4209-9688-99EAB6BA8CEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>P. Max.</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$I$5:$I$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>7.2899999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3EA3-4209-9688-99EAB6BA8CEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Capture %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$J$5:$J$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.74274661508704065</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3EA3-4209-9688-99EAB6BA8CEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1590737584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590738000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1590738000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590737584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily P/L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Potential Max Premium</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Premium Sold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44825</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tracker!$I$5:$I$700</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>7.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.17</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68A7-4CF3-92F1-579C12FDEE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1590737584"/>
+        <c:axId val="1590738000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Capture %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$J$5:$J$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.74274661508704065</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-68A7-4CF3-92F1-579C12FDEE2D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Portfolio P/L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$K$5:$K$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>728.99999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-68A7-4CF3-92F1-579C12FDEE2D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Premium Captured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44825</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tracker!$H$5:$H$700</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>7.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.84</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68A7-4CF3-92F1-579C12FDEE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="744530864"/>
+        <c:axId val="744523376"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1590737584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590738000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1590738000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590737584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744523376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="744530864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="744530864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="744523376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily P/L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Potential Max Premium</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tracker!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capture %</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44825</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tracker!$J$5:$J$700</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="696"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74274661508704065</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-172A-493E-AAB0-7630A20C3FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1590737584"/>
+        <c:axId val="1590738000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Premium Sold</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$I$5:$I$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>7.2899999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-172A-493E-AAB0-7630A20C3FBE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Portfolio P/L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$K$5:$K$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>728.99999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-172A-493E-AAB0-7630A20C3FBE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="744530864"/>
+        <c:axId val="744523376"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Premium Captured</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tracker!$H$5:$H$700</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="696"/>
+                      <c:pt idx="0">
+                        <c:v>7.2899999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.84</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-172A-493E-AAB0-7630A20C3FBE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1590737584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590738000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1590738000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590737584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744523376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="744530864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="744530864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="744523376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489EF669-1C23-4810-84D8-786C37B3B54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99539E96-3EF9-4BFC-9649-6CD80CAA1B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35289618-1FDA-489A-BC86-59DC472B35CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,17 +4533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44825</v>
-      </c>
-      <c r="C2" s="55">
-        <v>0.18263888888888891</v>
+        <v>44826</v>
+      </c>
+      <c r="C2" s="71">
+        <v>0.4284722222222222</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -908,19 +4553,19 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -929,14 +4574,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3876.23</v>
+        <v>3871.4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.62788867862130904</v>
+        <v>0.44283124481493741</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -948,14 +4593,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3855.93</v>
+        <v>3789.93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.46216103987591151</v>
+        <v>0.27286790363856178</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -964,17 +4609,17 @@
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3877.91</v>
+        <v>3822.93</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.41300477377688555</v>
+        <v>0.21097045559782512</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -983,20 +4628,20 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3895.3</v>
+        <v>3864.09</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.51517990352733356</v>
+        <v>0.32414092913811315</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -1005,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3871.4</v>
+        <v>3782.86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1014,32 +4659,28 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3789.93</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="42"/>
+        <v>24</v>
+      </c>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3822.93</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G11" s="30">
         <v>-0.21</v>
@@ -1047,16 +4688,14 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3864.09</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0.09</v>
       </c>
       <c r="G12" s="32">
         <v>-0.18</v>
@@ -1067,13 +4706,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.249</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F13" s="31">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G13" s="32">
         <v>-0.15</v>
@@ -1081,10 +4720,10 @@
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" s="31">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G14" s="32">
         <v>-0.15</v>
@@ -1092,17 +4731,17 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F15" s="31">
         <v>0.15</v>
       </c>
       <c r="G15" s="32">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1111,34 +4750,34 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>60.482288842034471</v>
+        <v>61.834475642448638</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F16" s="31">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="G16" s="32">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3916.4122888420343</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0.15</v>
-      </c>
-      <c r="G17" s="32">
-        <v>-0.09</v>
+        <v>3851.7644756424484</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1147,32 +4786,13 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3795.4477111579654</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0.18</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>34</v>
+        <v>3728.0955243575513</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -1182,7 +4802,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>86.022448537842592</v>
+        <v>88.208581353988166</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1191,7 +4811,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3963.9324485378424</v>
+        <v>3911.1385813539882</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,13 +4820,13 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3791.8875514621573</v>
+        <v>3734.7214186460114</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -1216,7 +4836,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>137.36385913121455</v>
+        <v>140.5219666522591</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1225,7 +4845,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>4032.6638591312148</v>
+        <v>4004.6119666522591</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,7 +4854,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3757.9361408687855</v>
+        <v>3723.5680333477412</v>
       </c>
     </row>
   </sheetData>
@@ -1244,191 +4864,490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471B6A24-2033-402A-BBD4-215D07AF7C50}">
+  <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="46"/>
-    <col min="6" max="6" width="9.140625" style="45"/>
-    <col min="7" max="7" width="10.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="17"/>
-    <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="23" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="7" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44"/>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="81"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="81">
+        <v>44824</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="84">
+        <f>COUNTA(Tracker!K:K)-1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="78">
+        <f>C7/F3</f>
+        <v>556.5</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="74">
+        <f>2*1.25%</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L3" s="78">
+        <f>K3*C5</f>
+        <v>592.0412500000001</v>
+      </c>
+      <c r="M3" s="83"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="78">
+        <v>23681.65</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="84">
+        <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="87">
+        <f>F4/F3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="78">
+        <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
+        <v>556.5</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="74">
+        <f>-3.75%</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="L4" s="78">
+        <f>K4*C5</f>
+        <v>-888.06187499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="78">
+        <v>23681.65</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="84">
+        <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="87">
+        <f>F5/F3</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="78" t="e">
+        <f>(SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="74">
+        <f>+K3+K4</f>
+        <v>-1.2499999999999997E-2</v>
+      </c>
+      <c r="L5" s="78">
+        <f>+L3+L4</f>
+        <v>-296.02062499999988</v>
+      </c>
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="78">
+        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
+        <v>1113</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="82">
+        <f>C7/C4</f>
+        <v>4.699841438413286E-2</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="J7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="88">
+        <v>20</v>
+      </c>
+      <c r="L7" s="88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="78">
+        <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
+        <v>1246</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="82">
+        <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
+        <v>266.15681009798004</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="J8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="88">
+        <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="85">
+        <f>FLOOR(MROUND(C4/1000, 5)/25, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="82">
+        <f>C7/C8</f>
+        <v>0.8932584269662921</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="82">
+        <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
+        <v>3.8396448137552506</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="J9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="89">
+        <f>K7*K8*100*2</f>
+        <v>4000</v>
+      </c>
+      <c r="L9" s="89">
+        <f>L7*L8*100*2</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="42"/>
+    <col min="6" max="6" width="9.140625" style="41"/>
+    <col min="7" max="7" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="9.140625" style="67"/>
+    <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64">
         <f>Indicator!B2</f>
-        <v>44825</v>
-      </c>
-      <c r="B2" s="47">
+        <v>44826</v>
+      </c>
+      <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3871.4</v>
-      </c>
-      <c r="C2" s="47">
+        <v>3782.86</v>
+      </c>
+      <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3789.93</v>
-      </c>
-      <c r="D2" s="47">
+        <v>0</v>
+      </c>
+      <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3822.93</v>
-      </c>
-      <c r="E2" s="47">
+        <v>0</v>
+      </c>
+      <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3864.09</v>
-      </c>
-      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.249</v>
-      </c>
-      <c r="G2" s="48">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.51517990352733356</v>
-      </c>
-      <c r="H2" s="49">
+        <v>0.32414092913811315</v>
+      </c>
+      <c r="H2" s="65">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>3.84</v>
-      </c>
-      <c r="I2" s="50">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I2" s="66">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>5.17</v>
-      </c>
-      <c r="J2" s="21">
-        <f>H2/I2</f>
-        <v>0.74274661508704065</v>
-      </c>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="72"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="44"/>
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="K4" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
         <v>44824</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="42">
         <v>3876.23</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="42">
         <v>3856.04</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="42">
         <v>3877.96</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="42">
         <v>3895.32</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="41">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="41">
         <v>0.25700000000000001</v>
       </c>
       <c r="H5" s="17">
         <v>7.2899999999999991</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="67">
         <v>7.2899999999999991</v>
       </c>
       <c r="J5" s="21">
         <f>H5/I5</f>
         <v>1</v>
       </c>
+      <c r="K5" s="72">
+        <f>H5*100</f>
+        <v>728.99999999999989</v>
+      </c>
+      <c r="L5">
+        <f>I5*100</f>
+        <v>728.99999999999989</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>44825</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>3871.4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="42">
         <v>3789.93</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="42">
         <v>3822.93</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="42">
         <v>3864.09</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="41">
         <v>0.249</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="41">
         <v>0.51517990352733356</v>
       </c>
       <c r="H6" s="17">
         <v>3.84</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="67">
         <v>5.17</v>
       </c>
       <c r="J6" s="21">
         <f>H6/I6</f>
         <v>0.74274661508704065</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="K6" s="72">
+        <f>K5+H6*100</f>
+        <v>1113</v>
+      </c>
+      <c r="L6">
+        <f>I6*100+L5</f>
+        <v>1246</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,80 +5355,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="55" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="58" t="s">
+      <c r="A1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
+      <c r="I1" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="62">
+      <c r="A2" s="54">
         <v>44824</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="55">
         <v>949</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E2" s="31">
         <v>-0.15</v>
@@ -1517,33 +5436,33 @@
       <c r="F2" s="31">
         <v>1</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="56">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="57">
         <f>G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="58">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="79">
         <f>-I2*G2</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="54">
         <v>44824</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="55">
         <v>950</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E3" s="31">
         <v>0.09</v>
@@ -1551,33 +5470,33 @@
       <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="56">
         <v>3.02</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="57">
         <f>G3*F3</f>
         <v>3.02</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="58">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="79">
         <f>-I3*G3</f>
         <v>-9.06</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="54">
         <v>44825</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="55">
         <v>944</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="31">
         <v>-0.15</v>
@@ -1585,50 +5504,110 @@
       <c r="F4" s="31">
         <v>1</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="56">
         <v>5.17</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="57">
         <f>G4*F4</f>
         <v>5.17</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="58">
         <v>2.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="79">
         <f>-I4*G4</f>
         <v>-12.925000000000001</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="58">
         <v>0.75</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="79">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="54">
         <v>44825</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="55">
         <v>243</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F5" s="31">
         <v>1</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="56">
         <v>-1.33</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="57">
         <f>G5*F5</f>
         <v>-1.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <v>44826</v>
+      </c>
+      <c r="B6" s="55">
+        <v>937</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="31">
+        <v>-0.16</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56">
+        <v>4.97</v>
+      </c>
+      <c r="H6" s="57">
+        <f>G6*F6</f>
+        <v>4.97</v>
+      </c>
+      <c r="I6" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>44826</v>
+      </c>
+      <c r="B7" s="55">
+        <v>946</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="31">
+        <v>2</v>
+      </c>
+      <c r="G7" s="56">
+        <v>2.37</v>
+      </c>
+      <c r="H7" s="57">
+        <f>G7*F7</f>
+        <v>4.74</v>
+      </c>
+      <c r="I7" s="58">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980CFE5-9A86-46E4-93E9-A88D792B02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7F219-D0A4-4CE6-9C0A-8D2D48EDFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27525" yWindow="5010" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="27525" yWindow="5010" windowWidth="23580" windowHeight="14010" activeTab="3" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
     <sheet name="Tracker" sheetId="3" r:id="rId3"/>
     <sheet name="Trades" sheetId="2" r:id="rId4"/>
+    <sheet name="Statistical Proof" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>SPX Open</t>
   </si>
@@ -312,16 +313,84 @@
   </si>
   <si>
     <t>Sep22 3745/3720 @ -5.00 Bull Put</t>
+  </si>
+  <si>
+    <t>Assuming 1std = $50 distance from SPX</t>
+  </si>
+  <si>
+    <t>Assuming max win = $500</t>
+  </si>
+  <si>
+    <t>Assuming max loss = ($250)</t>
+  </si>
+  <si>
+    <t>1-Side Max Loss</t>
+  </si>
+  <si>
+    <t>Break Even Low</t>
+  </si>
+  <si>
+    <t>Max Win Low</t>
+  </si>
+  <si>
+    <t>Max Win High</t>
+  </si>
+  <si>
+    <t>Break Even High</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>SPX Distance</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Quick Calc Worst Case</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Max Win</t>
+  </si>
+  <si>
+    <t>Max Loss</t>
+  </si>
+  <si>
+    <t>Even - Win</t>
+  </si>
+  <si>
+    <t>Loss - Even</t>
+  </si>
+  <si>
+    <t>Expected Returns</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Profit / Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -483,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,24 +666,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -690,6 +741,36 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +856,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -799,6 +877,9 @@
                 <c:pt idx="1">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44826</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -813,6 +894,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,6 +972,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -908,6 +995,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>3.84</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.7100000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -971,6 +1061,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -991,6 +1084,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5.17</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.7100000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1054,6 +1150,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1074,6 +1173,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.74274661508704065</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1332,7 +1434,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -1352,6 +1454,9 @@
                 <c:pt idx="1">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44826</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1367,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7100000000000009</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1441,6 +1549,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1461,6 +1572,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.74274661508704065</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1521,6 +1635,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1541,6 +1658,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2084</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1567,7 +1687,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -1587,6 +1707,9 @@
                 <c:pt idx="1">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44826</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1602,6 +1725,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7100000000000009</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1943,10 +2069,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1966,6 +2089,9 @@
                 <c:pt idx="1">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44826</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1981,6 +2107,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.74274661508704065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2041,6 +2170,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2061,6 +2193,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5.17</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.7100000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2121,6 +2256,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2141,6 +2279,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2084</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2208,6 +2349,9 @@
                       <c:pt idx="1">
                         <c:v>44825</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44826</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2228,6 +2372,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>3.84</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.7100000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4519,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4680,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -4544,8 +4691,8 @@
       <c r="B2" s="20">
         <v>44826</v>
       </c>
-      <c r="C2" s="71">
-        <v>0.4284722222222222</v>
+      <c r="C2" s="65">
+        <v>0.69236111111111109</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4581,7 +4728,7 @@
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.44283124481493741</v>
+        <v>0.43878819282165138</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -4600,7 +4747,7 @@
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.27286790363856178</v>
+        <v>0.27003371226894063</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -4619,7 +4766,7 @@
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.21097045559782512</v>
+        <v>0.20919137431995871</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -4638,7 +4785,7 @@
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.32414092913811315</v>
+        <v>0.32110807324379981</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>28</v>
@@ -4650,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3782.86</v>
+        <v>3782.36</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4659,7 +4806,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3757.99</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
@@ -4675,7 +4824,9 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3773.96</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4690,7 +4841,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3835.41</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
@@ -4868,7 +5021,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,8 +5031,8 @@
     <col min="3" max="3" width="11.28515625" style="17" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="17"/>
     <col min="5" max="5" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="74" customWidth="1"/>
-    <col min="7" max="7" width="7" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="7" style="68" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="17"/>
     <col min="10" max="10" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
@@ -4888,7 +5041,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="81"/>
+      <c r="C1" s="75"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
@@ -4899,21 +5052,21 @@
       <c r="C2" s="17">
         <v>2022</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="71" t="s">
         <v>85</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="71" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="22"/>
@@ -4923,66 +5076,66 @@
       <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="75">
         <v>44824</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="78">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="72">
         <f>C7/F3</f>
-        <v>556.5</v>
+        <v>694.66666666666663</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="68">
         <f>2*1.25%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="72">
         <f>K3*C5</f>
         <v>592.0412500000001</v>
       </c>
-      <c r="M3" s="83"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="72">
         <v>23681.65</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="78">
         <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="87">
+        <v>3</v>
+      </c>
+      <c r="G4" s="81">
         <f>F4/F3</f>
         <v>1</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>556.5</v>
+        <v>694.66666666666663</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="68">
         <f>-3.75%</f>
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="72">
         <f>K4*C5</f>
         <v>-888.06187499999999</v>
       </c>
@@ -4991,36 +5144,36 @@
       <c r="B5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="72">
         <v>23681.65</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="78">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="81">
         <f>F5/F3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="78" t="e">
-        <f>(SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100</f>
-        <v>#DIV/0!</v>
+      <c r="H5" s="72">
+        <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="68">
         <f>+K3+K4</f>
         <v>-1.2499999999999997E-2</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="72">
         <f>+L3+L4</f>
         <v>-296.02062499999988</v>
       </c>
-      <c r="M5" s="83"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -5030,25 +5183,25 @@
       <c r="B7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="72">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
-        <v>1113</v>
+        <v>2084</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="76">
         <f>C7/C4</f>
-        <v>4.699841438413286E-2</v>
-      </c>
-      <c r="G7" s="82"/>
+        <v>8.8000624956453624E-2</v>
+      </c>
+      <c r="G7" s="76"/>
       <c r="J7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="82">
         <v>20</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="82">
         <v>25</v>
       </c>
     </row>
@@ -5056,26 +5209,26 @@
       <c r="B8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="72">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
-        <v>1246</v>
+        <v>2217</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>266.15681009798004</v>
-      </c>
-      <c r="G8" s="82"/>
+        <v>28610.850928801134</v>
+      </c>
+      <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="82">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="79">
         <f>FLOOR(MROUND(C4/1000, 5)/25, 1)</f>
         <v>1</v>
       </c>
@@ -5084,45 +5237,45 @@
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="76">
         <f>C7/C8</f>
-        <v>0.8932584269662921</v>
+        <v>0.94000902119981955</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>3.8396448137552506</v>
-      </c>
-      <c r="G9" s="82"/>
+        <v>17.096752173544029</v>
+      </c>
+      <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="83">
         <f>K7*K8*100*2</f>
         <v>4000</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L9" s="83">
         <f>L7*L8*100*2</f>
         <v>5000</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5136,58 +5289,58 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="42"/>
     <col min="6" max="6" width="9.140625" style="41"/>
     <col min="7" max="7" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="9.140625" style="67"/>
+    <col min="9" max="9" width="9.140625" style="61"/>
     <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="58">
         <f>Indicator!B2</f>
         <v>44826</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3782.86</v>
+        <v>3782.36</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3757.99</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3773.96</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3835.41</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5195,33 +5348,33 @@
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.32414092913811315</v>
-      </c>
-      <c r="H2" s="65">
+        <v>0.32110807324379981</v>
+      </c>
+      <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
         <v>9.7100000000000009</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
         <v>9.7100000000000009</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="72"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="72"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="61"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -5245,24 +5398,24 @@
       <c r="H4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="63" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>65</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="74" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="64">
+      <c r="A5" s="58">
         <v>44824</v>
       </c>
       <c r="B5" s="42">
@@ -5286,14 +5439,14 @@
       <c r="H5" s="17">
         <v>7.2899999999999991</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="61">
         <v>7.2899999999999991</v>
       </c>
       <c r="J5" s="21">
         <f>H5/I5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="66">
         <f>H5*100</f>
         <v>728.99999999999989</v>
       </c>
@@ -5303,7 +5456,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="58">
         <v>44825</v>
       </c>
       <c r="B6" s="42">
@@ -5327,14 +5480,14 @@
       <c r="H6" s="17">
         <v>3.84</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="61">
         <v>5.17</v>
       </c>
       <c r="J6" s="21">
         <f>H6/I6</f>
         <v>0.74274661508704065</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="66">
         <f>K5+H6*100</f>
         <v>1113</v>
       </c>
@@ -5347,7 +5500,45 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J7" s="21"/>
+      <c r="A7" s="58">
+        <v>44826</v>
+      </c>
+      <c r="B7" s="42">
+        <v>3782.36</v>
+      </c>
+      <c r="C7" s="42">
+        <v>3757.99</v>
+      </c>
+      <c r="D7" s="42">
+        <v>3773.96</v>
+      </c>
+      <c r="E7" s="42">
+        <v>3835.41</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.32110807324379981</v>
+      </c>
+      <c r="H7" s="17">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I7" s="61">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="J7" s="21">
+        <f>H7/I7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="66">
+        <f>K6+H7*100</f>
+        <v>2084</v>
+      </c>
+      <c r="L7">
+        <f>I7*100+L6</f>
+        <v>2217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5359,69 +5550,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="55" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="91" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="48">
         <v>44824</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="49">
         <v>949</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -5436,26 +5627,26 @@
       <c r="F2" s="31">
         <v>1</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="50">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="57">
-        <f>G2*F2</f>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2:H7" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="52">
         <v>3</v>
       </c>
-      <c r="J2" s="79">
-        <f>-I2*G2</f>
+      <c r="J2" s="73">
+        <f t="shared" ref="J2:J4" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="48">
         <v>44824</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="49">
         <v>950</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -5470,26 +5661,26 @@
       <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="50">
         <v>3.02</v>
       </c>
-      <c r="H3" s="57">
-        <f>G3*F3</f>
+      <c r="H3" s="51">
+        <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="52">
         <v>3</v>
       </c>
-      <c r="J3" s="79">
-        <f>-I3*G3</f>
+      <c r="J3" s="73">
+        <f t="shared" si="1"/>
         <v>-9.06</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="48">
         <v>44825</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="49">
         <v>944</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -5504,33 +5695,33 @@
       <c r="F4" s="31">
         <v>1</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="50">
         <v>5.17</v>
       </c>
-      <c r="H4" s="57">
-        <f>G4*F4</f>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
         <v>5.17</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="52">
         <v>2.5</v>
       </c>
-      <c r="J4" s="79">
-        <f>-I4*G4</f>
+      <c r="J4" s="73">
+        <f t="shared" si="1"/>
         <v>-12.925000000000001</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="52">
         <v>0.75</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="73">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="48">
         <v>44825</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="49">
         <v>243</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -5542,25 +5733,25 @@
       <c r="F5" s="31">
         <v>1</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="50">
         <v>-1.33</v>
       </c>
-      <c r="H5" s="57">
-        <f>G5*F5</f>
+      <c r="H5" s="51">
+        <f t="shared" si="0"/>
         <v>-1.33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="48">
         <v>44826</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="49">
         <v>937</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="69" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="31">
@@ -5569,28 +5760,32 @@
       <c r="F6" s="31">
         <v>1</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="50">
         <v>4.97</v>
       </c>
-      <c r="H6" s="57">
-        <f>G6*F6</f>
+      <c r="H6" s="51">
+        <f t="shared" si="0"/>
         <v>4.97</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="52">
         <v>3</v>
       </c>
+      <c r="J6" s="73">
+        <f>-I6*H6</f>
+        <v>-14.91</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="48">
         <v>44826</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="49">
         <v>946</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="69" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="31">
@@ -5599,19 +5794,327 @@
       <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="50">
         <v>2.37</v>
       </c>
-      <c r="H7" s="57">
-        <f>G7*F7</f>
+      <c r="H7" s="51">
+        <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="52">
         <v>3</v>
+      </c>
+      <c r="J7" s="73">
+        <f>-I7*H7</f>
+        <v>-14.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F65F32E-FB9F-420E-8864-907EF6C913D5}">
+  <dimension ref="B2:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="92"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="93">
+        <v>-1.5</v>
+      </c>
+      <c r="D7" s="93">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E7" s="93">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="93">
+        <v>1</v>
+      </c>
+      <c r="G7" s="93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="93">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>-75</v>
+      </c>
+      <c r="D8">
+        <v>-55</v>
+      </c>
+      <c r="E8">
+        <v>-50</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="94">
+        <v>-0.43319999999999997</v>
+      </c>
+      <c r="D9" s="94">
+        <v>-0.36430000000000001</v>
+      </c>
+      <c r="E9" s="94">
+        <v>-0.34129999999999999</v>
+      </c>
+      <c r="F9" s="94">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="G9" s="94">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="H9" s="94">
+        <v>0.43319999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="95">
+        <v>-250</v>
+      </c>
+      <c r="D10" s="95">
+        <v>0</v>
+      </c>
+      <c r="E10" s="95">
+        <v>500</v>
+      </c>
+      <c r="F10" s="95">
+        <v>500</v>
+      </c>
+      <c r="G10" s="95">
+        <v>0</v>
+      </c>
+      <c r="H10" s="95">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="92"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="96">
+        <f>E10</f>
+        <v>500</v>
+      </c>
+      <c r="D14" s="94">
+        <f>F9-E9</f>
+        <v>0.68259999999999998</v>
+      </c>
+      <c r="E14" s="96">
+        <f>C14*D14</f>
+        <v>341.3</v>
+      </c>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="96">
+        <f>C10</f>
+        <v>-250</v>
+      </c>
+      <c r="D15" s="94">
+        <f>100%+C9-H9</f>
+        <v>0.1336</v>
+      </c>
+      <c r="E15" s="96">
+        <f>D15*C15</f>
+        <v>-33.4</v>
+      </c>
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="96">
+        <v>0</v>
+      </c>
+      <c r="D16" s="94">
+        <f>G9-D9-D14</f>
+        <v>4.6000000000000041E-2</v>
+      </c>
+      <c r="E16" s="96">
+        <f t="shared" ref="E16:E17" si="0">D16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="94"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="96">
+        <v>-250</v>
+      </c>
+      <c r="D17" s="94">
+        <f>(H9-G9)*2</f>
+        <v>0.13779999999999992</v>
+      </c>
+      <c r="E17" s="96">
+        <f t="shared" si="0"/>
+        <v>-34.449999999999982</v>
+      </c>
+      <c r="F17" s="94"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="95"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="96">
+        <f>SUM(E14:E17)</f>
+        <v>273.45000000000005</v>
+      </c>
+      <c r="D21" s="97">
+        <f>C21*21</f>
+        <v>5742.4500000000007</v>
+      </c>
+      <c r="E21" s="96">
+        <f>C21*252</f>
+        <v>68909.400000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="96">
+        <f>E10</f>
+        <v>500</v>
+      </c>
+      <c r="D22" s="97">
+        <f>C22*21</f>
+        <v>10500</v>
+      </c>
+      <c r="E22" s="96">
+        <f>C22*252</f>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="98">
+        <f>C21/C22</f>
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="D23" s="98">
+        <f>D21/D22</f>
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="E23" s="98">
+        <f>E21/E22</f>
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7F219-D0A4-4CE6-9C0A-8D2D48EDFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276166EE-00A8-489B-9E7B-8C82D65FE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27525" yWindow="5010" windowWidth="23580" windowHeight="14010" activeTab="3" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="27990" yWindow="5325" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>SPX Open</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Profit / Loss</t>
+  </si>
+  <si>
+    <t>Sep23 3685/3660 @ -6.50 Bull Put</t>
+  </si>
+  <si>
+    <t>Discovered IBKR-Web does not live update Delta</t>
+  </si>
+  <si>
+    <t>Sep23 3665/3640 @ -4.00 Bull Put</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,6 +779,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4666,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,10 +4704,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C2" s="65">
-        <v>0.69236111111111109</v>
+        <v>0.40972222222222227</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4721,14 +4736,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3871.4</v>
+        <v>3782.36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.43878819282165138</v>
+        <v>6.8059372151140718E-2</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -4740,14 +4755,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3789.93</v>
+        <v>3757.99</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.27003371226894063</v>
+        <v>0.1059023383282697</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -4759,14 +4774,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3822.93</v>
+        <v>3773.96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.20919137431995871</v>
+        <v>3.7522048178788195E-2</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -4778,14 +4793,14 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3864.09</v>
+        <v>3835.41</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.32110807324379981</v>
+        <v>7.2302473517058111E-2</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>28</v>
@@ -4797,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3782.36</v>
+        <v>3704</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4806,9 +4821,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3757.99</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
@@ -4824,9 +4837,7 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13">
-        <v>3773.96</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4841,9 +4852,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3835.41</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.25900000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>61</v>
@@ -4903,7 +4912,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>61.834475642448638</v>
+        <v>62.49701523665361</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>63</v>
@@ -4921,7 +4930,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3851.7644756424484</v>
+        <v>3820.4870152366534</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>59</v>
@@ -4939,7 +4948,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3728.0955243575513</v>
+        <v>3695.4929847633462</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4955,7 +4964,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>88.208581353988166</v>
+        <v>88.759724814447566</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4964,7 +4973,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3911.1385813539882</v>
+        <v>3862.7197248144475</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4973,7 +4982,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3734.7214186460114</v>
+        <v>3685.2002751855525</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4989,7 +4998,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>140.5219666522591</v>
+        <v>142.07163766674157</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -4998,7 +5007,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>4004.6119666522591</v>
+        <v>3977.4816376667413</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5007,7 +5016,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3723.5680333477412</v>
+        <v>3693.3383623332584</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5135,7 @@
       </c>
       <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>694.66666666666663</v>
+        <v>694.66666666666652</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>88</v>
@@ -5218,7 +5227,7 @@
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>28610.850928801134</v>
+        <v>2198.9330550062496</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
@@ -5246,7 +5255,7 @@
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>17.096752173544029</v>
+        <v>7.7740575614878065</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
@@ -5286,10 +5295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,39 +5333,39 @@
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3782.36</v>
+        <v>3704</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3757.99</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3773.96</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3835.41</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.25900000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.32110807324379981</v>
+        <v>7.2302473517058111E-2</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>9.7100000000000009</v>
+        <v>10.44</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>9.7100000000000009</v>
+        <v>10.44</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5540,6 +5549,11 @@
         <v>2217</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5548,10 +5562,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,7 +5574,7 @@
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
@@ -5583,7 +5597,7 @@
       <c r="D1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="101" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -5621,7 +5635,7 @@
       <c r="D2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="102">
         <v>-0.15</v>
       </c>
       <c r="F2" s="31">
@@ -5631,7 +5645,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H7" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H9" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -5655,7 +5669,7 @@
       <c r="D3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="102">
         <v>0.09</v>
       </c>
       <c r="F3" s="31">
@@ -5689,7 +5703,7 @@
       <c r="D4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="102">
         <v>-0.15</v>
       </c>
       <c r="F4" s="31">
@@ -5754,7 +5768,7 @@
       <c r="D6" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="102">
         <v>-0.16</v>
       </c>
       <c r="F6" s="31">
@@ -5788,7 +5802,7 @@
       <c r="D7" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="102">
         <v>0.13</v>
       </c>
       <c r="F7" s="31">
@@ -5807,6 +5821,74 @@
       <c r="J7" s="73">
         <f>-I7*H7</f>
         <v>-14.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>44827</v>
+      </c>
+      <c r="B8" s="49">
+        <v>936</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="102">
+        <v>-0.3</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>6.47</v>
+      </c>
+      <c r="H8" s="51">
+        <f t="shared" si="0"/>
+        <v>6.47</v>
+      </c>
+      <c r="I8" s="52">
+        <v>3</v>
+      </c>
+      <c r="J8" s="73">
+        <f>-I8*H8</f>
+        <v>-19.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>44827</v>
+      </c>
+      <c r="B9" s="49">
+        <v>949</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="102">
+        <v>-0.19</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50">
+        <v>3.97</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" si="0"/>
+        <v>3.97</v>
+      </c>
+      <c r="I9" s="52">
+        <v>3</v>
+      </c>
+      <c r="J9" s="73">
+        <f>-I9*H9</f>
+        <v>-11.91</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276166EE-00A8-489B-9E7B-8C82D65FE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637D1496-A300-4E4C-AF90-554E4052DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27990" yWindow="5325" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="3120" yWindow="5685" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>SPX Open</t>
   </si>
@@ -384,10 +384,19 @@
     <t>Sep23 3685/3660 @ -6.50 Bull Put</t>
   </si>
   <si>
-    <t>Discovered IBKR-Web does not live update Delta</t>
-  </si>
-  <si>
     <t>Sep23 3665/3640 @ -4.00 Bull Put</t>
+  </si>
+  <si>
+    <t>BTC SL</t>
+  </si>
+  <si>
+    <t>Sep23 3665/3640 @ -12.40 Bull Put</t>
+  </si>
+  <si>
+    <t>Sep23 3655/3640 @ -2.25 Bull Put</t>
+  </si>
+  <si>
+    <t>Discovered IBKR-Web does not live update Delta; deviated from strategy; high volitility triggered SL</t>
   </si>
 </sst>
 </file>
@@ -895,6 +904,9 @@
                 <c:pt idx="2">
                   <c:v>44826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -912,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.999999999999545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,6 +1005,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1013,6 +1031,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>9.7100000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-19.870000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1079,6 +1100,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1102,6 +1126,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>9.7100000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1168,6 +1195,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1191,6 +1221,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.5695102685624016</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1472,6 +1505,9 @@
                 <c:pt idx="2">
                   <c:v>44826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44827</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1490,6 +1526,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.66</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1567,6 +1606,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1590,6 +1632,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.5695102685624016</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1653,6 +1698,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1676,6 +1724,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>2084</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>96.999999999999545</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1725,6 +1776,9 @@
                 <c:pt idx="2">
                   <c:v>44826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44827</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1743,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.870000000000005</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1777,7 +1834,7 @@
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2107,6 +2164,9 @@
                 <c:pt idx="2">
                   <c:v>44826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44827</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2125,6 +2185,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5695102685624016</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2188,6 +2251,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2211,6 +2277,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>9.7100000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2274,6 +2343,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2297,6 +2369,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>2084</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>96.999999999999545</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2367,6 +2442,9 @@
                       <c:pt idx="2">
                         <c:v>44826</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44827</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2390,6 +2468,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>9.7100000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-19.870000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4682,7 +4763,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,7 +4788,7 @@
         <v>44827</v>
       </c>
       <c r="C2" s="65">
-        <v>0.40972222222222227</v>
+        <v>0.19305555555555554</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4743,7 +4824,7 @@
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>6.8059372151140718E-2</v>
+        <v>0.26561758376169692</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -4762,7 +4843,7 @@
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.1059023383282697</v>
+        <v>0.2495364121152378</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -4781,7 +4862,7 @@
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>3.7522048178788195E-2</v>
+        <v>0.13846254004577735</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -4800,7 +4881,7 @@
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>7.2302473517058111E-2</v>
+        <v>0.22597893531506713</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>28</v>
@@ -4812,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3704</v>
+        <v>3727.14</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4821,7 +4902,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3693.49</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
@@ -4837,7 +4920,9 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3725.74</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4852,7 +4937,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3799.45</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
@@ -4868,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.26400000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>61</v>
@@ -4912,7 +4999,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>62.49701523665361</v>
+        <v>65.811250893142827</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>63</v>
@@ -4930,7 +5017,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3820.4870152366534</v>
+        <v>3823.8012508931424</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>59</v>
@@ -4948,7 +5035,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3695.4929847633462</v>
+        <v>3692.1787491068571</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4964,7 +5051,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>88.759724814447566</v>
+        <v>93.466679918244026</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4973,7 +5060,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3862.7197248144475</v>
+        <v>3867.4266799182442</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,7 +5069,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3685.2002751855525</v>
+        <v>3680.4933200817559</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4998,7 +5085,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>142.07163766674157</v>
+        <v>149.7355212011901</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5007,7 +5094,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3977.4816376667413</v>
+        <v>3985.1455212011901</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5103,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3693.3383623332584</v>
+        <v>3685.6744787988096</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5117,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,14 +5180,14 @@
       </c>
       <c r="F3" s="78">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="72">
         <f>C7/F3</f>
-        <v>694.66666666666663</v>
+        <v>24.249999999999886</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>87</v>
@@ -5131,11 +5218,11 @@
       </c>
       <c r="G4" s="81">
         <f>F4/F3</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>694.66666666666652</v>
+        <v>694.66666666666663</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>88</v>
@@ -5161,15 +5248,15 @@
       </c>
       <c r="F5" s="78">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="81">
         <f>F5/F3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="72">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
-        <v>0</v>
+        <v>-1987.0000000000005</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>89</v>
@@ -5194,14 +5281,14 @@
       </c>
       <c r="C7" s="72">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
-        <v>2084</v>
+        <v>96.999999999999545</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="76">
         <f>C7/C4</f>
-        <v>8.8000624956453624E-2</v>
+        <v>4.0959983784913442E-3</v>
       </c>
       <c r="G7" s="76"/>
       <c r="J7" s="22" t="s">
@@ -5220,14 +5307,14 @@
       </c>
       <c r="C8" s="72">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
-        <v>2217</v>
+        <v>3483</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>2198.9330550062496</v>
+        <v>0.45207922266486622</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
@@ -5248,14 +5335,14 @@
       </c>
       <c r="C9" s="76">
         <f>C7/C8</f>
-        <v>0.94000902119981955</v>
+        <v>2.7849554981337798E-2</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>7.7740575614878065</v>
+        <v>0.1109955883822813</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
@@ -5298,7 +5385,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,35 +5424,35 @@
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3704</v>
+        <v>3727.14</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3693.49</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3725.74</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3799.45</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.26400000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>7.2302473517058111E-2</v>
+        <v>0.22597893531506713</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>10.44</v>
+        <v>-19.870000000000005</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>10.44</v>
+        <v>12.66</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5550,8 +5637,47 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>44827</v>
+      </c>
+      <c r="B8" s="42">
+        <v>3727.14</v>
+      </c>
+      <c r="C8" s="42">
+        <v>3693.49</v>
+      </c>
+      <c r="D8" s="42">
+        <v>3725.74</v>
+      </c>
+      <c r="E8" s="42">
+        <v>3799.45</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0.22597893531506713</v>
+      </c>
+      <c r="H8" s="17">
+        <v>-19.870000000000005</v>
+      </c>
+      <c r="I8" s="61">
+        <v>12.66</v>
+      </c>
+      <c r="J8" s="21">
+        <f>H8/I8</f>
+        <v>-1.5695102685624016</v>
+      </c>
+      <c r="K8" s="66">
+        <f>K7+H8*100</f>
+        <v>96.999999999999545</v>
+      </c>
+      <c r="L8">
+        <f>I8*100+L7</f>
+        <v>3483</v>
+      </c>
       <c r="M8" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5562,10 +5688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,7 +5994,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="102">
         <v>-0.19</v>
@@ -5889,6 +6015,88 @@
       <c r="J9" s="73">
         <f>-I9*H9</f>
         <v>-11.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>44827</v>
+      </c>
+      <c r="B10" s="49">
+        <v>240</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <v>-12.43</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" ref="H10:H12" si="2">G10*F10</f>
+        <v>-12.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>44827</v>
+      </c>
+      <c r="B11" s="49">
+        <v>255</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" si="2"/>
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>44827</v>
+      </c>
+      <c r="B12" s="49">
+        <v>311</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="102">
+        <v>-0.19</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H12" s="51">
+        <f t="shared" si="2"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I12" s="52">
+        <v>3</v>
+      </c>
+      <c r="J12" s="73">
+        <f>-I12*H12</f>
+        <v>-6.66</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637D1496-A300-4E4C-AF90-554E4052DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E307DE-0505-4D3D-A401-76581C7A1822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="5685" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="12855" yWindow="5925" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
     <sheet name="Tracker" sheetId="3" r:id="rId3"/>
     <sheet name="Trades" sheetId="2" r:id="rId4"/>
-    <sheet name="Statistical Proof" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Delta15" sheetId="6" r:id="rId5"/>
+    <sheet name="DeltaInd" sheetId="7" r:id="rId6"/>
+    <sheet name="Statistical Proof" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>SPX Open</t>
   </si>
@@ -397,6 +399,15 @@
   </si>
   <si>
     <t>Discovered IBKR-Web does not live update Delta; deviated from strategy; high volitility triggered SL</t>
+  </si>
+  <si>
+    <t>Sep26 3740/3765 Bear Call @ -3.30</t>
+  </si>
+  <si>
+    <t>Sep26 3650/3625 Bull Put @-4.30</t>
+  </si>
+  <si>
+    <t>Sep26 3760/3785 Bear Call @ -1.50</t>
   </si>
 </sst>
 </file>
@@ -4785,10 +4796,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="C2" s="65">
-        <v>0.19305555555555554</v>
+        <v>0.45624999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4817,14 +4828,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3782.36</v>
+        <v>3727.14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.26561758376169692</v>
+        <v>0.41674616372904594</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -4836,14 +4847,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3757.99</v>
+        <v>3693.49</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.2495364121152378</v>
+        <v>0.26688600747623897</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -4855,14 +4866,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3773.96</v>
+        <v>3725.74</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.13846254004577735</v>
+        <v>0.1034058134695641</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -4874,14 +4885,14 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3835.41</v>
+        <v>3799.45</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.22597893531506713</v>
+        <v>0.28269041759555957</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>28</v>
@@ -4893,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3727.14</v>
+        <v>3682.72</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4902,9 +4913,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3693.49</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
@@ -4920,9 +4929,7 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13">
-        <v>3725.74</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4937,9 +4944,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3799.45</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
@@ -4999,7 +5004,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*252^-0.5</f>
-        <v>65.811250893142827</v>
+        <v>64.68170406555474</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>63</v>
@@ -5017,7 +5022,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3823.8012508931424</v>
+        <v>3758.1717040655544</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>59</v>
@@ -5035,7 +5040,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3692.1787491068571</v>
+        <v>3628.8082959344451</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5051,7 +5056,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>93.466679918244026</v>
+        <v>92.272453348365772</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5060,7 +5065,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3867.4266799182442</v>
+        <v>3818.0124533483654</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5069,7 +5074,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3680.4933200817559</v>
+        <v>3633.4675466516342</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5085,7 +5090,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>149.7355212011901</v>
+        <v>147.1655459970313</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5094,7 +5099,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3985.1455212011901</v>
+        <v>3946.6155459970309</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5103,7 +5108,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3685.6744787988096</v>
+        <v>3652.2844540029687</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5227,7 @@
       </c>
       <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>694.66666666666663</v>
+        <v>694.66666666666652</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>88</v>
@@ -5314,7 +5319,7 @@
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.45207922266486622</v>
+        <v>0.23755894099839581</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
@@ -5342,7 +5347,7 @@
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.1109955883822813</v>
+        <v>6.1992217001927807E-2</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
@@ -5420,23 +5425,23 @@
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3727.14</v>
+        <v>3682.72</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3693.49</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3725.74</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3799.45</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5444,15 +5449,15 @@
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.22597893531506713</v>
+        <v>0.28269041759555957</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>-19.870000000000005</v>
+        <v>9.01</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>12.66</v>
+        <v>9.01</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5688,10 +5693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H13" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5705,7 @@
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
@@ -6037,7 +6042,7 @@
         <v>-12.43</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" ref="H10:H12" si="2">G10*F10</f>
+        <f t="shared" ref="H10:H15" si="2">G10*F10</f>
         <v>-12.43</v>
       </c>
     </row>
@@ -6097,6 +6102,108 @@
       <c r="J12" s="73">
         <f>-I12*H12</f>
         <v>-6.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B13" s="49">
+        <v>742</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="102">
+        <v>-0.15</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H13" s="51">
+        <f t="shared" si="2"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I13" s="52">
+        <v>3</v>
+      </c>
+      <c r="J13" s="73">
+        <f t="shared" ref="J13:J14" si="3">-I13*H13</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B14" s="49">
+        <v>742</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>3.27</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" si="2"/>
+        <v>3.27</v>
+      </c>
+      <c r="I14" s="52">
+        <v>3</v>
+      </c>
+      <c r="J14" s="73">
+        <f t="shared" si="3"/>
+        <v>-9.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B15" s="49">
+        <v>815</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1.47</v>
+      </c>
+      <c r="H15" s="51">
+        <f t="shared" si="2"/>
+        <v>1.47</v>
+      </c>
+      <c r="I15" s="52">
+        <v>3</v>
+      </c>
+      <c r="J15" s="73">
+        <f t="shared" ref="J15" si="4">-I15*H15</f>
+        <v>-4.41</v>
       </c>
     </row>
   </sheetData>
@@ -6106,6 +6213,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B2" s="49">
+        <v>742</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="102">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2:H3" si="0">G2*F2</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I2" s="52">
+        <v>3</v>
+      </c>
+      <c r="J2" s="73">
+        <f t="shared" ref="J2:J3" si="1">-I2*H2</f>
+        <v>-12.809999999999999</v>
+      </c>
+      <c r="N2" s="73">
+        <f>SUM(H:H)</f>
+        <v>7.5399999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B3" s="49">
+        <v>742</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="50">
+        <v>3.27</v>
+      </c>
+      <c r="H3" s="51">
+        <f t="shared" si="0"/>
+        <v>3.27</v>
+      </c>
+      <c r="I3" s="52">
+        <v>3</v>
+      </c>
+      <c r="J3" s="73">
+        <f t="shared" si="1"/>
+        <v>-9.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B2" s="49">
+        <v>742</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="102">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2:H3" si="0">G2*F2</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I2" s="52">
+        <v>3</v>
+      </c>
+      <c r="J2" s="73">
+        <f t="shared" ref="J2" si="1">-I2*H2</f>
+        <v>-12.809999999999999</v>
+      </c>
+      <c r="N2" s="73">
+        <f>SUM(H:H)</f>
+        <v>5.7399999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>44830</v>
+      </c>
+      <c r="B3" s="49">
+        <v>815</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1.47</v>
+      </c>
+      <c r="H3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.47</v>
+      </c>
+      <c r="I3" s="52">
+        <v>3</v>
+      </c>
+      <c r="J3" s="73">
+        <f t="shared" ref="J3" si="2">-I3*H3</f>
+        <v>-4.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F65F32E-FB9F-420E-8864-907EF6C913D5}">
   <dimension ref="B2:I23"/>
   <sheetViews>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E307DE-0505-4D3D-A401-76581C7A1822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBA2AC-BB1C-4CE4-B9FC-CB07196DC7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="5925" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="27270" yWindow="5520" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tracker" sheetId="3" r:id="rId3"/>
     <sheet name="Trades" sheetId="2" r:id="rId4"/>
     <sheet name="Delta15" sheetId="6" r:id="rId5"/>
-    <sheet name="DeltaInd" sheetId="7" r:id="rId6"/>
+    <sheet name="DeltaMR" sheetId="7" r:id="rId6"/>
     <sheet name="Statistical Proof" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>SPX Open</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Sep26 3760/3785 Bear Call @ -1.50</t>
+  </si>
+  <si>
+    <t>Sep26 3650/3625 Bull Put @ -4.30</t>
   </si>
 </sst>
 </file>
@@ -918,6 +921,9 @@
                 <c:pt idx="3">
                   <c:v>44827</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44830</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -938,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>96.999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1424.9999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,6 +1028,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1045,6 +1057,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>-19.870000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1114,6 +1129,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1140,6 +1158,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>12.66</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1209,6 +1230,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1235,6 +1259,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>-1.5695102685624016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1519,6 +1546,9 @@
                 <c:pt idx="3">
                   <c:v>44827</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44830</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1540,6 +1570,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.28</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1620,6 +1653,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1646,6 +1682,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>-1.5695102685624016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1712,6 +1751,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1738,6 +1780,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>96.999999999999545</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1424.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1790,6 +1835,9 @@
                 <c:pt idx="3">
                   <c:v>44827</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44830</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1811,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-19.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.28</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2178,6 +2229,9 @@
                 <c:pt idx="3">
                   <c:v>44827</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44830</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2199,6 +2253,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1.5695102685624016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2265,6 +2322,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2291,6 +2351,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>12.66</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2357,6 +2420,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2383,6 +2449,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>96.999999999999545</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1424.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2456,6 +2525,9 @@
                       <c:pt idx="3">
                         <c:v>44827</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44830</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2482,6 +2554,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>-19.870000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4774,7 +4849,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4799,7 +4874,7 @@
         <v>44830</v>
       </c>
       <c r="C2" s="65">
-        <v>0.45624999999999999</v>
+        <v>0.68055555555555547</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4913,7 +4988,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3655.52</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +5006,9 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3674.37</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4944,7 +5023,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3750.52</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +5203,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,14 +5266,14 @@
       </c>
       <c r="F3" s="78">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="72">
         <f>C7/F3</f>
-        <v>24.249999999999886</v>
+        <v>284.99999999999989</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>87</v>
@@ -5219,15 +5300,15 @@
       </c>
       <c r="F4" s="78">
         <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="81">
         <f>F4/F3</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>694.66666666666652</v>
+        <v>853.00000000000011</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>88</v>
@@ -5257,7 +5338,7 @@
       </c>
       <c r="G5" s="81">
         <f>F5/F3</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="72">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
@@ -5286,14 +5367,14 @@
       </c>
       <c r="C7" s="72">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
-        <v>96.999999999999545</v>
+        <v>1424.9999999999995</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="76">
         <f>C7/C4</f>
-        <v>4.0959983784913442E-3</v>
+        <v>6.0173172055156605E-2</v>
       </c>
       <c r="G7" s="76"/>
       <c r="J7" s="22" t="s">
@@ -5312,14 +5393,14 @@
       </c>
       <c r="C8" s="72">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
-        <v>3483</v>
+        <v>4811</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.23755894099839581</v>
+        <v>20.048414315519199</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
@@ -5340,14 +5421,14 @@
       </c>
       <c r="C9" s="76">
         <f>C7/C8</f>
-        <v>2.7849554981337798E-2</v>
+        <v>0.29619621700270204</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>6.1992217001927807E-2</v>
+        <v>1.3626622065913998</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
@@ -5387,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,15 +5514,15 @@
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3655.52</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3674.37</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3750.52</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5453,11 +5534,11 @@
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>9.01</v>
+        <v>13.28</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>9.01</v>
+        <v>13.28</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5685,6 +5766,47 @@
         <v>119</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>44830</v>
+      </c>
+      <c r="B9" s="42">
+        <v>3682.72</v>
+      </c>
+      <c r="C9" s="42">
+        <v>3655.52</v>
+      </c>
+      <c r="D9" s="42">
+        <v>3674.37</v>
+      </c>
+      <c r="E9" s="42">
+        <v>3750.52</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0.28269041759555957</v>
+      </c>
+      <c r="H9" s="17">
+        <v>13.28</v>
+      </c>
+      <c r="I9" s="61">
+        <v>13.28</v>
+      </c>
+      <c r="J9" s="21">
+        <f>H9/I9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="66">
+        <f>K8+H9*100</f>
+        <v>1424.9999999999995</v>
+      </c>
+      <c r="L9">
+        <f>I9*100+L8</f>
+        <v>4811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5696,7 +5818,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5704,7 +5826,7 @@
     <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
@@ -5783,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="73">
-        <f t="shared" ref="J2:J4" si="1">-I2*H2</f>
+        <f t="shared" ref="J2:J4" si="1">-I2*G2</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -5916,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="73">
-        <f>-I6*H6</f>
+        <f t="shared" ref="J6:J9" si="2">-I6*G6</f>
         <v>-14.91</v>
       </c>
     </row>
@@ -5950,8 +6072,8 @@
         <v>3</v>
       </c>
       <c r="J7" s="73">
-        <f>-I7*H7</f>
-        <v>-14.22</v>
+        <f t="shared" si="2"/>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5984,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="73">
-        <f>-I8*H8</f>
+        <f t="shared" si="2"/>
         <v>-19.41</v>
       </c>
     </row>
@@ -6018,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="73">
-        <f>-I9*H9</f>
+        <f t="shared" si="2"/>
         <v>-11.91</v>
       </c>
     </row>
@@ -6042,7 +6164,7 @@
         <v>-12.43</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" ref="H10:H15" si="2">G10*F10</f>
+        <f t="shared" ref="H10:H15" si="3">G10*F10</f>
         <v>-12.43</v>
       </c>
     </row>
@@ -6066,7 +6188,7 @@
         <v>-20.100000000000001</v>
       </c>
       <c r="H11" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-20.100000000000001</v>
       </c>
     </row>
@@ -6093,14 +6215,14 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H12" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="I12" s="52">
         <v>3</v>
       </c>
       <c r="J12" s="73">
-        <f>-I12*H12</f>
+        <f>-I12*G12</f>
         <v>-6.66</v>
       </c>
     </row>
@@ -6109,32 +6231,32 @@
         <v>44830</v>
       </c>
       <c r="B13" s="49">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="102">
         <v>-0.15</v>
       </c>
       <c r="F13" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="50">
         <v>4.2699999999999996</v>
       </c>
       <c r="H13" s="51">
-        <f t="shared" si="2"/>
-        <v>4.2699999999999996</v>
+        <f t="shared" si="3"/>
+        <v>8.5399999999999991</v>
       </c>
       <c r="I13" s="52">
         <v>3</v>
       </c>
       <c r="J13" s="73">
-        <f t="shared" ref="J13:J14" si="3">-I13*H13</f>
+        <f>-I13*G13</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -6143,7 +6265,7 @@
         <v>44830</v>
       </c>
       <c r="B14" s="49">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>45</v>
@@ -6161,14 +6283,14 @@
         <v>3.27</v>
       </c>
       <c r="H14" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.27</v>
       </c>
       <c r="I14" s="52">
         <v>3</v>
       </c>
       <c r="J14" s="73">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J14:J15" si="4">-I14*G14</f>
         <v>-9.81</v>
       </c>
     </row>
@@ -6177,7 +6299,7 @@
         <v>44830</v>
       </c>
       <c r="B15" s="49">
-        <v>815</v>
+        <v>1015</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>45</v>
@@ -6186,7 +6308,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="102">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F15" s="31">
         <v>1</v>
@@ -6195,14 +6317,14 @@
         <v>1.47</v>
       </c>
       <c r="H15" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
       <c r="I15" s="52">
         <v>3</v>
       </c>
       <c r="J15" s="73">
-        <f t="shared" ref="J15" si="4">-I15*H15</f>
+        <f t="shared" si="4"/>
         <v>-4.41</v>
       </c>
     </row>
@@ -6217,7 +6339,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6282,7 +6404,7 @@
         <v>44830</v>
       </c>
       <c r="B2" s="49">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>45</v>
@@ -6320,7 +6442,7 @@
         <v>44830</v>
       </c>
       <c r="B3" s="49">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>45</v>
@@ -6359,7 +6481,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6424,7 +6546,7 @@
         <v>44830</v>
       </c>
       <c r="B2" s="49">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>45</v>
@@ -6462,7 +6584,7 @@
         <v>44830</v>
       </c>
       <c r="B3" s="49">
-        <v>815</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>45</v>
@@ -6471,7 +6593,7 @@
         <v>122</v>
       </c>
       <c r="E3" s="102">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F3" s="31">
         <v>1</v>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBA2AC-BB1C-4CE4-B9FC-CB07196DC7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB79DF-178F-464C-99AA-646CDA6AAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27270" yWindow="5520" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="25860" yWindow="6480" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
   <si>
     <t>SPX Open</t>
   </si>
@@ -80,9 +80,6 @@
     <t>SPX Prior 2D MA</t>
   </si>
   <si>
-    <t>0 Day - Price Expectations</t>
-  </si>
-  <si>
     <t>2 Day - DTE Price Expectations</t>
   </si>
   <si>
@@ -411,6 +408,18 @@
   </si>
   <si>
     <t>Sep26 3650/3625 Bull Put @ -4.30</t>
+  </si>
+  <si>
+    <t>1 Day - Price Expectations</t>
+  </si>
+  <si>
+    <t>Sep27 3655/3630 Bull Put @ -3.40</t>
+  </si>
+  <si>
+    <t>Sep27 3750/3775 Bear Call @ -3.90</t>
+  </si>
+  <si>
+    <t>Sep27 3730/3755 Bear Call @ -3.00</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,6 +818,9 @@
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4849,7 +4861,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4866,15 +4878,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="C2" s="65">
-        <v>0.68055555555555547</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4882,19 +4894,19 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -4903,14 +4915,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3727.14</v>
+        <v>3682.72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.41674616372904594</v>
+        <v>0.74502479403446709</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -4922,14 +4934,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3693.49</v>
+        <v>3655.52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.26688600747623897</v>
+        <v>0.56728667959101653</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -4941,14 +4953,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3725.74</v>
+        <v>3674.37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.1034058134695641</v>
+        <v>0.27675799239404836</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -4960,17 +4972,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3799.45</v>
+        <v>3750.52</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.28269041759555957</v>
+        <v>0.55993917982521535</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -4979,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3682.72</v>
+        <v>3686.44</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4988,32 +5000,28 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3655.52</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>24</v>
       </c>
       <c r="K10" s="40"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3674.37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="30">
         <v>-0.21</v>
@@ -5023,11 +5031,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3750.52</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="31">
         <v>0.09</v>
@@ -5041,10 +5047,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.27800000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="31">
         <v>0.12</v>
@@ -5055,7 +5061,7 @@
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="31">
         <v>0.15</v>
@@ -5066,11 +5072,11 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="31">
         <v>0.15</v>
@@ -5084,11 +5090,11 @@
         <v>9</v>
       </c>
       <c r="C16" s="4">
-        <f>C6*C$13*252^-0.5</f>
-        <v>64.68170406555474</v>
+        <f>C6*C$13*SQRT((24/24)/252)</f>
+        <v>63.095655527110871</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="31">
         <v>0.18</v>
@@ -5103,16 +5109,16 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3758.1717040655544</v>
+        <v>3718.6156555271109</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="33">
         <v>0.21</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5121,13 +5127,13 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3628.8082959344451</v>
+        <v>3592.4243444728891</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -5137,7 +5143,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>92.272453348365772</v>
+        <v>89.690857636045607</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5146,7 +5152,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3818.0124533483654</v>
+        <v>3764.0608576360455</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5155,13 +5161,13 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3633.4675466516342</v>
+        <v>3584.6791423639543</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -5171,7 +5177,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>147.1655459970313</v>
+        <v>143.52137549557563</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5180,7 +5186,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3946.6155459970309</v>
+        <v>3894.0413754955757</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5195,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3652.2844540029687</v>
+        <v>3606.9986245044242</v>
       </c>
     </row>
   </sheetData>
@@ -5203,7 +5209,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,24 +5235,24 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="17">
         <v>2022</v>
       </c>
       <c r="F2" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="71" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>85</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="71" t="s">
         <v>6</v>
@@ -5256,27 +5262,27 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="75">
         <v>44824</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="78">
         <f>COUNTA(Tracker!K:K)-1</f>
         <v>5</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="72">
         <f>C7/F3</f>
         <v>284.99999999999989</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="68">
         <f>2*1.25%</f>
@@ -5290,13 +5296,13 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="72">
         <v>23681.65</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="78">
         <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
@@ -5311,7 +5317,7 @@
         <v>853.00000000000011</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="68">
         <f>-3.75%</f>
@@ -5324,13 +5330,13 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="72">
         <v>23681.65</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="78">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
@@ -5345,7 +5351,7 @@
         <v>-1987.0000000000005</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="68">
         <f>+K3+K4</f>
@@ -5363,14 +5369,14 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="72">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
         <v>1424.9999999999995</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="76">
         <f>C7/C4</f>
@@ -5378,7 +5384,7 @@
       </c>
       <c r="G7" s="76"/>
       <c r="J7" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="82">
         <v>20</v>
@@ -5389,22 +5395,22 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="72">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
         <v>4811</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>20.048414315519199</v>
+        <v>13.381923052175734</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="82">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
@@ -5417,22 +5423,22 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="76">
         <f>C7/C8</f>
         <v>0.29619621700270204</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>1.3626622065913998</v>
+        <v>1.1219074130035542</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="83">
         <f>K7*K8*100*2</f>
@@ -5471,7 +5477,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,7 +5497,7 @@
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -5506,39 +5512,39 @@
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3682.72</v>
+        <v>3686.44</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3655.52</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3674.37</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3750.52</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.27800000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.28269041759555957</v>
+        <v>0.55993917982521535</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>13.28</v>
+        <v>13.58</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>13.28</v>
+        <v>13.58</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5557,43 +5563,43 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="E4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="H4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="L4" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="74" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5678,7 +5684,7 @@
         <v>1246</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5763,7 +5769,7 @@
         <v>3483</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5815,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,40 +5845,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="D1" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="101" t="s">
+      <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="91" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5883,10 +5889,10 @@
         <v>949</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E2" s="102">
         <v>-0.15</v>
@@ -5917,10 +5923,10 @@
         <v>950</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="102">
         <v>0.09</v>
@@ -5951,10 +5957,10 @@
         <v>944</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="102">
         <v>-0.15</v>
@@ -5992,10 +5998,10 @@
         <v>243</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="31">
         <v>1</v>
@@ -6016,10 +6022,10 @@
         <v>937</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="102">
         <v>-0.16</v>
@@ -6050,10 +6056,10 @@
         <v>946</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="102">
         <v>0.13</v>
@@ -6084,10 +6090,10 @@
         <v>936</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="102">
         <v>-0.3</v>
@@ -6118,10 +6124,10 @@
         <v>949</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="102">
         <v>-0.19</v>
@@ -6152,10 +6158,10 @@
         <v>240</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="69" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>117</v>
       </c>
       <c r="F10" s="31">
         <v>1</v>
@@ -6164,7 +6170,7 @@
         <v>-12.43</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" ref="H10:H15" si="3">G10*F10</f>
+        <f t="shared" ref="H10:H18" si="3">G10*F10</f>
         <v>-12.43</v>
       </c>
     </row>
@@ -6176,10 +6182,10 @@
         <v>255</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="31">
         <v>1</v>
@@ -6200,10 +6206,10 @@
         <v>311</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="102">
         <v>-0.19</v>
@@ -6234,10 +6240,10 @@
         <v>942</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="102">
         <v>-0.15</v>
@@ -6268,10 +6274,10 @@
         <v>942</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="102">
         <v>0.15</v>
@@ -6302,10 +6308,10 @@
         <v>1015</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="102">
         <v>0.11</v>
@@ -6326,6 +6332,108 @@
       <c r="J15" s="73">
         <f t="shared" si="4"/>
         <v>-4.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B16" s="49">
+        <v>950</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="102">
+        <v>-0.16</v>
+      </c>
+      <c r="F16" s="31">
+        <v>2</v>
+      </c>
+      <c r="G16" s="50">
+        <v>3.37</v>
+      </c>
+      <c r="H16" s="51">
+        <f t="shared" si="3"/>
+        <v>6.74</v>
+      </c>
+      <c r="I16" s="52">
+        <v>3</v>
+      </c>
+      <c r="J16" s="73">
+        <f t="shared" ref="J16:J18" si="5">-I16*G16</f>
+        <v>-10.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B17" s="49">
+        <v>940</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="102">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="50">
+        <v>3.87</v>
+      </c>
+      <c r="H17" s="51">
+        <f t="shared" si="3"/>
+        <v>3.87</v>
+      </c>
+      <c r="I17" s="52">
+        <v>3</v>
+      </c>
+      <c r="J17" s="73">
+        <f t="shared" si="5"/>
+        <v>-11.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B18" s="49">
+        <v>1006</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="102">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2.97</v>
+      </c>
+      <c r="H18" s="51">
+        <f t="shared" si="3"/>
+        <v>2.97</v>
+      </c>
+      <c r="I18" s="52">
+        <v>3</v>
+      </c>
+      <c r="J18" s="73">
+        <f t="shared" si="5"/>
+        <v>-8.91</v>
       </c>
     </row>
   </sheetData>
@@ -6336,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,7 +6455,7 @@
     <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
@@ -6360,43 +6468,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="D1" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="101" t="s">
+      <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="91" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" s="99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6407,10 +6515,10 @@
         <v>942</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="102">
         <v>-0.15</v>
@@ -6422,7 +6530,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H3" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H5" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -6434,7 +6542,7 @@
       </c>
       <c r="N2" s="73">
         <f>SUM(H:H)</f>
-        <v>7.5399999999999991</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6445,10 +6553,10 @@
         <v>942</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="102">
         <v>0.15</v>
@@ -6469,6 +6577,74 @@
       <c r="J3" s="73">
         <f t="shared" si="1"/>
         <v>-9.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B4" s="49">
+        <v>950</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="102">
+        <v>-0.16</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>3.37</v>
+      </c>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
+        <v>3.37</v>
+      </c>
+      <c r="I4" s="52">
+        <v>3</v>
+      </c>
+      <c r="J4" s="73">
+        <f t="shared" ref="J4:J5" si="2">-I4*G4</f>
+        <v>-10.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B5" s="49">
+        <v>940</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="102">
+        <v>0.17</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3.42</v>
+      </c>
+      <c r="H5" s="51">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
+      <c r="I5" s="52">
+        <v>3</v>
+      </c>
+      <c r="J5" s="73">
+        <f t="shared" si="2"/>
+        <v>-10.26</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6489,7 +6665,7 @@
     <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
@@ -6502,43 +6678,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="D1" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="101" t="s">
+      <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="91" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" s="99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6549,10 +6725,10 @@
         <v>942</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="102">
         <v>-0.15</v>
@@ -6564,7 +6740,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H3" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H5" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -6576,7 +6752,7 @@
       </c>
       <c r="N2" s="73">
         <f>SUM(H:H)</f>
-        <v>5.7399999999999993</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6587,10 +6763,10 @@
         <v>1015</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="102">
         <v>0.11</v>
@@ -6611,6 +6787,74 @@
       <c r="J3" s="73">
         <f t="shared" ref="J3" si="2">-I3*H3</f>
         <v>-4.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B4" s="49">
+        <v>950</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="102">
+        <v>-0.16</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>3.37</v>
+      </c>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
+        <v>3.37</v>
+      </c>
+      <c r="I4" s="52">
+        <v>3</v>
+      </c>
+      <c r="J4" s="73">
+        <f t="shared" ref="J4:J5" si="3">-I4*G4</f>
+        <v>-10.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1006</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="102">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3.42</v>
+      </c>
+      <c r="H5" s="51">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
+      <c r="I5" s="52">
+        <v>3</v>
+      </c>
+      <c r="J5" s="73">
+        <f t="shared" si="3"/>
+        <v>-10.26</v>
       </c>
     </row>
   </sheetData>
@@ -6623,7 +6867,7 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,44 +6878,44 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="92"/>
       <c r="C6" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="E6" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="F6" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="G6" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="92" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="92"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="93">
         <v>-1.5</v>
@@ -6694,7 +6938,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>-75</v>
@@ -6717,7 +6961,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="94">
         <v>-0.43319999999999997</v>
@@ -6740,50 +6984,50 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="95">
-        <v>-250</v>
+        <v>-350</v>
       </c>
       <c r="D10" s="95">
         <v>0</v>
       </c>
       <c r="E10" s="95">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F10" s="95">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G10" s="95">
         <v>0</v>
       </c>
       <c r="H10" s="95">
-        <v>-250</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="99" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>104</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="92"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="96">
         <f>E10</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D14" s="94">
         <f>F9-E9</f>
@@ -6791,17 +7035,17 @@
       </c>
       <c r="E14" s="96">
         <f>C14*D14</f>
-        <v>341.3</v>
+        <v>238.91</v>
       </c>
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="96">
-        <f>C10</f>
-        <v>-250</v>
+        <f>C10*1.05</f>
+        <v>-367.5</v>
       </c>
       <c r="D15" s="94">
         <f>100%+C9-H9</f>
@@ -6809,13 +7053,13 @@
       </c>
       <c r="E15" s="96">
         <f>D15*C15</f>
-        <v>-33.4</v>
+        <v>-49.097999999999999</v>
       </c>
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="96">
         <v>0</v>
@@ -6832,10 +7076,11 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="96">
-        <v>-250</v>
+        <f>C15</f>
+        <v>-367.5</v>
       </c>
       <c r="D17" s="94">
         <f>(H9-G9)*2</f>
@@ -6843,7 +7088,7 @@
       </c>
       <c r="E17" s="96">
         <f t="shared" si="0"/>
-        <v>-34.449999999999982</v>
+        <v>-50.641499999999972</v>
       </c>
       <c r="F17" s="94"/>
     </row>
@@ -6854,67 +7099,67 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="E20" s="100" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="96">
         <f>SUM(E14:E17)</f>
-        <v>273.45000000000005</v>
+        <v>139.17050000000003</v>
       </c>
       <c r="D21" s="97">
         <f>C21*21</f>
-        <v>5742.4500000000007</v>
+        <v>2922.5805000000005</v>
       </c>
       <c r="E21" s="96">
         <f>C21*252</f>
-        <v>68909.400000000009</v>
+        <v>35070.966000000008</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="96">
         <f>E10</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D22" s="97">
         <f>C22*21</f>
-        <v>10500</v>
+        <v>7350</v>
       </c>
       <c r="E22" s="96">
         <f>C22*252</f>
-        <v>126000</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="98">
         <f>C21/C22</f>
-        <v>0.54690000000000005</v>
+        <v>0.39763000000000009</v>
       </c>
       <c r="D23" s="98">
         <f>D21/D22</f>
-        <v>0.54690000000000005</v>
+        <v>0.39763000000000004</v>
       </c>
       <c r="E23" s="98">
         <f>E21/E22</f>
-        <v>0.54690000000000005</v>
+        <v>0.39763000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB79DF-178F-464C-99AA-646CDA6AAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D7DF3-33AB-4631-949E-C57A614193B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25860" yWindow="6480" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="11640" yWindow="4605" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>SPX Open</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>Sep27 3730/3755 Bear Call @ -3.00</t>
+  </si>
+  <si>
+    <t>Sep27 3655/3630 Bull Put @ -14.1</t>
+  </si>
+  <si>
+    <t>Sep27 3660/3685 Bear Call @ -4.55</t>
+  </si>
+  <si>
+    <t>Triggered around 3650</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,6 +831,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,6 +948,9 @@
                 <c:pt idx="4">
                   <c:v>44830</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44831</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -959,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1424.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>866.99999999999955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,6 +1061,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1072,6 +1093,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>13.28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-5.58</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1144,6 +1168,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1173,6 +1200,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>13.28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.619999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1245,6 +1275,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1274,6 +1307,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.24668435013262602</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1561,6 +1597,9 @@
                 <c:pt idx="4">
                   <c:v>44830</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44831</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1585,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.619999999999997</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1668,6 +1710,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1697,6 +1742,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.24668435013262602</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1766,6 +1814,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1795,6 +1846,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1424.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>866.99999999999955</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1850,6 +1904,9 @@
                 <c:pt idx="4">
                   <c:v>44830</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44831</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1874,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.58</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2244,6 +2304,9 @@
                 <c:pt idx="4">
                   <c:v>44830</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44831</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2268,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24668435013262602</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2337,6 +2403,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2366,6 +2435,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>13.28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.619999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2435,6 +2507,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2464,6 +2539,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1424.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>866.99999999999955</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2540,6 +2618,9 @@
                       <c:pt idx="4">
                         <c:v>44830</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44831</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2569,6 +2650,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>13.28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-5.58</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4861,7 +4945,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,7 +4970,7 @@
         <v>44831</v>
       </c>
       <c r="C2" s="65">
-        <v>0.4375</v>
+        <v>0.90694444444444444</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5000,7 +5084,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3647.29</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5016,7 +5102,9 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3651.17</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5031,7 +5119,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3708.7</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5272,14 +5362,14 @@
       </c>
       <c r="F3" s="78">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="80" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="72">
         <f>C7/F3</f>
-        <v>284.99999999999989</v>
+        <v>144.49999999999991</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>86</v>
@@ -5310,11 +5400,11 @@
       </c>
       <c r="G4" s="81">
         <f>F4/F3</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H4" s="72">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>853.00000000000011</v>
+        <v>852.99999999999989</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>87</v>
@@ -5340,15 +5430,15 @@
       </c>
       <c r="F5" s="78">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="81">
         <f>F5/F3</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5" s="72">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
-        <v>-1987.0000000000005</v>
+        <v>-1272.5000000000002</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>88</v>
@@ -5373,14 +5463,14 @@
       </c>
       <c r="C7" s="72">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
-        <v>1424.9999999999995</v>
+        <v>866.99999999999955</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="76">
         <f>C7/C4</f>
-        <v>6.0173172055156605E-2</v>
+        <v>3.6610624681979488E-2</v>
       </c>
       <c r="G7" s="76"/>
       <c r="J7" s="22" t="s">
@@ -5399,14 +5489,14 @@
       </c>
       <c r="C8" s="72">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
-        <v>4811</v>
+        <v>7073</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="76">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>13.381923052175734</v>
+        <v>4.157797603196757</v>
       </c>
       <c r="G8" s="76"/>
       <c r="J8" s="22" t="s">
@@ -5427,14 +5517,14 @@
       </c>
       <c r="C9" s="76">
         <f>C7/C8</f>
-        <v>0.29619621700270204</v>
+        <v>0.12257882086808986</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="76">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>1.1219074130035542</v>
+        <v>0.58873538507272904</v>
       </c>
       <c r="G9" s="76"/>
       <c r="J9" s="22" t="s">
@@ -5474,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,15 +5610,15 @@
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3647.29</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3651.17</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3708.7</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5540,11 +5630,11 @@
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>13.58</v>
+        <v>-5.58</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>13.58</v>
+        <v>22.619999999999997</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="66"/>
@@ -5631,7 +5721,7 @@
         <v>7.2899999999999991</v>
       </c>
       <c r="J5" s="21">
-        <f>H5/I5</f>
+        <f t="shared" ref="J5:J10" si="0">H5/I5</f>
         <v>1</v>
       </c>
       <c r="K5" s="66">
@@ -5672,7 +5762,7 @@
         <v>5.17</v>
       </c>
       <c r="J6" s="21">
-        <f>H6/I6</f>
+        <f t="shared" si="0"/>
         <v>0.74274661508704065</v>
       </c>
       <c r="K6" s="66">
@@ -5716,7 +5806,7 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="J7" s="21">
-        <f>H7/I7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7" s="66">
@@ -5757,7 +5847,7 @@
         <v>12.66</v>
       </c>
       <c r="J8" s="21">
-        <f>H8/I8</f>
+        <f t="shared" si="0"/>
         <v>-1.5695102685624016</v>
       </c>
       <c r="K8" s="66">
@@ -5801,7 +5891,7 @@
         <v>13.28</v>
       </c>
       <c r="J9" s="21">
-        <f>H9/I9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9" s="66">
@@ -5811,6 +5901,50 @@
       <c r="L9">
         <f>I9*100+L8</f>
         <v>4811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>44831</v>
+      </c>
+      <c r="B10" s="42">
+        <v>3686.44</v>
+      </c>
+      <c r="C10" s="42">
+        <v>3647.29</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3651.17</v>
+      </c>
+      <c r="E10" s="42">
+        <v>3708.7</v>
+      </c>
+      <c r="F10" s="41">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0.55993917982521535</v>
+      </c>
+      <c r="H10" s="17">
+        <v>-5.58</v>
+      </c>
+      <c r="I10" s="61">
+        <v>22.619999999999997</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>-0.24668435013262602</v>
+      </c>
+      <c r="K10" s="66">
+        <f>K9+H10*100</f>
+        <v>866.99999999999955</v>
+      </c>
+      <c r="L10">
+        <f>I10*100+L9</f>
+        <v>7073</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5821,10 +5955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,6 +6570,57 @@
         <v>-8.91</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B19" s="49">
+        <v>1218</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="31">
+        <v>2</v>
+      </c>
+      <c r="G19" s="50">
+        <v>-14.1</v>
+      </c>
+      <c r="H19" s="51">
+        <f t="shared" ref="H19:H20" si="6">G19*F19</f>
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B20" s="49">
+        <v>1224</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="31">
+        <v>2</v>
+      </c>
+      <c r="G20" s="50">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H20" s="51">
+        <f t="shared" si="6"/>
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6444,10 +6629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,7 +6715,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H5" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H6" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -6542,7 +6727,7 @@
       </c>
       <c r="N2" s="73">
         <f>SUM(H:H)</f>
-        <v>14.33</v>
+        <v>3.9000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6645,6 +6830,30 @@
       <c r="J5" s="73">
         <f t="shared" si="2"/>
         <v>-10.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1218</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>-10.43</v>
+      </c>
+      <c r="H6" s="51">
+        <f t="shared" si="0"/>
+        <v>-10.43</v>
       </c>
     </row>
   </sheetData>
@@ -6654,10 +6863,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,7 +6949,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H5" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H6" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -6752,7 +6961,7 @@
       </c>
       <c r="N2" s="73">
         <f>SUM(H:H)</f>
-        <v>12.53</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6855,6 +7064,30 @@
       <c r="J5" s="73">
         <f t="shared" si="3"/>
         <v>-10.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>44831</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1218</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>-10.43</v>
+      </c>
+      <c r="H6" s="51">
+        <f t="shared" si="0"/>
+        <v>-10.43</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D7DF3-33AB-4631-949E-C57A614193B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB5B01-A397-4D0C-84CD-C9A2FB584513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="4605" windowWidth="23580" windowHeight="14010" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="34590" yWindow="6255" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
   <si>
     <t>SPX Open</t>
   </si>
@@ -429,6 +429,18 @@
   </si>
   <si>
     <t>Triggered around 3650</t>
+  </si>
+  <si>
+    <t>Developing new indicator</t>
+  </si>
+  <si>
+    <t>Sep28 3690/3715 Bear Call @ -4.3</t>
+  </si>
+  <si>
+    <t>Sep28 3605/3580 Bull Put @ -5.3</t>
+  </si>
+  <si>
+    <t>Sep28 3590/3565 Bull Put @ -3.9</t>
   </si>
 </sst>
 </file>
@@ -746,10 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -833,6 +841,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +941,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:f>Tracker!$A$19:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -956,7 +968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$K$5:$K$700</c:f>
+              <c:f>Tracker!$K$19:$K$714</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1039,7 +1051,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1072,7 +1084,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$5:$H$700</c15:sqref>
+                          <c15:sqref>Tracker!$H$19:$H$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1146,7 +1158,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1179,7 +1191,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$5:$I$700</c15:sqref>
+                          <c15:sqref>Tracker!$I$19:$I$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1253,7 +1265,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1286,7 +1298,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$5:$J$700</c15:sqref>
+                          <c15:sqref>Tracker!$J$19:$J$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1578,7 +1590,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:f>Tracker!$A$19:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1606,7 +1618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$I$5:$I$700</c:f>
+              <c:f>Tracker!$I$19:$I$714</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1688,7 +1700,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1721,7 +1733,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$5:$J$700</c15:sqref>
+                          <c15:sqref>Tracker!$J$19:$J$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1792,7 +1804,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1825,7 +1837,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$5:$K$700</c15:sqref>
+                          <c15:sqref>Tracker!$K$19:$K$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1885,7 +1897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:f>Tracker!$A$19:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1913,7 +1925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$H$5:$H$700</c:f>
+              <c:f>Tracker!$H$19:$H$714</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2213,11 +2225,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Daily P/L</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Potential Max Premium</a:t>
+              <a:t>Premium Capture</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2285,7 +2293,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$5:$A$700</c:f>
+              <c:f>Tracker!$A$19:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2313,7 +2321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$J$5:$J$700</c:f>
+              <c:f>Tracker!$J$19:$J$714</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2381,7 +2389,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2414,7 +2422,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$5:$I$700</c15:sqref>
+                          <c15:sqref>Tracker!$I$19:$I$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2485,7 +2493,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2518,7 +2526,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$5:$K$700</c15:sqref>
+                          <c15:sqref>Tracker!$K$19:$K$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2596,7 +2604,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$5:$A$700</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2629,7 +2637,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$5:$H$700</c15:sqref>
+                          <c15:sqref>Tracker!$H$19:$H$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4945,7 +4953,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,10 +4975,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44831</v>
-      </c>
-      <c r="C2" s="65">
-        <v>0.90694444444444444</v>
+        <v>44832</v>
+      </c>
+      <c r="C2" s="104">
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4999,14 +5007,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3682.72</v>
+        <v>3686.44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.74502479403446709</v>
+        <v>0.53430290619708476</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -5018,14 +5026,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3655.52</v>
+        <v>3647.29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.56728667959101653</v>
+        <v>0.50401228645558727</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -5037,14 +5045,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3674.37</v>
+        <v>3651.17</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.27675799239404836</v>
+        <v>0.31616050604746726</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -5056,14 +5064,14 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3750.52</v>
+        <v>3708.7</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.55993917982521535</v>
+        <v>0.46540855364199385</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>27</v>
@@ -5075,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3686.44</v>
+        <v>3651.94</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5084,9 +5092,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3647.29</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5102,9 +5108,7 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13">
-        <v>3651.17</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5119,9 +5123,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3708.7</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.27400000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>60</v>
@@ -5181,7 +5183,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*SQRT((24/24)/252)</f>
-        <v>63.095655527110871</v>
+        <v>67.778513769123037</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>62</v>
@@ -5199,7 +5201,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3718.6156555271109</v>
+        <v>3715.068513769123</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>58</v>
@@ -5217,7 +5219,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3592.4243444728891</v>
+        <v>3579.5114862308769</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5233,7 +5235,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>89.690857636045607</v>
+        <v>95.955262482283004</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5242,7 +5244,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3764.0608576360455</v>
+        <v>3747.1252624822832</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5251,7 +5253,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3584.6791423639543</v>
+        <v>3555.2147375177169</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5267,7 +5269,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>143.52137549557563</v>
+        <v>154.37379308347943</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5276,7 +5278,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3894.0413754955757</v>
+        <v>3863.0737930834794</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5285,7 +5287,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3606.9986245044242</v>
+        <v>3554.3262069165203</v>
       </c>
     </row>
   </sheetData>
@@ -5299,7 +5301,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,8 +5311,8 @@
     <col min="3" max="3" width="11.28515625" style="17" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="17"/>
     <col min="5" max="5" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="7" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="7" style="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="17"/>
     <col min="10" max="10" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
@@ -5319,7 +5321,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="75"/>
+      <c r="C1" s="74"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
@@ -5330,21 +5332,21 @@
       <c r="C2" s="17">
         <v>2022</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="70" t="s">
         <v>84</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="22"/>
@@ -5354,66 +5356,66 @@
       <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <v>44824</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="77">
         <f>COUNTA(Tracker!K:K)-1</f>
         <v>6</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="71">
         <f>C7/F3</f>
         <v>144.49999999999991</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="67">
         <f>2*1.25%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="71">
         <f>K3*C5</f>
         <v>592.0412500000001</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>23681.65</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="77">
         <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="80">
         <f>F4/F3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="71">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
         <v>852.99999999999989</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="67">
         <f>-3.75%</f>
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="71">
         <f>K4*C5</f>
         <v>-888.06187499999999</v>
       </c>
@@ -5422,36 +5424,36 @@
       <c r="B5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>23681.65</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="77">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
         <v>2</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="80">
         <f>F5/F3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="71">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
         <v>-1272.5000000000002</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <f>+K3+K4</f>
         <v>-1.2499999999999997E-2</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="71">
         <f>+L3+L4</f>
         <v>-296.02062499999988</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -5461,25 +5463,25 @@
       <c r="B7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="72">
-        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+3,1)</f>
+      <c r="C7" s="71">
+        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+17,1)</f>
         <v>866.99999999999955</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <f>C7/C4</f>
         <v>3.6610624681979488E-2</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="75"/>
       <c r="J7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <v>20</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <v>25</v>
       </c>
     </row>
@@ -5487,26 +5489,26 @@
       <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="72">
-        <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+3,1)</f>
+      <c r="C8" s="71">
+        <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+17,1)</f>
         <v>7073</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>4.157797603196757</v>
-      </c>
-      <c r="G8" s="76"/>
+        <v>3.2983482258239629</v>
+      </c>
+      <c r="G8" s="75"/>
       <c r="J8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="81">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="78">
         <f>FLOOR(MROUND(C4/1000, 5)/25, 1)</f>
         <v>1</v>
       </c>
@@ -5515,45 +5517,45 @@
       <c r="B9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="75">
         <f>C7/C8</f>
         <v>0.12257882086808986</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.58873538507272904</v>
-      </c>
-      <c r="G9" s="76"/>
+        <v>0.50908084058328629</v>
+      </c>
+      <c r="G9" s="75"/>
       <c r="J9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="82">
         <f>K7*K8*100*2</f>
         <v>4000</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L9" s="82">
         <f>L7*L8*100*2</f>
         <v>5000</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5564,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,7 +5581,7 @@
     <col min="8" max="8" width="9.140625" style="17"/>
     <col min="9" max="9" width="9.140625" style="61"/>
     <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="17"/>
@@ -5597,47 +5599,47 @@
       <c r="G1" s="55"/>
       <c r="H1" s="56"/>
       <c r="I1" s="57"/>
-      <c r="K1" s="66"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3686.44</v>
+        <v>3651.94</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3647.29</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3651.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3708.7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.27400000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.55993917982521535</v>
+        <v>0.46540855364199385</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>-5.58</v>
+        <v>17.68</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>22.619999999999997</v>
+        <v>17.68</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="66"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
@@ -5649,7 +5651,7 @@
       <c r="G3" s="41"/>
       <c r="H3" s="50"/>
       <c r="I3" s="61"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -5682,272 +5684,434 @@
       <c r="J4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="66" t="s">
         <v>64</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
-        <v>44824</v>
+        <v>44803</v>
       </c>
       <c r="B5" s="42">
-        <v>3876.23</v>
+        <v>4041.25</v>
       </c>
       <c r="C5" s="42">
-        <v>3856.04</v>
-      </c>
-      <c r="D5" s="42">
-        <v>3877.96</v>
-      </c>
-      <c r="E5" s="42">
-        <v>3895.32</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="H5" s="17">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="I5" s="61">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" ref="J5:J10" si="0">H5/I5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="66">
-        <f>H5*100</f>
-        <v>728.99999999999989</v>
-      </c>
-      <c r="L5">
-        <f>I5*100</f>
-        <v>728.99999999999989</v>
+        <v>3986.16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
+        <v>44804</v>
+      </c>
+      <c r="B6" s="42">
+        <v>4000.67</v>
+      </c>
+      <c r="C6" s="42">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>44805</v>
+      </c>
+      <c r="B7" s="42">
+        <v>3936.73</v>
+      </c>
+      <c r="C7" s="42">
+        <v>3966.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>44806</v>
+      </c>
+      <c r="B8" s="42">
+        <v>3994.66</v>
+      </c>
+      <c r="C8" s="42">
+        <v>3924.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>44810</v>
+      </c>
+      <c r="B9" s="42">
+        <v>3930.89</v>
+      </c>
+      <c r="C9" s="42">
+        <v>3908.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>44811</v>
+      </c>
+      <c r="B10" s="42">
+        <v>3909.43</v>
+      </c>
+      <c r="C10" s="42">
+        <v>3979.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>44812</v>
+      </c>
+      <c r="B11" s="42">
+        <v>3959.94</v>
+      </c>
+      <c r="C11" s="42">
+        <v>4006.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>44813</v>
+      </c>
+      <c r="B12" s="42">
+        <v>4022.94</v>
+      </c>
+      <c r="C12" s="42">
+        <v>4067.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>44816</v>
+      </c>
+      <c r="B13" s="42">
+        <v>4083.67</v>
+      </c>
+      <c r="C13" s="42">
+        <v>4110.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>44817</v>
+      </c>
+      <c r="B14" s="42">
+        <v>4037.12</v>
+      </c>
+      <c r="C14" s="42">
+        <v>3932.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>44818</v>
+      </c>
+      <c r="B15" s="42">
+        <v>3940.73</v>
+      </c>
+      <c r="C15" s="42">
+        <v>3946.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>44819</v>
+      </c>
+      <c r="B16" s="42">
+        <v>3932.41</v>
+      </c>
+      <c r="C16" s="42">
+        <v>3901.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>44820</v>
+      </c>
+      <c r="B17" s="42">
+        <v>3880.95</v>
+      </c>
+      <c r="C17" s="42">
+        <v>3873.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>44823</v>
+      </c>
+      <c r="B18" s="42">
+        <v>3849.91</v>
+      </c>
+      <c r="C18" s="42">
+        <v>3899.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>44824</v>
+      </c>
+      <c r="B19" s="42">
+        <v>3876.23</v>
+      </c>
+      <c r="C19" s="42">
+        <v>3856.04</v>
+      </c>
+      <c r="D19" s="42">
+        <v>3877.96</v>
+      </c>
+      <c r="E19" s="42">
+        <v>3895.32</v>
+      </c>
+      <c r="F19" s="41">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H19" s="17">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="I19" s="61">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" ref="J19:J24" si="0">H19/I19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="65">
+        <f>H19*100</f>
+        <v>728.99999999999989</v>
+      </c>
+      <c r="L19">
+        <f>I19*100</f>
+        <v>728.99999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
         <v>44825</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B20" s="42">
         <v>3871.4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C20" s="42">
         <v>3789.93</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D20" s="42">
         <v>3822.93</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E20" s="42">
         <v>3864.09</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F20" s="41">
         <v>0.249</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G20" s="41">
         <v>0.51517990352733356</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H20" s="17">
         <v>3.84</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I20" s="61">
         <v>5.17</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J20" s="21">
         <f t="shared" si="0"/>
         <v>0.74274661508704065</v>
       </c>
-      <c r="K6" s="66">
-        <f>K5+H6*100</f>
+      <c r="K20" s="65">
+        <f>K19+H20*100</f>
         <v>1113</v>
       </c>
-      <c r="L6">
-        <f>I6*100+L5</f>
+      <c r="L20">
+        <f>I20*100+L19</f>
         <v>1246</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
         <v>44826</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B21" s="42">
         <v>3782.36</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C21" s="42">
         <v>3757.99</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D21" s="42">
         <v>3773.96</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E21" s="42">
         <v>3835.41</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F21" s="41">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G21" s="41">
         <v>0.32110807324379981</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H21" s="17">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I21" s="61">
         <v>9.7100000000000009</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J21" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="66">
-        <f>K6+H7*100</f>
+      <c r="K21" s="65">
+        <f>K20+H21*100</f>
         <v>2084</v>
       </c>
-      <c r="L7">
-        <f>I7*100+L6</f>
+      <c r="L21">
+        <f>I21*100+L20</f>
         <v>2217</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
         <v>44827</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B22" s="42">
         <v>3727.14</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C22" s="42">
         <v>3693.49</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D22" s="42">
         <v>3725.74</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E22" s="42">
         <v>3799.45</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F22" s="41">
         <v>0.26400000000000001</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G22" s="41">
         <v>0.22597893531506713</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H22" s="17">
         <v>-19.870000000000005</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I22" s="61">
         <v>12.66</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J22" s="21">
         <f t="shared" si="0"/>
         <v>-1.5695102685624016</v>
       </c>
-      <c r="K8" s="66">
-        <f>K7+H8*100</f>
+      <c r="K22" s="65">
+        <f>K21+H22*100</f>
         <v>96.999999999999545</v>
       </c>
-      <c r="L8">
-        <f>I8*100+L7</f>
+      <c r="L22">
+        <f>I22*100+L21</f>
         <v>3483</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <v>44830</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B23" s="42">
         <v>3682.72</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C23" s="42">
         <v>3655.52</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D23" s="42">
         <v>3674.37</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E23" s="42">
         <v>3750.52</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F23" s="41">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G23" s="41">
         <v>0.28269041759555957</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H23" s="17">
         <v>13.28</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I23" s="61">
         <v>13.28</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J23" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="66">
-        <f>K8+H9*100</f>
+      <c r="K23" s="65">
+        <f>K22+H23*100</f>
         <v>1424.9999999999995</v>
       </c>
-      <c r="L9">
-        <f>I9*100+L8</f>
+      <c r="L23">
+        <f>I23*100+L22</f>
         <v>4811</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
         <v>44831</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B24" s="42">
         <v>3686.44</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C24" s="42">
         <v>3647.29</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D24" s="42">
         <v>3651.17</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E24" s="42">
         <v>3708.7</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F24" s="41">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G24" s="41">
         <v>0.55993917982521535</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H24" s="17">
         <v>-5.58</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I24" s="61">
         <v>22.619999999999997</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J24" s="21">
         <f t="shared" si="0"/>
         <v>-0.24668435013262602</v>
       </c>
-      <c r="K10" s="66">
-        <f>K9+H10*100</f>
+      <c r="K24" s="65">
+        <f>K23+H24*100</f>
         <v>866.99999999999955</v>
       </c>
-      <c r="L10">
-        <f>I10*100+L9</f>
+      <c r="L24">
+        <f>I24*100+L23</f>
         <v>7073</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C18">
+    <sortCondition ref="A5:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5955,10 +6119,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,51 +6131,51 @@
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="90" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6028,7 +6192,7 @@
       <c r="D2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="101">
         <v>-0.15</v>
       </c>
       <c r="F2" s="31">
@@ -6044,7 +6208,7 @@
       <c r="I2" s="52">
         <v>3</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="72">
         <f t="shared" ref="J2:J4" si="1">-I2*G2</f>
         <v>-12.809999999999999</v>
       </c>
@@ -6062,7 +6226,7 @@
       <c r="D3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="101">
         <v>0.09</v>
       </c>
       <c r="F3" s="31">
@@ -6078,7 +6242,7 @@
       <c r="I3" s="52">
         <v>3</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <f t="shared" si="1"/>
         <v>-9.06</v>
       </c>
@@ -6096,7 +6260,7 @@
       <c r="D4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="101">
         <v>-0.15</v>
       </c>
       <c r="F4" s="31">
@@ -6112,14 +6276,14 @@
       <c r="I4" s="52">
         <v>2.5</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <f t="shared" si="1"/>
         <v>-12.925000000000001</v>
       </c>
       <c r="K4" s="52">
         <v>0.75</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="72">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
       </c>
@@ -6158,10 +6322,10 @@
       <c r="C6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="101">
         <v>-0.16</v>
       </c>
       <c r="F6" s="31">
@@ -6177,7 +6341,7 @@
       <c r="I6" s="52">
         <v>3</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="72">
         <f t="shared" ref="J6:J9" si="2">-I6*G6</f>
         <v>-14.91</v>
       </c>
@@ -6192,10 +6356,10 @@
       <c r="C7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="101">
         <v>0.13</v>
       </c>
       <c r="F7" s="31">
@@ -6211,7 +6375,7 @@
       <c r="I7" s="52">
         <v>3</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="72">
         <f t="shared" si="2"/>
         <v>-7.11</v>
       </c>
@@ -6226,10 +6390,10 @@
       <c r="C8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="101">
         <v>-0.3</v>
       </c>
       <c r="F8" s="31">
@@ -6245,7 +6409,7 @@
       <c r="I8" s="52">
         <v>3</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="72">
         <f t="shared" si="2"/>
         <v>-19.41</v>
       </c>
@@ -6260,10 +6424,10 @@
       <c r="C9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="101">
         <v>-0.19</v>
       </c>
       <c r="F9" s="31">
@@ -6279,7 +6443,7 @@
       <c r="I9" s="52">
         <v>3</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="72">
         <f t="shared" si="2"/>
         <v>-11.91</v>
       </c>
@@ -6294,7 +6458,7 @@
       <c r="C10" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="31">
@@ -6318,7 +6482,7 @@
       <c r="C11" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="68" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="31">
@@ -6342,10 +6506,10 @@
       <c r="C12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="101">
         <v>-0.19</v>
       </c>
       <c r="F12" s="31">
@@ -6361,7 +6525,7 @@
       <c r="I12" s="52">
         <v>3</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <f>-I12*G12</f>
         <v>-6.66</v>
       </c>
@@ -6376,10 +6540,10 @@
       <c r="C13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="101">
         <v>-0.15</v>
       </c>
       <c r="F13" s="31">
@@ -6395,7 +6559,7 @@
       <c r="I13" s="52">
         <v>3</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="72">
         <f>-I13*G13</f>
         <v>-12.809999999999999</v>
       </c>
@@ -6410,10 +6574,10 @@
       <c r="C14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="101">
         <v>0.15</v>
       </c>
       <c r="F14" s="31">
@@ -6429,7 +6593,7 @@
       <c r="I14" s="52">
         <v>3</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="72">
         <f t="shared" ref="J14:J15" si="4">-I14*G14</f>
         <v>-9.81</v>
       </c>
@@ -6444,10 +6608,10 @@
       <c r="C15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="101">
         <v>0.11</v>
       </c>
       <c r="F15" s="31">
@@ -6463,7 +6627,7 @@
       <c r="I15" s="52">
         <v>3</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="72">
         <f t="shared" si="4"/>
         <v>-4.41</v>
       </c>
@@ -6478,10 +6642,10 @@
       <c r="C16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="101">
         <v>-0.16</v>
       </c>
       <c r="F16" s="31">
@@ -6497,7 +6661,7 @@
       <c r="I16" s="52">
         <v>3</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="72">
         <f t="shared" ref="J16:J18" si="5">-I16*G16</f>
         <v>-10.11</v>
       </c>
@@ -6512,10 +6676,10 @@
       <c r="C17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="101">
         <v>0.17</v>
       </c>
       <c r="F17" s="31">
@@ -6531,7 +6695,7 @@
       <c r="I17" s="52">
         <v>3</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="72">
         <f t="shared" si="5"/>
         <v>-11.61</v>
       </c>
@@ -6546,10 +6710,10 @@
       <c r="C18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="101">
         <v>0.14000000000000001</v>
       </c>
       <c r="F18" s="31">
@@ -6565,7 +6729,7 @@
       <c r="I18" s="52">
         <v>3</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="72">
         <f t="shared" si="5"/>
         <v>-8.91</v>
       </c>
@@ -6580,7 +6744,7 @@
       <c r="C19" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="102" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="31">
@@ -6590,7 +6754,7 @@
         <v>-14.1</v>
       </c>
       <c r="H19" s="51">
-        <f t="shared" ref="H19:H20" si="6">G19*F19</f>
+        <f t="shared" ref="H19:H23" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
     </row>
@@ -6604,10 +6768,10 @@
       <c r="C20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="101">
         <v>0.15</v>
       </c>
       <c r="F20" s="31">
@@ -6619,6 +6783,115 @@
       <c r="H20" s="51">
         <f t="shared" si="6"/>
         <v>9.0399999999999991</v>
+      </c>
+      <c r="I20" s="52">
+        <v>3</v>
+      </c>
+      <c r="J20" s="72">
+        <f t="shared" ref="J20" si="7">-I20*G20</f>
+        <v>-13.559999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B21" s="49">
+        <v>934</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="31">
+        <v>2</v>
+      </c>
+      <c r="G21" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H21" s="51">
+        <f t="shared" si="6"/>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="I21" s="52">
+        <v>3</v>
+      </c>
+      <c r="J21" s="72">
+        <f t="shared" ref="J21:J23" si="8">-I21*G21</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B22" s="49">
+        <v>938</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50">
+        <v>5.27</v>
+      </c>
+      <c r="H22" s="51">
+        <f t="shared" si="6"/>
+        <v>5.27</v>
+      </c>
+      <c r="I22" s="52">
+        <v>3</v>
+      </c>
+      <c r="J22" s="72">
+        <f t="shared" si="8"/>
+        <v>-15.809999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B23" s="49">
+        <v>940</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="101">
+        <v>-0.09</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="50">
+        <v>3.87</v>
+      </c>
+      <c r="H23" s="51">
+        <f t="shared" si="6"/>
+        <v>3.87</v>
+      </c>
+      <c r="I23" s="52">
+        <v>3</v>
+      </c>
+      <c r="J23" s="72">
+        <f t="shared" si="8"/>
+        <v>-11.61</v>
       </c>
     </row>
   </sheetData>
@@ -6629,10 +6902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6641,54 +6914,54 @@
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="99" t="s">
+      <c r="N1" s="98" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6702,10 +6975,10 @@
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="101">
         <v>-0.15</v>
       </c>
       <c r="F2" s="31">
@@ -6715,19 +6988,19 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H6" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H8" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
         <v>3</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="72">
         <f t="shared" ref="J2:J3" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="73">
+      <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>3.9000000000000004</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6740,10 +7013,10 @@
       <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="101">
         <v>0.15</v>
       </c>
       <c r="F3" s="31">
@@ -6759,7 +7032,7 @@
       <c r="I3" s="52">
         <v>3</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <f t="shared" si="1"/>
         <v>-9.81</v>
       </c>
@@ -6774,10 +7047,10 @@
       <c r="C4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="101">
         <v>-0.16</v>
       </c>
       <c r="F4" s="31">
@@ -6793,7 +7066,7 @@
       <c r="I4" s="52">
         <v>3</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <f t="shared" ref="J4:J5" si="2">-I4*G4</f>
         <v>-10.11</v>
       </c>
@@ -6808,10 +7081,10 @@
       <c r="C5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="101">
         <v>0.17</v>
       </c>
       <c r="F5" s="31">
@@ -6827,7 +7100,7 @@
       <c r="I5" s="52">
         <v>3</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="72">
         <f t="shared" si="2"/>
         <v>-10.26</v>
       </c>
@@ -6842,7 +7115,7 @@
       <c r="C6" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="31">
@@ -6854,6 +7127,74 @@
       <c r="H6" s="51">
         <f t="shared" si="0"/>
         <v>-10.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B7" s="49">
+        <v>934</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H7" s="51">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I7" s="52">
+        <v>3</v>
+      </c>
+      <c r="J7" s="72">
+        <f t="shared" ref="J7:J8" si="3">-I7*G7</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B8" s="49">
+        <v>938</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>5.27</v>
+      </c>
+      <c r="H8" s="51">
+        <f t="shared" si="0"/>
+        <v>5.27</v>
+      </c>
+      <c r="I8" s="52">
+        <v>3</v>
+      </c>
+      <c r="J8" s="72">
+        <f t="shared" si="3"/>
+        <v>-15.809999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6863,10 +7204,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6875,54 +7216,54 @@
     <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="99" t="s">
+      <c r="N1" s="98" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6936,10 +7277,10 @@
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="101">
         <v>-0.15</v>
       </c>
       <c r="F2" s="31">
@@ -6949,19 +7290,19 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H6" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H8" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
         <v>3</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="73">
+      <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>2.0999999999999996</v>
+        <v>10.239999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6974,10 +7315,10 @@
       <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="101">
         <v>0.11</v>
       </c>
       <c r="F3" s="31">
@@ -6993,7 +7334,7 @@
       <c r="I3" s="52">
         <v>3</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <f t="shared" ref="J3" si="2">-I3*H3</f>
         <v>-4.41</v>
       </c>
@@ -7008,10 +7349,10 @@
       <c r="C4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="101">
         <v>-0.16</v>
       </c>
       <c r="F4" s="31">
@@ -7027,7 +7368,7 @@
       <c r="I4" s="52">
         <v>3</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <f t="shared" ref="J4:J5" si="3">-I4*G4</f>
         <v>-10.11</v>
       </c>
@@ -7042,10 +7383,10 @@
       <c r="C5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="101">
         <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="31">
@@ -7061,7 +7402,7 @@
       <c r="I5" s="52">
         <v>3</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="72">
         <f t="shared" si="3"/>
         <v>-10.26</v>
       </c>
@@ -7076,7 +7417,7 @@
       <c r="C6" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="31">
@@ -7088,6 +7429,74 @@
       <c r="H6" s="51">
         <f t="shared" si="0"/>
         <v>-10.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B7" s="49">
+        <v>934</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H7" s="51">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I7" s="52">
+        <v>3</v>
+      </c>
+      <c r="J7" s="72">
+        <f t="shared" ref="J7:J8" si="4">-I7*G7</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B8" s="49">
+        <v>940</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="101">
+        <v>-0.09</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>3.87</v>
+      </c>
+      <c r="H8" s="51">
+        <f t="shared" si="0"/>
+        <v>3.87</v>
+      </c>
+      <c r="I8" s="52">
+        <v>3</v>
+      </c>
+      <c r="J8" s="72">
+        <f t="shared" si="4"/>
+        <v>-11.61</v>
       </c>
     </row>
   </sheetData>
@@ -7125,52 +7534,52 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="92">
         <v>-1.5</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="92">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="92">
         <v>-1</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="92">
         <v>1</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="92">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="93">
+      <c r="H7" s="92">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>100</v>
       </c>
       <c r="C8">
@@ -7193,204 +7602,204 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>-0.43319999999999997</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="93">
         <v>-0.36430000000000001</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="93">
         <v>-0.34129999999999999</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="93">
         <v>0.34129999999999999</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="93">
         <v>0.36430000000000001</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="93">
         <v>0.43319999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="94">
         <v>-350</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="94">
         <v>0</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="94">
         <v>350</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="94">
         <v>350</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="94">
         <v>0</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="94">
         <v>-350</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="92"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="95">
         <f>E10</f>
         <v>350</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="93">
         <f>F9-E9</f>
         <v>0.68259999999999998</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="95">
         <f>C14*D14</f>
         <v>238.91</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="93"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="95">
         <f>C10*1.05</f>
         <v>-367.5</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <f>100%+C9-H9</f>
         <v>0.1336</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="95">
         <f>D15*C15</f>
         <v>-49.097999999999999</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="93"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="95">
         <v>0</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="93">
         <f>G9-D9-D14</f>
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="95">
         <f t="shared" ref="E16:E17" si="0">D16*C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="93"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="96">
+      <c r="C17" s="95">
         <f>C15</f>
         <v>-367.5</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="93">
         <f>(H9-G9)*2</f>
         <v>0.13779999999999992</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="95">
         <f t="shared" si="0"/>
         <v>-50.641499999999972</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="93"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="95"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="99" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="95">
         <f>SUM(E14:E17)</f>
         <v>139.17050000000003</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="96">
         <f>C21*21</f>
         <v>2922.5805000000005</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="95">
         <f>C21*252</f>
         <v>35070.966000000008</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="95">
         <f>E10</f>
         <v>350</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="96">
         <f>C22*21</f>
         <v>7350</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="95">
         <f>C22*252</f>
         <v>88200</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="97">
         <f>C21/C22</f>
         <v>0.39763000000000009</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="97">
         <f>D21/D22</f>
         <v>0.39763000000000004</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="97">
         <f>E21/E22</f>
         <v>0.39763000000000009</v>
       </c>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB5B01-A397-4D0C-84CD-C9A2FB584513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9C5DD-226F-41FC-A3C9-859D3D1E22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34590" yWindow="6255" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="16740" yWindow="1485" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>SPX Open</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>Sep28 3590/3565 Bull Put @ -3.9</t>
+  </si>
+  <si>
+    <t>Sep28 3730/3755 Bear Call @-4.0</t>
+  </si>
+  <si>
+    <t>Sep28 3690/3715 Bear Call @ -13.2</t>
+  </si>
+  <si>
+    <t>SPX Trigger</t>
   </si>
 </sst>
 </file>
@@ -963,6 +972,9 @@
                 <c:pt idx="5">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -989,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>866.99999999999955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385.99999999999949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,6 +1091,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1108,6 +1126,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>-5.58</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4.8100000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1183,6 +1204,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1215,6 +1239,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>22.619999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1290,6 +1317,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1322,6 +1352,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>-0.24668435013262602</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.22217090069284068</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1612,6 +1645,9 @@
                 <c:pt idx="5">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1639,6 +1675,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.65</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1725,6 +1764,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1757,6 +1799,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>-0.24668435013262602</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.22217090069284068</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1829,6 +1874,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1861,6 +1909,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>866.99999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>385.99999999999949</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1919,6 +1970,9 @@
                 <c:pt idx="5">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1946,6 +2000,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-5.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.8100000000000005</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2315,6 +2372,9 @@
                 <c:pt idx="5">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2342,6 +2402,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.24668435013262602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22217090069284068</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2414,6 +2477,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2446,6 +2512,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>22.619999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2518,6 +2587,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2550,6 +2622,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>866.99999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>385.99999999999949</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2629,6 +2704,9 @@
                       <c:pt idx="5">
                         <c:v>44831</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44832</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2661,6 +2739,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>-5.58</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4.8100000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4953,7 +5034,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5059,7 @@
         <v>44832</v>
       </c>
       <c r="C2" s="104">
-        <v>1021</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5092,7 +5173,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3719.04</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5108,7 +5191,9 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3683.17</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5123,7 +5208,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3694.52</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5301,7 +5388,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,14 +5451,14 @@
       </c>
       <c r="F3" s="77">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="79" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="71">
         <f>C7/F3</f>
-        <v>144.49999999999991</v>
+        <v>55.142857142857068</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>86</v>
@@ -5402,7 +5489,7 @@
       </c>
       <c r="G4" s="80">
         <f>F4/F3</f>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H4" s="71">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
@@ -5432,15 +5519,15 @@
       </c>
       <c r="F5" s="77">
         <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="80">
         <f>F5/F3</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H5" s="71">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
-        <v>-1272.5000000000002</v>
+        <v>-1008.6666666666667</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>88</v>
@@ -5465,14 +5552,14 @@
       </c>
       <c r="C7" s="71">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+17,1)</f>
-        <v>866.99999999999955</v>
+        <v>385.99999999999949</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="75">
         <f>C7/C4</f>
-        <v>3.6610624681979488E-2</v>
+        <v>1.6299539939151175E-2</v>
       </c>
       <c r="G7" s="75"/>
       <c r="J7" s="22" t="s">
@@ -5491,14 +5578,14 @@
       </c>
       <c r="C8" s="71">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+17,1)</f>
-        <v>7073</v>
+        <v>9238</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="75">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>3.2983482258239629</v>
+        <v>0.92650490813029029</v>
       </c>
       <c r="G8" s="75"/>
       <c r="J8" s="22" t="s">
@@ -5519,14 +5606,14 @@
       </c>
       <c r="C9" s="75">
         <f>C7/C8</f>
-        <v>0.12257882086808986</v>
+        <v>4.1783935916865064E-2</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="75">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.50908084058328629</v>
+        <v>0.20326085210232137</v>
       </c>
       <c r="G9" s="75"/>
       <c r="J9" s="22" t="s">
@@ -5569,7 +5656,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,15 +5699,15 @@
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3719.04</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3683.17</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3694.52</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5632,11 +5719,11 @@
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>17.68</v>
+        <v>-4.8100000000000005</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>17.68</v>
+        <v>21.65</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="65"/>
@@ -6104,6 +6191,45 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>44832</v>
+      </c>
+      <c r="B25" s="42">
+        <v>3651.94</v>
+      </c>
+      <c r="C25" s="42">
+        <v>3719.04</v>
+      </c>
+      <c r="D25" s="42">
+        <v>3683.17</v>
+      </c>
+      <c r="E25" s="42">
+        <v>3694.52</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0.46540855364199385</v>
+      </c>
+      <c r="H25" s="17">
+        <v>-4.8100000000000005</v>
+      </c>
+      <c r="I25" s="61">
+        <v>21.65</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" ref="J25" si="1">H25/I25</f>
+        <v>-0.22217090069284068</v>
+      </c>
+      <c r="K25" s="65">
+        <f>K24+H25*100</f>
+        <v>385.99999999999949</v>
+      </c>
+      <c r="L25">
+        <f>I25*100+L24</f>
+        <v>9238</v>
+      </c>
       <c r="M25" s="68" t="s">
         <v>130</v>
       </c>
@@ -6119,10 +6245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,9 +6265,10 @@
     <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
@@ -6178,8 +6305,11 @@
       <c r="L1" s="90" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="48">
         <v>44824</v>
       </c>
@@ -6213,7 +6343,7 @@
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="48">
         <v>44824</v>
       </c>
@@ -6247,7 +6377,7 @@
         <v>-9.06</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
         <v>44825</v>
       </c>
@@ -6288,7 +6418,7 @@
         <v>-1.2925</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>44825</v>
       </c>
@@ -6312,7 +6442,7 @@
         <v>-1.33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>44826</v>
       </c>
@@ -6346,7 +6476,7 @@
         <v>-14.91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>44826</v>
       </c>
@@ -6380,7 +6510,7 @@
         <v>-7.11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="48">
         <v>44827</v>
       </c>
@@ -6414,7 +6544,7 @@
         <v>-19.41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="48">
         <v>44827</v>
       </c>
@@ -6448,7 +6578,7 @@
         <v>-11.91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>44827</v>
       </c>
@@ -6472,7 +6602,7 @@
         <v>-12.43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <v>44827</v>
       </c>
@@ -6496,7 +6626,7 @@
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
         <v>44827</v>
       </c>
@@ -6530,7 +6660,7 @@
         <v>-6.66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="48">
         <v>44830</v>
       </c>
@@ -6564,7 +6694,7 @@
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>44830</v>
       </c>
@@ -6598,7 +6728,7 @@
         <v>-9.81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>44830</v>
       </c>
@@ -6632,7 +6762,7 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>44831</v>
       </c>
@@ -6666,7 +6796,7 @@
         <v>-10.11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>44831</v>
       </c>
@@ -6700,7 +6830,7 @@
         <v>-11.61</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
         <v>44831</v>
       </c>
@@ -6734,7 +6864,7 @@
         <v>-8.91</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="48">
         <v>44831</v>
       </c>
@@ -6754,11 +6884,11 @@
         <v>-14.1</v>
       </c>
       <c r="H19" s="51">
-        <f t="shared" ref="H19:H23" si="6">G19*F19</f>
+        <f t="shared" ref="H19:H25" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="48">
         <v>44831</v>
       </c>
@@ -6792,7 +6922,7 @@
         <v>-13.559999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="48">
         <v>44832</v>
       </c>
@@ -6826,7 +6956,7 @@
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="48">
         <v>44832</v>
       </c>
@@ -6860,7 +6990,7 @@
         <v>-15.809999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="48">
         <v>44832</v>
       </c>
@@ -6892,6 +7022,67 @@
       <c r="J23" s="72">
         <f t="shared" si="8"/>
         <v>-11.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1212</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="31">
+        <v>2</v>
+      </c>
+      <c r="G24" s="50">
+        <v>-13.23</v>
+      </c>
+      <c r="H24" s="51">
+        <f t="shared" si="6"/>
+        <v>-26.46</v>
+      </c>
+      <c r="M24">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B25" s="49">
+        <v>1318</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="101">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50">
+        <v>3.97</v>
+      </c>
+      <c r="H25" s="51">
+        <f t="shared" si="6"/>
+        <v>3.97</v>
+      </c>
+      <c r="I25" s="52">
+        <v>3</v>
+      </c>
+      <c r="J25" s="72">
+        <f t="shared" ref="J25" si="9">-I25*G25</f>
+        <v>-11.91</v>
       </c>
     </row>
   </sheetData>
@@ -6902,10 +7093,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6988,7 +7179,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H8" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H9" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -7000,7 +7191,7 @@
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>13.44</v>
+        <v>0.20999999999999908</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7195,6 +7386,30 @@
       <c r="J8" s="72">
         <f t="shared" si="3"/>
         <v>-15.809999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1212</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50">
+        <v>-13.23</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" si="0"/>
+        <v>-13.23</v>
       </c>
     </row>
   </sheetData>
@@ -7204,10 +7419,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7290,7 +7505,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H8" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H9" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -7302,7 +7517,7 @@
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>10.239999999999998</v>
+        <v>-2.990000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7497,6 +7712,30 @@
       <c r="J8" s="72">
         <f t="shared" si="4"/>
         <v>-11.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>44832</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1212</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50">
+        <v>-13.23</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" si="0"/>
+        <v>-13.23</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9C5DD-226F-41FC-A3C9-859D3D1E22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2178D-F441-4A46-AC88-68066B720BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="1485" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="22440" yWindow="1890" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>SPX Open</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>SPX Trigger</t>
+  </si>
+  <si>
+    <t>Sep29 3715/3740 Bear Call @-4.3</t>
+  </si>
+  <si>
+    <t>Sep29 3610/3585 Bull Put @ -3.9</t>
+  </si>
+  <si>
+    <t>Sep29 3595/3570 Bull Put @ -2.5</t>
   </si>
 </sst>
 </file>
@@ -5034,7 +5043,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,10 +5065,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C2" s="104">
-        <v>2340</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5088,14 +5097,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3686.44</v>
+        <v>3651.94</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.53430290619708476</v>
+        <v>0.25759182850951268</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -5107,14 +5116,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3647.29</v>
+        <v>3719.04</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.50401228645558727</v>
+        <v>0.52074988185941773</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -5126,14 +5135,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3651.17</v>
+        <v>3683.17</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.31616050604746726</v>
+        <v>0.47502542963644029</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -5145,14 +5154,14 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3708.7</v>
+        <v>3694.52</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.46540855364199385</v>
+        <v>0.40314105841925185</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>27</v>
@@ -5164,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3651.94</v>
+        <v>3687.01</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5173,9 +5182,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3719.04</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5191,9 +5198,7 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13">
-        <v>3683.17</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5208,9 +5213,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3694.52</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.29499999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>60</v>
@@ -5270,7 +5273,7 @@
       </c>
       <c r="C16" s="4">
         <f>C6*C$13*SQRT((24/24)/252)</f>
-        <v>67.778513769123037</v>
+        <v>66.066254703911113</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>62</v>
@@ -5288,7 +5291,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3715.068513769123</v>
+        <v>3785.106254703911</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>58</v>
@@ -5306,7 +5309,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3579.5114862308769</v>
+        <v>3652.973745296089</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5322,7 +5325,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>95.955262482283004</v>
+        <v>92.530647307210899</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5331,7 +5334,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3747.1252624822832</v>
+        <v>3775.7006473072111</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,7 +5343,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3555.2147375177169</v>
+        <v>3590.6393526927891</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5359,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>154.37379308347943</v>
+        <v>150.35293682083889</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5365,7 +5368,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3863.0737930834794</v>
+        <v>3844.8729368208387</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5374,7 +5377,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3554.3262069165203</v>
+        <v>3544.1670631791612</v>
       </c>
     </row>
   </sheetData>
@@ -5585,7 +5588,7 @@
       </c>
       <c r="F8" s="75">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.92650490813029029</v>
+        <v>0.80423501851936674</v>
       </c>
       <c r="G8" s="75"/>
       <c r="J8" s="22" t="s">
@@ -5613,7 +5616,7 @@
       </c>
       <c r="F9" s="75">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.20326085210232137</v>
+        <v>0.18120100691399932</v>
       </c>
       <c r="G9" s="75"/>
       <c r="J9" s="22" t="s">
@@ -5691,39 +5694,39 @@
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3651.94</v>
+        <v>3687.01</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3719.04</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3683.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3694.52</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
-        <v>0.29499999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.46540855364199385</v>
+        <v>0.40314105841925185</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>-4.8100000000000005</v>
+        <v>14.88</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>21.65</v>
+        <v>14.88</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="65"/>
@@ -6009,11 +6012,11 @@
         <v>0.74274661508704065</v>
       </c>
       <c r="K20" s="65">
-        <f>K19+H20*100</f>
+        <f t="shared" ref="K20:K25" si="1">K19+H20*100</f>
         <v>1113</v>
       </c>
       <c r="L20">
-        <f>I20*100+L19</f>
+        <f t="shared" ref="L20:L25" si="2">I20*100+L19</f>
         <v>1246</v>
       </c>
       <c r="M20" s="17" t="s">
@@ -6053,11 +6056,11 @@
         <v>1</v>
       </c>
       <c r="K21" s="65">
-        <f>K20+H21*100</f>
+        <f t="shared" si="1"/>
         <v>2084</v>
       </c>
       <c r="L21">
-        <f>I21*100+L20</f>
+        <f t="shared" si="2"/>
         <v>2217</v>
       </c>
     </row>
@@ -6094,11 +6097,11 @@
         <v>-1.5695102685624016</v>
       </c>
       <c r="K22" s="65">
-        <f>K21+H22*100</f>
+        <f t="shared" si="1"/>
         <v>96.999999999999545</v>
       </c>
       <c r="L22">
-        <f>I22*100+L21</f>
+        <f t="shared" si="2"/>
         <v>3483</v>
       </c>
       <c r="M22" s="17" t="s">
@@ -6138,11 +6141,11 @@
         <v>1</v>
       </c>
       <c r="K23" s="65">
-        <f>K22+H23*100</f>
+        <f t="shared" si="1"/>
         <v>1424.9999999999995</v>
       </c>
       <c r="L23">
-        <f>I23*100+L22</f>
+        <f t="shared" si="2"/>
         <v>4811</v>
       </c>
     </row>
@@ -6179,11 +6182,11 @@
         <v>-0.24668435013262602</v>
       </c>
       <c r="K24" s="65">
-        <f>K23+H24*100</f>
+        <f t="shared" si="1"/>
         <v>866.99999999999955</v>
       </c>
       <c r="L24">
-        <f>I24*100+L23</f>
+        <f t="shared" si="2"/>
         <v>7073</v>
       </c>
       <c r="M24" s="17" t="s">
@@ -6219,15 +6222,15 @@
         <v>21.65</v>
       </c>
       <c r="J25" s="21">
-        <f t="shared" ref="J25" si="1">H25/I25</f>
+        <f t="shared" ref="J25" si="3">H25/I25</f>
         <v>-0.22217090069284068</v>
       </c>
       <c r="K25" s="65">
-        <f>K24+H25*100</f>
+        <f t="shared" si="1"/>
         <v>385.99999999999949</v>
       </c>
       <c r="L25">
-        <f>I25*100+L24</f>
+        <f t="shared" si="2"/>
         <v>9238</v>
       </c>
       <c r="M25" s="68" t="s">
@@ -6245,10 +6248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6884,7 +6887,7 @@
         <v>-14.1</v>
       </c>
       <c r="H19" s="51">
-        <f t="shared" ref="H19:H25" si="6">G19*F19</f>
+        <f t="shared" ref="H19:H28" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
     </row>
@@ -7083,6 +7086,87 @@
       <c r="J25" s="72">
         <f t="shared" ref="J25" si="9">-I25*G25</f>
         <v>-11.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B26" s="49">
+        <v>933</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F26" s="31">
+        <v>2</v>
+      </c>
+      <c r="G26" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="6"/>
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B27" s="49">
+        <v>943</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50">
+        <v>3.87</v>
+      </c>
+      <c r="H27" s="51">
+        <f t="shared" si="6"/>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B28" s="49">
+        <v>944</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="101">
+        <v>0.09</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H28" s="51">
+        <f t="shared" si="6"/>
+        <v>2.4700000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2178D-F441-4A46-AC88-68066B720BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6424CDE3-1A91-47E4-B3DB-6C63B2B42926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="1890" windowWidth="16560" windowHeight="12045" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="27465" yWindow="2070" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
   <si>
     <t>SPX Open</t>
   </si>
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>Sep29 3595/3570 Bull Put @ -2.5</t>
+  </si>
+  <si>
+    <t>Sep29 3610/3585 Bull Put @ -7.2</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>Sep29 3580/3555 Bull Put @ -2.8</t>
   </si>
 </sst>
 </file>
@@ -870,6 +879,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -984,6 +998,9 @@
                 <c:pt idx="6">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>44833</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1013,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>385.99999999999949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1427.9999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,6 +1123,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1138,6 +1161,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>-4.8100000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1216,6 +1242,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1251,6 +1280,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>21.65</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>17.650000000000002</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1329,6 +1361,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1364,6 +1399,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>-0.22217090069284068</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.59036827195467412</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1622,7 +1660,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -1657,6 +1695,9 @@
                 <c:pt idx="6">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>44833</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1687,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.650000000000002</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1776,6 +1820,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1811,6 +1858,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>-0.22217090069284068</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.59036827195467412</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1886,6 +1936,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1921,6 +1974,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>385.99999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1427.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1947,14 +2003,14 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="70AD47"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
               <c:f>Tracker!$A$19:$A$714</c:f>
@@ -1981,6 +2037,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44833</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2013,11 +2072,27 @@
                 <c:pt idx="6">
                   <c:v>-4.8100000000000005</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.42</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68A7-4CF3-92F1-579C12FDEE2D}"/>
             </c:ext>
@@ -2384,6 +2459,9 @@
                 <c:pt idx="6">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>44833</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2414,6 +2492,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.22217090069284068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59036827195467412</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2489,6 +2570,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2524,6 +2608,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>21.65</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>17.650000000000002</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2599,6 +2686,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2634,6 +2724,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>385.99999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1427.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2716,6 +2809,9 @@
                       <c:pt idx="6">
                         <c:v>44832</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44833</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2751,6 +2847,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>-4.8100000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5043,7 +5142,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5068,7 +5167,7 @@
         <v>44833</v>
       </c>
       <c r="C2" s="104">
-        <v>952</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5182,7 +5281,9 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3640.71</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5198,7 +5299,9 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>3679.88</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5213,7 +5316,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>3671.06</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5391,7 +5496,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,14 +5559,14 @@
       </c>
       <c r="F3" s="77">
         <f>COUNTA(Tracker!K:K)-1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="79" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="71">
         <f>C7/F3</f>
-        <v>55.142857142857068</v>
+        <v>178.49999999999994</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>86</v>
@@ -5488,15 +5593,15 @@
       </c>
       <c r="F4" s="77">
         <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="80">
         <f>F4/F3</f>
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="H4" s="71">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>852.99999999999989</v>
+        <v>890.8</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>87</v>
@@ -5526,7 +5631,7 @@
       </c>
       <c r="G5" s="80">
         <f>F5/F3</f>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="H5" s="71">
         <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
@@ -5555,14 +5660,14 @@
       </c>
       <c r="C7" s="71">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+17,1)</f>
-        <v>385.99999999999949</v>
+        <v>1427.9999999999995</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="75">
         <f>C7/C4</f>
-        <v>1.6299539939151175E-2</v>
+        <v>6.0299852417377987E-2</v>
       </c>
       <c r="G7" s="75"/>
       <c r="J7" s="22" t="s">
@@ -5581,14 +5686,14 @@
       </c>
       <c r="C8" s="71">
         <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+17,1)</f>
-        <v>9238</v>
+        <v>11003</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="75">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.80423501851936674</v>
+        <v>7.4751537377037973</v>
       </c>
       <c r="G8" s="75"/>
       <c r="J8" s="22" t="s">
@@ -5609,14 +5714,14 @@
       </c>
       <c r="C9" s="75">
         <f>C7/C8</f>
-        <v>4.1783935916865064E-2</v>
+        <v>0.1297827865127692</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="75">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.18120100691399932</v>
+        <v>0.82774506460251418</v>
       </c>
       <c r="G9" s="75"/>
       <c r="J9" s="22" t="s">
@@ -5656,10 +5761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,15 +5807,15 @@
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>0</v>
+        <v>3640.71</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>0</v>
+        <v>3679.88</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>0</v>
+        <v>3671.06</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5722,11 +5827,11 @@
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>14.88</v>
+        <v>10.42</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>14.88</v>
+        <v>17.650000000000002</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="65"/>
@@ -6237,6 +6342,47 @@
         <v>130</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>44833</v>
+      </c>
+      <c r="B26" s="42">
+        <v>3687.01</v>
+      </c>
+      <c r="C26" s="42">
+        <v>3640.71</v>
+      </c>
+      <c r="D26" s="42">
+        <v>3679.88</v>
+      </c>
+      <c r="E26" s="42">
+        <v>3671.06</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0.40314105841925185</v>
+      </c>
+      <c r="H26" s="17">
+        <v>10.42</v>
+      </c>
+      <c r="I26" s="61">
+        <v>17.650000000000002</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" ref="J26" si="4">H26/I26</f>
+        <v>0.59036827195467412</v>
+      </c>
+      <c r="K26" s="65">
+        <f t="shared" ref="K26" si="5">K25+H26*100</f>
+        <v>1427.9999999999995</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="6">I26*100+L25</f>
+        <v>11003</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C18">
     <sortCondition ref="A5:A18"/>
@@ -6248,10 +6394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,7 +7033,7 @@
         <v>-14.1</v>
       </c>
       <c r="H19" s="51">
-        <f t="shared" ref="H19:H28" si="6">G19*F19</f>
+        <f t="shared" ref="H19:H30" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
     </row>
@@ -7167,6 +7313,57 @@
       <c r="H28" s="51">
         <f t="shared" si="6"/>
         <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B29" s="49">
+        <v>1016</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50">
+        <v>-7.23</v>
+      </c>
+      <c r="H29" s="51">
+        <f t="shared" si="6"/>
+        <v>-7.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B30" s="49">
+        <v>1035</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="50">
+        <v>2.77</v>
+      </c>
+      <c r="H30" s="51">
+        <f t="shared" si="6"/>
+        <v>2.77</v>
       </c>
     </row>
   </sheetData>
@@ -7177,10 +7374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,7 +7460,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H9" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H11" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -7275,7 +7472,7 @@
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>0.20999999999999908</v>
+        <v>8.3499999999999979</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7494,6 +7691,74 @@
       <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>-13.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B10" s="49">
+        <v>933</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I10" s="52">
+        <v>3</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" ref="J10:J11" si="4">-I10*G10</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B11" s="49">
+        <v>943</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>3.87</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" si="0"/>
+        <v>3.87</v>
+      </c>
+      <c r="I11" s="52">
+        <v>3</v>
+      </c>
+      <c r="J11" s="72">
+        <f t="shared" si="4"/>
+        <v>-11.61</v>
       </c>
     </row>
   </sheetData>
@@ -7503,10 +7768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7589,7 +7854,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H9" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H11" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
@@ -7601,7 +7866,7 @@
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>-2.990000000000002</v>
+        <v>3.7499999999999978</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7820,6 +8085,74 @@
       <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>-13.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B10" s="49">
+        <v>933</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I10" s="52">
+        <v>3</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" ref="J10:J11" si="5">-I10*G10</f>
+        <v>-12.809999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>44833</v>
+      </c>
+      <c r="B11" s="49">
+        <v>944</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="101">
+        <v>0.09</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" si="0"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I11" s="52">
+        <v>3</v>
+      </c>
+      <c r="J11" s="72">
+        <f t="shared" si="5"/>
+        <v>-7.41</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6424CDE3-1A91-47E4-B3DB-6C63B2B42926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0180D6-7ABF-4CA7-AC09-588A8BE4D328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27465" yWindow="2070" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="31785" yWindow="2520" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
   <si>
     <t>SPX Open</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>Sep29 3580/3555 Bull Put @ -2.8</t>
+  </si>
+  <si>
+    <t>Sep30 3580/3555 Bull Put @ -4.9</t>
+  </si>
+  <si>
+    <t>Sep30 3670/3695 Bear Call @-5.0</t>
+  </si>
+  <si>
+    <t>Sep30 3685/3710 Bear Call @-3.2</t>
   </si>
 </sst>
 </file>
@@ -5142,7 +5151,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,10 +5173,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="20">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C2" s="104">
-        <v>2200</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5196,14 +5205,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>3651.94</v>
+        <v>3687.01</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="27">
         <f>(C9-C18)/(C17-C18)</f>
-        <v>0.25759182850951268</v>
+        <v>0.41889893221497121</v>
       </c>
       <c r="G5" s="25">
         <v>0.4</v>
@@ -5215,14 +5224,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>3719.04</v>
+        <v>3640.71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="27">
         <f>(C9-C23)/(C22-C23)</f>
-        <v>0.52074988185941773</v>
+        <v>0.24904809750631435</v>
       </c>
       <c r="G6" s="25">
         <v>0.33</v>
@@ -5234,14 +5243,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>3683.17</v>
+        <v>3679.88</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="28">
         <f>(C9-C28)/(C27-C28)</f>
-        <v>0.47502542963644029</v>
+        <v>0.37164228510415975</v>
       </c>
       <c r="G7" s="26">
         <v>0.27</v>
@@ -5253,14 +5262,14 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>3694.52</v>
+        <v>3671.06</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="29">
         <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.40314105841925185</v>
+        <v>0.35008886204119538</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>27</v>
@@ -5272,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>3687.01</v>
+        <v>3633.48</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5281,9 +5290,7 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>3640.71</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
@@ -5299,9 +5306,7 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13">
-        <v>3679.88</v>
-      </c>
+      <c r="C11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>57</v>
       </c>
@@ -5316,9 +5321,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
-        <v>3671.06</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
@@ -5377,8 +5380,8 @@
         <v>9</v>
       </c>
       <c r="C16" s="4">
-        <f>C6*C$13*SQRT((24/24)/252)</f>
-        <v>66.066254703911113</v>
+        <f>C6*C$13*SQRT((11.4/24)/252)</f>
+        <v>44.574012386398302</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>62</v>
@@ -5396,7 +5399,7 @@
       </c>
       <c r="C17" s="4">
         <f>C6+C16</f>
-        <v>3785.106254703911</v>
+        <v>3685.2840123863984</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>58</v>
@@ -5414,7 +5417,7 @@
       </c>
       <c r="C18" s="6">
         <f>C6-C16</f>
-        <v>3652.973745296089</v>
+        <v>3596.1359876136016</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5430,7 +5433,7 @@
       </c>
       <c r="C21" s="4">
         <f>C7*C$13*(2/252)^0.5</f>
-        <v>92.530647307210899</v>
+        <v>92.447994095537069</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5439,7 +5442,7 @@
       </c>
       <c r="C22" s="4">
         <f>C7+C21</f>
-        <v>3775.7006473072111</v>
+        <v>3772.3279940955372</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5448,7 +5451,7 @@
       </c>
       <c r="C23" s="6">
         <f>C7-C21</f>
-        <v>3590.6393526927891</v>
+        <v>3587.432005904463</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5464,7 +5467,7 @@
       </c>
       <c r="C26" s="4">
         <f>C17*C$13*(5/252)^0.5</f>
-        <v>150.35293682083889</v>
+        <v>146.38777275871314</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5473,7 +5476,7 @@
       </c>
       <c r="C27" s="4">
         <f>C8+C26</f>
-        <v>3844.8729368208387</v>
+        <v>3817.4477727587132</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5482,7 +5485,7 @@
       </c>
       <c r="C28" s="6">
         <f>C8-C26</f>
-        <v>3544.1670631791612</v>
+        <v>3524.6722272412867</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5499,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,7 +5604,7 @@
       </c>
       <c r="H4" s="71">
         <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>890.8</v>
+        <v>890.80000000000018</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>87</v>
@@ -5693,7 +5696,7 @@
       </c>
       <c r="F8" s="75">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>7.4751537377037973</v>
+        <v>5.9786357641098817</v>
       </c>
       <c r="G8" s="75"/>
       <c r="J8" s="22" t="s">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="F9" s="75">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.82774506460251418</v>
+        <v>0.73023506409867101</v>
       </c>
       <c r="G9" s="75"/>
       <c r="J9" s="22" t="s">
@@ -5764,7 +5767,8 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5799,23 +5803,23 @@
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <f>Indicator!B2</f>
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B2" s="43">
         <f>Indicator!$C$9</f>
-        <v>3687.01</v>
+        <v>3633.48</v>
       </c>
       <c r="C2" s="43">
         <f>Indicator!$C$10</f>
-        <v>3640.71</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43">
         <f>Indicator!$C$11</f>
-        <v>3679.88</v>
+        <v>0</v>
       </c>
       <c r="E2" s="43">
         <f>Indicator!$C$12</f>
-        <v>3671.06</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>Indicator!$C$13</f>
@@ -5823,15 +5827,15 @@
       </c>
       <c r="G2" s="44">
         <f>Indicator!$F$8</f>
-        <v>0.40314105841925185</v>
+        <v>0.35008886204119538</v>
       </c>
       <c r="H2" s="59">
         <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>10.42</v>
+        <v>18.23</v>
       </c>
       <c r="I2" s="60">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>17.650000000000002</v>
+        <v>18.23</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="65"/>
@@ -6394,10 +6398,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="1" sqref="A31:XFD31 A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,6 +7265,13 @@
         <f t="shared" si="6"/>
         <v>8.5399999999999991</v>
       </c>
+      <c r="I26" s="52">
+        <v>3</v>
+      </c>
+      <c r="J26" s="72">
+        <f t="shared" ref="J26:J28" si="10">-I26*G26</f>
+        <v>-12.809999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="48">
@@ -7287,6 +7299,13 @@
         <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
+      <c r="I27" s="52">
+        <v>3</v>
+      </c>
+      <c r="J27" s="72">
+        <f t="shared" si="10"/>
+        <v>-11.61</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="48">
@@ -7314,6 +7333,13 @@
         <f t="shared" si="6"/>
         <v>2.4700000000000002</v>
       </c>
+      <c r="I28" s="52">
+        <v>3</v>
+      </c>
+      <c r="J28" s="72">
+        <f t="shared" si="10"/>
+        <v>-7.41</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="48">
@@ -7364,6 +7390,115 @@
       <c r="H30" s="51">
         <f t="shared" si="6"/>
         <v>2.77</v>
+      </c>
+      <c r="I30" s="52">
+        <v>3</v>
+      </c>
+      <c r="J30" s="72">
+        <f t="shared" ref="J30" si="11">-I30*G30</f>
+        <v>-8.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B31" s="49">
+        <v>937</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F31" s="31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="50">
+        <v>4.87</v>
+      </c>
+      <c r="H31" s="51">
+        <f>G31*F31</f>
+        <v>9.74</v>
+      </c>
+      <c r="I31" s="52">
+        <v>3</v>
+      </c>
+      <c r="J31" s="72">
+        <f>-I31*G31</f>
+        <v>-14.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B32" s="49">
+        <v>942</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50">
+        <v>5.32</v>
+      </c>
+      <c r="H32" s="51">
+        <f>G32*F32</f>
+        <v>5.32</v>
+      </c>
+      <c r="I32" s="52">
+        <v>3</v>
+      </c>
+      <c r="J32" s="72">
+        <f>-I32*G32</f>
+        <v>-15.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B33" s="49">
+        <v>943</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="101">
+        <v>0.09</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="50">
+        <v>3.17</v>
+      </c>
+      <c r="H33" s="51">
+        <f>G33*F33</f>
+        <v>3.17</v>
+      </c>
+      <c r="I33" s="52">
+        <v>3</v>
+      </c>
+      <c r="J33" s="72">
+        <f>-I33*G33</f>
+        <v>-9.51</v>
       </c>
     </row>
   </sheetData>
@@ -7374,10 +7509,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7460,19 +7596,19 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="51">
-        <f t="shared" ref="H2:H11" si="0">G2*F2</f>
+        <f>G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="52">
         <v>3</v>
       </c>
       <c r="J2" s="72">
-        <f t="shared" ref="J2:J3" si="1">-I2*H2</f>
+        <f t="shared" ref="J2:J3" si="0">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>8.3499999999999979</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7498,14 +7634,14 @@
         <v>3.27</v>
       </c>
       <c r="H3" s="51">
-        <f t="shared" si="0"/>
+        <f>G3*F3</f>
         <v>3.27</v>
       </c>
       <c r="I3" s="52">
         <v>3</v>
       </c>
       <c r="J3" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-9.81</v>
       </c>
     </row>
@@ -7532,14 +7668,14 @@
         <v>3.37</v>
       </c>
       <c r="H4" s="51">
-        <f t="shared" si="0"/>
+        <f>G4*F4</f>
         <v>3.37</v>
       </c>
       <c r="I4" s="52">
         <v>3</v>
       </c>
       <c r="J4" s="72">
-        <f t="shared" ref="J4:J5" si="2">-I4*G4</f>
+        <f t="shared" ref="J4:J5" si="1">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
@@ -7566,14 +7702,14 @@
         <v>3.42</v>
       </c>
       <c r="H5" s="51">
-        <f t="shared" si="0"/>
+        <f>G5*F5</f>
         <v>3.42</v>
       </c>
       <c r="I5" s="52">
         <v>3</v>
       </c>
       <c r="J5" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-10.26</v>
       </c>
     </row>
@@ -7597,7 +7733,7 @@
         <v>-10.43</v>
       </c>
       <c r="H6" s="51">
-        <f t="shared" si="0"/>
+        <f>G6*F6</f>
         <v>-10.43</v>
       </c>
     </row>
@@ -7624,14 +7760,14 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H7" s="51">
-        <f t="shared" si="0"/>
+        <f>G7*F7</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I7" s="52">
         <v>3</v>
       </c>
       <c r="J7" s="72">
-        <f t="shared" ref="J7:J8" si="3">-I7*G7</f>
+        <f t="shared" ref="J7:J8" si="2">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -7658,14 +7794,14 @@
         <v>5.27</v>
       </c>
       <c r="H8" s="51">
-        <f t="shared" si="0"/>
+        <f>G8*F8</f>
         <v>5.27</v>
       </c>
       <c r="I8" s="52">
         <v>3</v>
       </c>
       <c r="J8" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
@@ -7689,7 +7825,7 @@
         <v>-13.23</v>
       </c>
       <c r="H9" s="51">
-        <f t="shared" si="0"/>
+        <f>G9*F9</f>
         <v>-13.23</v>
       </c>
     </row>
@@ -7716,14 +7852,14 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" si="0"/>
+        <f>G10*F10</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I10" s="52">
         <v>3</v>
       </c>
       <c r="J10" s="72">
-        <f t="shared" ref="J10:J11" si="4">-I10*G10</f>
+        <f t="shared" ref="J10:J11" si="3">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -7750,15 +7886,83 @@
         <v>3.87</v>
       </c>
       <c r="H11" s="51">
-        <f t="shared" si="0"/>
+        <f>G11*F11</f>
         <v>3.87</v>
       </c>
       <c r="I11" s="52">
         <v>3</v>
       </c>
       <c r="J11" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-11.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B12" s="49">
+        <v>937</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50">
+        <v>4.87</v>
+      </c>
+      <c r="H12" s="51">
+        <f>G12*F12</f>
+        <v>4.87</v>
+      </c>
+      <c r="I12" s="52">
+        <v>3</v>
+      </c>
+      <c r="J12" s="72">
+        <f>-I12*G12</f>
+        <v>-14.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B13" s="49">
+        <v>942</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>5.32</v>
+      </c>
+      <c r="H13" s="51">
+        <f>G13*F13</f>
+        <v>5.32</v>
+      </c>
+      <c r="I13" s="52">
+        <v>3</v>
+      </c>
+      <c r="J13" s="72">
+        <f>-I13*G13</f>
+        <v>-15.96</v>
       </c>
     </row>
   </sheetData>
@@ -7768,10 +7972,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,7 +8071,7 @@
       </c>
       <c r="N2" s="72">
         <f>SUM(H:H)</f>
-        <v>3.7499999999999978</v>
+        <v>16.659999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8153,6 +8358,70 @@
       <c r="J11" s="72">
         <f t="shared" si="5"/>
         <v>-7.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B12" s="49">
+        <v>937</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="101">
+        <v>-0.15</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50">
+        <v>4.87</v>
+      </c>
+      <c r="H12" s="51">
+        <v>9.74</v>
+      </c>
+      <c r="I12" s="52">
+        <v>3</v>
+      </c>
+      <c r="J12" s="72">
+        <v>-14.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>44834</v>
+      </c>
+      <c r="B13" s="49">
+        <v>943</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>3.17</v>
+      </c>
+      <c r="H13" s="51">
+        <v>3.17</v>
+      </c>
+      <c r="I13" s="52">
+        <v>3</v>
+      </c>
+      <c r="J13" s="72">
+        <v>-9.51</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0180D6-7ABF-4CA7-AC09-588A8BE4D328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7E6F2-6AC4-45EC-BB35-AC68F1CDDF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31785" yWindow="2520" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="22245" yWindow="3645" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Trades" sheetId="2" r:id="rId4"/>
     <sheet name="Delta15" sheetId="6" r:id="rId5"/>
     <sheet name="DeltaMR" sheetId="7" r:id="rId6"/>
-    <sheet name="Statistical Proof" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>SPX Open</t>
   </si>
@@ -71,63 +70,12 @@
     <t>E. Price Move</t>
   </si>
   <si>
-    <t>SPX Prior 5D MA</t>
-  </si>
-  <si>
-    <t>SPX 5D MA</t>
-  </si>
-  <si>
-    <t>SPX Prior 2D MA</t>
-  </si>
-  <si>
-    <t>2 Day - DTE Price Expectations</t>
-  </si>
-  <si>
-    <t>5 Day - DTE Price Expectations</t>
-  </si>
-  <si>
-    <t>0Day stdPosition</t>
-  </si>
-  <si>
-    <t>2Day stdPosition</t>
-  </si>
-  <si>
-    <t>5Day stdPosition</t>
-  </si>
-  <si>
-    <t>Wt. stdPosition</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>CCS</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
     <t>SPX Information</t>
   </si>
   <si>
-    <t>SPX 2D MA</t>
-  </si>
-  <si>
-    <t>Delta Selection</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>40 - 60%</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -155,24 +103,12 @@
     <t>Close</t>
   </si>
   <si>
-    <t>2D MA</t>
-  </si>
-  <si>
-    <t>5D MA</t>
-  </si>
-  <si>
     <t>IV</t>
   </si>
   <si>
-    <t>Wt. stdPos</t>
-  </si>
-  <si>
     <t>P/L</t>
   </si>
   <si>
-    <t>Linked Data</t>
-  </si>
-  <si>
     <t>STO</t>
   </si>
   <si>
@@ -212,24 +148,6 @@
     <t>Profit Take Value</t>
   </si>
   <si>
-    <t>&lt; 10.0%</t>
-  </si>
-  <si>
-    <t>&gt; 90.0%</t>
-  </si>
-  <si>
-    <t>10 - 25%</t>
-  </si>
-  <si>
-    <t>25 - 40%</t>
-  </si>
-  <si>
-    <t>60 - 75%</t>
-  </si>
-  <si>
-    <t>75 - 90%</t>
-  </si>
-  <si>
     <t>P. Max.</t>
   </si>
   <si>
@@ -314,72 +232,6 @@
     <t>Sep22 3745/3720 @ -5.00 Bull Put</t>
   </si>
   <si>
-    <t>Assuming 1std = $50 distance from SPX</t>
-  </si>
-  <si>
-    <t>Assuming max win = $500</t>
-  </si>
-  <si>
-    <t>Assuming max loss = ($250)</t>
-  </si>
-  <si>
-    <t>1-Side Max Loss</t>
-  </si>
-  <si>
-    <t>Break Even Low</t>
-  </si>
-  <si>
-    <t>Max Win Low</t>
-  </si>
-  <si>
-    <t>Max Win High</t>
-  </si>
-  <si>
-    <t>Break Even High</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>SPX Distance</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Quick Calc Worst Case</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Max Win</t>
-  </si>
-  <si>
-    <t>Max Loss</t>
-  </si>
-  <si>
-    <t>Even - Win</t>
-  </si>
-  <si>
-    <t>Loss - Even</t>
-  </si>
-  <si>
-    <t>Expected Returns</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Profit / Loss</t>
-  </si>
-  <si>
     <t>Sep23 3685/3660 @ -6.50 Bull Put</t>
   </si>
   <si>
@@ -431,9 +283,6 @@
     <t>Triggered around 3650</t>
   </si>
   <si>
-    <t>Developing new indicator</t>
-  </si>
-  <si>
     <t>Sep28 3690/3715 Bear Call @ -4.3</t>
   </si>
   <si>
@@ -477,20 +326,79 @@
   </si>
   <si>
     <t>Sep30 3685/3710 Bear Call @-3.2</t>
+  </si>
+  <si>
+    <t>20D slope</t>
+  </si>
+  <si>
+    <t>open+wtSlope</t>
+  </si>
+  <si>
+    <t>E. Close</t>
+  </si>
+  <si>
+    <t>Derived Close</t>
+  </si>
+  <si>
+    <t>Day P/L</t>
+  </si>
+  <si>
+    <t>HiVol</t>
+  </si>
+  <si>
+    <t>3D, 3L</t>
+  </si>
+  <si>
+    <t>3D, 2L</t>
+  </si>
+  <si>
+    <t>4D, 3L</t>
+  </si>
+  <si>
+    <t>New indicator trials</t>
+  </si>
+  <si>
+    <t>Suggested Strike</t>
+  </si>
+  <si>
+    <t>Strike from Open</t>
+  </si>
+  <si>
+    <t>Strike from Derived</t>
+  </si>
+  <si>
+    <t>Intraday - Price Expectations</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Puts</t>
+  </si>
+  <si>
+    <t>4day loss count</t>
+  </si>
+  <si>
+    <t>3day loss count</t>
+  </si>
+  <si>
+    <t>linear 2day 4cast</t>
+  </si>
+  <si>
+    <t>Suggested Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +414,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,11 +571,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -674,16 +592,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -692,57 +601,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -750,8 +613,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -773,18 +634,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,16 +704,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +723,46 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,7 +840,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$K$4</c:f>
+              <c:f>Tracker!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -982,7 +863,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$714</c:f>
+              <c:f>Tracker!$A$16:$A$711</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1010,12 +891,15 @@
                 <c:pt idx="7">
                   <c:v>44833</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$K$19:$K$714</c:f>
+              <c:f>Tracker!$J$16:$J$711</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1042,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1427.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3250.9999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,14 +962,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$4</c15:sqref>
+                          <c15:sqref>Tracker!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>P/L</c:v>
+                        <c:v>Day P/L</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1104,7 +991,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1135,6 +1022,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1143,7 +1033,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$19:$H$714</c15:sqref>
+                          <c15:sqref>Tracker!$G$16:$G$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1173,6 +1063,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>10.42</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0.00">
+                        <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1194,7 +1087,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$4</c15:sqref>
+                          <c15:sqref>Tracker!$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1223,7 +1116,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1254,6 +1147,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1262,7 +1158,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$19:$I$714</c15:sqref>
+                          <c15:sqref>Tracker!$H$16:$H$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1292,6 +1188,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>17.650000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1313,7 +1212,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                          <c15:sqref>Tracker!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1342,7 +1241,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1373,6 +1272,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1381,7 +1283,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$19:$J$714</c15:sqref>
+                          <c15:sqref>Tracker!$I$16:$I$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1411,6 +1313,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>0.59036827195467412</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1679,7 +1584,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$714</c:f>
+              <c:f>Tracker!$A$16:$A$711</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1707,13 +1612,16 @@
                 <c:pt idx="7">
                   <c:v>44833</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$I$19:$I$714</c:f>
+              <c:f>Tracker!$H$16:$H$711</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="696"/>
@@ -1740,6 +1648,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.23</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1774,7 +1685,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                          <c15:sqref>Tracker!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1801,7 +1712,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1832,6 +1743,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1840,7 +1754,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$19:$J$714</c15:sqref>
+                          <c15:sqref>Tracker!$I$16:$I$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1870,6 +1784,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>0.59036827195467412</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1890,7 +1807,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$4</c15:sqref>
+                          <c15:sqref>Tracker!$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1917,7 +1834,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1948,6 +1865,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1956,7 +1876,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$19:$K$714</c15:sqref>
+                          <c15:sqref>Tracker!$J$16:$J$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1986,6 +1906,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>1427.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3250.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2022,7 +1945,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$714</c:f>
+              <c:f>Tracker!$A$16:$A$711</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2050,13 +1973,16 @@
                 <c:pt idx="7">
                   <c:v>44833</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$H$19:$H$714</c:f>
+              <c:f>Tracker!$G$16:$G$711</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2083,6 +2009,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>18.23</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2421,7 +2350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$J$4</c:f>
+              <c:f>Tracker!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2443,7 +2372,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$714</c:f>
+              <c:f>Tracker!$A$16:$A$711</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2471,13 +2400,16 @@
                 <c:pt idx="7">
                   <c:v>44833</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$J$19:$J$714</c:f>
+              <c:f>Tracker!$I$16:$I$711</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="696"/>
@@ -2504,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.59036827195467412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2551,7 +2486,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2582,6 +2517,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2590,7 +2528,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$19:$I$714</c15:sqref>
+                          <c15:sqref>Tracker!$H$16:$H$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2620,6 +2558,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>17.650000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2640,7 +2581,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$4</c15:sqref>
+                          <c15:sqref>Tracker!$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2667,7 +2608,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2698,6 +2639,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2706,7 +2650,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$K$19:$K$714</c15:sqref>
+                          <c15:sqref>Tracker!$J$16:$J$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2736,6 +2680,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>1427.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3250.9999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2790,7 +2737,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$714</c15:sqref>
+                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2821,6 +2768,9 @@
                       <c:pt idx="7">
                         <c:v>44833</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44834</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2829,7 +2779,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$19:$H$714</c15:sqref>
+                          <c15:sqref>Tracker!$G$16:$G$711</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2859,6 +2809,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>10.42</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0.00">
+                        <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5148,344 +5101,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
-  <dimension ref="B1:K28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="20">
+      <c r="C1" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="16">
         <v>44834</v>
       </c>
-      <c r="C2" s="104">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C2" s="68">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="91">
+        <f>SUM(C31:C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>3687.01</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="27">
-        <f>(C9-C18)/(C17-C18)</f>
-        <v>0.41889893221497121</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>3640.71</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="27">
-        <f>(C9-C23)/(C22-C23)</f>
-        <v>0.24904809750631435</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0.33</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3679.88</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="28">
-        <f>(C9-C28)/(C27-C28)</f>
-        <v>0.37164228510415975</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.27</v>
-      </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13">
-        <v>3671.06</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="29">
-        <f>F5*G5+F6*G6+F7*G7</f>
-        <v>0.35008886204119538</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="E6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C7" s="11">
         <v>3633.48</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="85">
+        <f>MAX(F9:F10)</f>
+        <v>3675</v>
+      </c>
+      <c r="G7" s="86"/>
+      <c r="H7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="83">
+        <f>MIN(I9:I10)</f>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="E11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="30">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="E12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0.09</v>
-      </c>
-      <c r="G12" s="32">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="C8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C9" s="13">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0.12</v>
-      </c>
-      <c r="G13" s="32">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="32">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="E15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0.15</v>
-      </c>
-      <c r="G15" s="32">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="85">
+        <f>MROUND(C7+C12, 5)</f>
+        <v>3675</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="83">
+        <f>C7-C12</f>
+        <v>3589.7819221882778</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="88">
+        <f>MROUND(C13+C12*0.9, 5)</f>
+        <v>3660</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="84">
+        <f>MROUND(C13-C12*0.9, 5)</f>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4">
-        <f>C6*C$13*SQRT((11.4/24)/252)</f>
-        <v>44.574012386398302</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0.18</v>
-      </c>
-      <c r="G16" s="32">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="C12" s="3">
+        <f>$C$7*C$9*SQRT((11/24)/252)</f>
+        <v>43.698077811722364</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C25*0.65+C26*0.35</f>
+        <v>3618.3890153948123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C6*C$9*SQRT((24/24)/252)</f>
+        <v>64.674774716882908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>C6+C16</f>
-        <v>3685.2840123863984</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+        <v>3705.3847747168829</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f>C6-C16</f>
-        <v>3596.1359876136016</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4">
-        <f>C7*C$13*(2/252)^0.5</f>
-        <v>92.447994095537069</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
-        <f>C7+C21</f>
-        <v>3772.3279940955372</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6">
-        <f>C7-C21</f>
-        <v>3587.432005904463</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4">
-        <f>C17*C$13*(5/252)^0.5</f>
-        <v>146.38777275871314</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4">
-        <f>C8+C26</f>
-        <v>3817.4477727587132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6">
-        <f>C8-C26</f>
-        <v>3524.6722272412867</v>
+        <v>3576.0352252831171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="95">
+        <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-20):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-20):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-1))</f>
+        <v>-13.4818008204838</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="96">
+        <f>$C$7+C24*0.76</f>
+        <v>3623.2338313764321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="96">
+        <f>_xlfn.FORECAST.LINEAR(B2+0.45, INDEX(Tracker!B:B,COUNTA(Tracker!B:B)-1):INDEX(Tracker!B:B,COUNTA(Tracker!B:B)), INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-1):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)))</f>
+        <v>3609.3915000003763</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="96">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-4,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="96">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-3,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="94">
+        <f>IF(C29=3, 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="94">
+        <f>IF(C29&gt;=2, 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="94">
+        <f>IF(C28&gt;=3, 0, 1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5499,261 +5402,261 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="7" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="17"/>
-    <col min="10" max="10" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="7" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="10" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="74"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="45"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14">
         <v>2022</v>
       </c>
-      <c r="F2" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="70" t="s">
+      <c r="F2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="74">
+      <c r="B3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="45">
         <v>44824</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="77">
-        <f>COUNTA(Tracker!K:K)-1</f>
-        <v>8</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="71">
+      <c r="E3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="48">
+        <f>COUNTA(Tracker!J:J)-1</f>
+        <v>9</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="42">
         <f>C7/F3</f>
-        <v>178.49999999999994</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="67">
+        <v>158.66666666666663</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="38">
         <f>2*1.25%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="71">
+      <c r="L3" s="42">
         <f>K3*C5</f>
         <v>592.0412500000001</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="71">
+      <c r="B4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="42">
         <v>23681.65</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="77">
-        <f>COUNTIF(Tracker!J:J, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="80">
+      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="48">
+        <f>COUNTIF(Tracker!I:I, "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="51">
         <f>F4/F3</f>
-        <v>0.625</v>
-      </c>
-      <c r="H4" s="71">
-        <f>(SUMIF(Tracker!H:H, "&gt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&gt;0", Tracker!H2))/F4*100</f>
-        <v>890.80000000000018</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H4" s="42">
+        <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G24,"&gt;0", Tracker!G24))/F4*100</f>
+        <v>742.33333333333326</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="38">
         <f>-3.75%</f>
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="42">
         <f>K4*C5</f>
         <v>-888.06187499999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="71">
+      <c r="B5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="42">
         <v>23681.65</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="77">
-        <f>COUNTIF(Tracker!J:J, "&lt;0")</f>
+      <c r="E5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="48">
+        <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="51">
         <f>F5/F3</f>
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="71">
-        <f>IFERROR((SUMIF(Tracker!H:H, "&lt;0", Tracker!H:H)-SUMIF(Tracker!H2,"&lt;0", Tracker!H2))/F5*100, 0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="42">
+        <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G24,"&lt;0", Tracker!G24))/F5*100, 0)</f>
         <v>-1008.6666666666667</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="67">
+      <c r="J5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="38">
         <f>+K3+K4</f>
         <v>-1.2499999999999997E-2</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="42">
         <f>+L3+L4</f>
         <v>-296.02062499999988</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="71">
-        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+17,1)</f>
+      <c r="B7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="42">
+        <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+13)</f>
         <v>1427.9999999999995</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="75">
+      <c r="E7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="46">
         <f>C7/C4</f>
         <v>6.0299852417377987E-2</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="J7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="81">
+      <c r="G7" s="46"/>
+      <c r="J7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="52">
         <v>20</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="71">
-        <f>INDEX(Tracker!L:L, COUNTA(Tracker!L:L)+17,1)</f>
+      <c r="B8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="42">
+        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+13)</f>
         <v>11003</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="75">
+      <c r="E8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="46">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
         <v>5.9786357641098817</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="J8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="81">
+      <c r="G8" s="46"/>
+      <c r="J8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="52">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="49">
         <f>FLOOR(MROUND(C4/1000, 5)/25, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="75">
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="46">
         <f>C7/C8</f>
         <v>0.1297827865127692</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="75">
+      <c r="E9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="46">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
         <v>0.73023506409867101</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="J9" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="82">
+      <c r="G9" s="46"/>
+      <c r="J9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="53">
         <f>K7*K8*100*2</f>
         <v>4000</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L9" s="53">
         <f>L7*L8*100*2</f>
         <v>5000</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5764,635 +5667,599 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="42"/>
-    <col min="6" max="6" width="9.140625" style="41"/>
-    <col min="7" max="7" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="9.140625" style="61"/>
-    <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="K1" s="65"/>
-    </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>44803</v>
+      </c>
+      <c r="B2" s="22">
+        <v>4041.25</v>
+      </c>
+      <c r="C2" s="22">
+        <v>3986.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>44804</v>
+      </c>
+      <c r="B3" s="22">
+        <v>4000.67</v>
+      </c>
+      <c r="C3" s="22">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>44805</v>
+      </c>
+      <c r="B4" s="22">
+        <v>3936.73</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3966.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>44806</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3994.66</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3924.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>44810</v>
+      </c>
+      <c r="B6" s="22">
+        <v>3930.89</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3908.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>44811</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3909.43</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3979.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>44812</v>
+      </c>
+      <c r="B8" s="22">
+        <v>3959.94</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4006.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>44813</v>
+      </c>
+      <c r="B9" s="22">
+        <v>4022.94</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4067.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>44816</v>
+      </c>
+      <c r="B10" s="22">
+        <v>4083.67</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4110.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>44817</v>
+      </c>
+      <c r="B11" s="22">
+        <v>4037.12</v>
+      </c>
+      <c r="C11" s="22">
+        <v>3932.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>44818</v>
+      </c>
+      <c r="B12" s="22">
+        <v>3940.73</v>
+      </c>
+      <c r="C12" s="22">
+        <v>3946.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>44819</v>
+      </c>
+      <c r="B13" s="22">
+        <v>3932.41</v>
+      </c>
+      <c r="C13" s="22">
+        <v>3901.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>44820</v>
+      </c>
+      <c r="B14" s="22">
+        <v>3880.95</v>
+      </c>
+      <c r="C14" s="22">
+        <v>3873.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>44823</v>
+      </c>
+      <c r="B15" s="22">
+        <v>3849.91</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3899.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>44824</v>
+      </c>
+      <c r="B16" s="22">
+        <v>3876.23</v>
+      </c>
+      <c r="C16" s="22">
+        <v>3856.04</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3876.6161446932838</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F16" s="81">
+        <f>IF(ABS(D16-C16)&gt;=SQRT((7/24)/252)*E16*B16,       1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="H16" s="32">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" ref="I16:I21" si="0">G16/H16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="36">
+        <f>G16*100</f>
+        <v>728.99999999999989</v>
+      </c>
+      <c r="K16" s="69">
+        <f>H16*100</f>
+        <v>728.99999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>44825</v>
+      </c>
+      <c r="B17" s="22">
+        <v>3871.4</v>
+      </c>
+      <c r="C17" s="22">
+        <v>3789.93</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3866.8762955705743</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.249</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" ref="F17:F24" si="1">IF(ABS(D17-C17)&gt;=SQRT((7/24)/252)*E17*B17,       1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="H17" s="32">
+        <v>5.17</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.74274661508704065</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" ref="J17:J22" si="2">J16+G17*100</f>
+        <v>1113</v>
+      </c>
+      <c r="K17" s="69">
+        <f t="shared" ref="K17:K22" si="3">H17*100+K16</f>
+        <v>1246</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>44826</v>
+      </c>
+      <c r="B18" s="22">
+        <v>3782.36</v>
+      </c>
+      <c r="C18" s="22">
+        <v>3757.99</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3764.3371002659705</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="H18" s="32">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="36">
+        <f t="shared" si="2"/>
+        <v>2084</v>
+      </c>
+      <c r="K18" s="69">
+        <f t="shared" si="3"/>
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>44827</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3727.14</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3693.49</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3714.2677975626962</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>-19.870000000000005</v>
+      </c>
+      <c r="H19" s="32">
+        <v>12.66</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>-1.5695102685624016</v>
+      </c>
+      <c r="J19" s="36">
+        <f t="shared" si="2"/>
+        <v>96.999999999999545</v>
+      </c>
+      <c r="K19" s="69">
+        <f t="shared" si="3"/>
+        <v>3483</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>44830</v>
+      </c>
+      <c r="B20" s="22">
+        <v>3682.72</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3655.52</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3676.2315448980103</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>13.28</v>
+      </c>
+      <c r="H20" s="32">
+        <v>13.28</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="36">
+        <f t="shared" si="2"/>
+        <v>1424.9999999999995</v>
+      </c>
+      <c r="K20" s="69">
+        <f t="shared" si="3"/>
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>44831</v>
+      </c>
+      <c r="B21" s="22">
+        <v>3686.44</v>
+      </c>
+      <c r="C21" s="22">
+        <v>3647.29</v>
+      </c>
+      <c r="D21" s="22">
+        <v>3682.1677437929629</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F21" s="81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-5.58</v>
+      </c>
+      <c r="H21" s="32">
+        <v>22.619999999999997</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.24668435013262602</v>
+      </c>
+      <c r="J21" s="36">
+        <f t="shared" si="2"/>
+        <v>866.99999999999955</v>
+      </c>
+      <c r="K21" s="69">
+        <f t="shared" si="3"/>
+        <v>7073</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>44832</v>
+      </c>
+      <c r="B22" s="22">
+        <v>3651.94</v>
+      </c>
+      <c r="C22" s="22">
+        <v>3719.04</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3641.0415148431239</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F22" s="81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>-4.8100000000000005</v>
+      </c>
+      <c r="H22" s="32">
+        <v>21.65</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" ref="I22" si="4">G22/H22</f>
+        <v>-0.22217090069284068</v>
+      </c>
+      <c r="J22" s="36">
+        <f t="shared" si="2"/>
+        <v>385.99999999999949</v>
+      </c>
+      <c r="K22" s="69">
+        <f t="shared" si="3"/>
+        <v>9238</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>44833</v>
+      </c>
+      <c r="B23" s="22">
+        <v>3687.01</v>
+      </c>
+      <c r="C23" s="22">
+        <v>3640.71</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3686.7087244033005</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F23" s="81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>10.42</v>
+      </c>
+      <c r="H23" s="32">
+        <v>17.650000000000002</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" ref="I23" si="5">G23/H23</f>
+        <v>0.59036827195467412</v>
+      </c>
+      <c r="J23" s="36">
+        <f t="shared" ref="J23" si="6">J22+G23*100</f>
+        <v>1427.9999999999995</v>
+      </c>
+      <c r="K23" s="69">
+        <f t="shared" ref="K23" si="7">H23*100+K22</f>
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="71">
         <f>Indicator!B2</f>
         <v>44834</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B24" s="72">
+        <f>Indicator!$C$7</f>
+        <v>3633.48</v>
+      </c>
+      <c r="C24" s="72">
+        <f>Indicator!$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="72">
+        <f>Indicator!C13</f>
+        <v>3618.3890153948123</v>
+      </c>
+      <c r="E24" s="73">
         <f>Indicator!$C$9</f>
-        <v>3633.48</v>
-      </c>
-      <c r="C2" s="43">
-        <f>Indicator!$C$10</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="43">
-        <f>Indicator!$C$11</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="43">
-        <f>Indicator!$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="44">
-        <f>Indicator!$C$13</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G2" s="44">
-        <f>Indicator!$F$8</f>
-        <v>0.35008886204119538</v>
-      </c>
-      <c r="H2" s="59">
-        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
+      <c r="F24" s="82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="74">
+        <f>SUMIF(Trades!A:A,Tracker!A24,Trades!H:H)</f>
         <v>18.23</v>
       </c>
-      <c r="I2" s="60">
-        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
+      <c r="H24" s="75">
+        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A24,  Trades!C:C, "STO")</f>
         <v>18.23</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="65"/>
-    </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="61"/>
-      <c r="K3" s="65"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
-        <v>44803</v>
-      </c>
-      <c r="B5" s="42">
-        <v>4041.25</v>
-      </c>
-      <c r="C5" s="42">
-        <v>3986.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>44804</v>
-      </c>
-      <c r="B6" s="42">
-        <v>4000.67</v>
-      </c>
-      <c r="C6" s="42">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>44805</v>
-      </c>
-      <c r="B7" s="42">
-        <v>3936.73</v>
-      </c>
-      <c r="C7" s="42">
-        <v>3966.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>44806</v>
-      </c>
-      <c r="B8" s="42">
-        <v>3994.66</v>
-      </c>
-      <c r="C8" s="42">
-        <v>3924.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>44810</v>
-      </c>
-      <c r="B9" s="42">
-        <v>3930.89</v>
-      </c>
-      <c r="C9" s="42">
-        <v>3908.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>44811</v>
-      </c>
-      <c r="B10" s="42">
-        <v>3909.43</v>
-      </c>
-      <c r="C10" s="42">
-        <v>3979.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>44812</v>
-      </c>
-      <c r="B11" s="42">
-        <v>3959.94</v>
-      </c>
-      <c r="C11" s="42">
-        <v>4006.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>44813</v>
-      </c>
-      <c r="B12" s="42">
-        <v>4022.94</v>
-      </c>
-      <c r="C12" s="42">
-        <v>4067.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>44816</v>
-      </c>
-      <c r="B13" s="42">
-        <v>4083.67</v>
-      </c>
-      <c r="C13" s="42">
-        <v>4110.41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>44817</v>
-      </c>
-      <c r="B14" s="42">
-        <v>4037.12</v>
-      </c>
-      <c r="C14" s="42">
-        <v>3932.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>44818</v>
-      </c>
-      <c r="B15" s="42">
-        <v>3940.73</v>
-      </c>
-      <c r="C15" s="42">
-        <v>3946.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>44819</v>
-      </c>
-      <c r="B16" s="42">
-        <v>3932.41</v>
-      </c>
-      <c r="C16" s="42">
-        <v>3901.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>44820</v>
-      </c>
-      <c r="B17" s="42">
-        <v>3880.95</v>
-      </c>
-      <c r="C17" s="42">
-        <v>3873.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>44823</v>
-      </c>
-      <c r="B18" s="42">
-        <v>3849.91</v>
-      </c>
-      <c r="C18" s="42">
-        <v>3899.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>44824</v>
-      </c>
-      <c r="B19" s="42">
-        <v>3876.23</v>
-      </c>
-      <c r="C19" s="42">
-        <v>3856.04</v>
-      </c>
-      <c r="D19" s="42">
-        <v>3877.96</v>
-      </c>
-      <c r="E19" s="42">
-        <v>3895.32</v>
-      </c>
-      <c r="F19" s="41">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G19" s="41">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="H19" s="17">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="I19" s="61">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="J19" s="21">
-        <f t="shared" ref="J19:J24" si="0">H19/I19</f>
+      <c r="I24" s="76">
+        <f t="shared" ref="I24" si="8">G24/H24</f>
         <v>1</v>
       </c>
-      <c r="K19" s="65">
-        <f>H19*100</f>
-        <v>728.99999999999989</v>
-      </c>
-      <c r="L19">
-        <f>I19*100</f>
-        <v>728.99999999999989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>44825</v>
-      </c>
-      <c r="B20" s="42">
-        <v>3871.4</v>
-      </c>
-      <c r="C20" s="42">
-        <v>3789.93</v>
-      </c>
-      <c r="D20" s="42">
-        <v>3822.93</v>
-      </c>
-      <c r="E20" s="42">
-        <v>3864.09</v>
-      </c>
-      <c r="F20" s="41">
-        <v>0.249</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0.51517990352733356</v>
-      </c>
-      <c r="H20" s="17">
-        <v>3.84</v>
-      </c>
-      <c r="I20" s="61">
-        <v>5.17</v>
-      </c>
-      <c r="J20" s="21">
-        <f t="shared" si="0"/>
-        <v>0.74274661508704065</v>
-      </c>
-      <c r="K20" s="65">
-        <f t="shared" ref="K20:K25" si="1">K19+H20*100</f>
-        <v>1113</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20:L25" si="2">I20*100+L19</f>
-        <v>1246</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>44826</v>
-      </c>
-      <c r="B21" s="42">
-        <v>3782.36</v>
-      </c>
-      <c r="C21" s="42">
-        <v>3757.99</v>
-      </c>
-      <c r="D21" s="42">
-        <v>3773.96</v>
-      </c>
-      <c r="E21" s="42">
-        <v>3835.41</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G21" s="41">
-        <v>0.32110807324379981</v>
-      </c>
-      <c r="H21" s="17">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="I21" s="61">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="J21" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="65">
-        <f t="shared" si="1"/>
-        <v>2084</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>44827</v>
-      </c>
-      <c r="B22" s="42">
-        <v>3727.14</v>
-      </c>
-      <c r="C22" s="42">
-        <v>3693.49</v>
-      </c>
-      <c r="D22" s="42">
-        <v>3725.74</v>
-      </c>
-      <c r="E22" s="42">
-        <v>3799.45</v>
-      </c>
-      <c r="F22" s="41">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G22" s="41">
-        <v>0.22597893531506713</v>
-      </c>
-      <c r="H22" s="17">
-        <v>-19.870000000000005</v>
-      </c>
-      <c r="I22" s="61">
-        <v>12.66</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" si="0"/>
-        <v>-1.5695102685624016</v>
-      </c>
-      <c r="K22" s="65">
-        <f t="shared" si="1"/>
-        <v>96.999999999999545</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>3483</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>44830</v>
-      </c>
-      <c r="B23" s="42">
-        <v>3682.72</v>
-      </c>
-      <c r="C23" s="42">
-        <v>3655.52</v>
-      </c>
-      <c r="D23" s="42">
-        <v>3674.37</v>
-      </c>
-      <c r="E23" s="42">
-        <v>3750.52</v>
-      </c>
-      <c r="F23" s="41">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G23" s="41">
-        <v>0.28269041759555957</v>
-      </c>
-      <c r="H23" s="17">
-        <v>13.28</v>
-      </c>
-      <c r="I23" s="61">
-        <v>13.28</v>
-      </c>
-      <c r="J23" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="65">
-        <f t="shared" si="1"/>
-        <v>1424.9999999999995</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>4811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>44831</v>
-      </c>
-      <c r="B24" s="42">
-        <v>3686.44</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3647.29</v>
-      </c>
-      <c r="D24" s="42">
-        <v>3651.17</v>
-      </c>
-      <c r="E24" s="42">
-        <v>3708.7</v>
-      </c>
-      <c r="F24" s="41">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G24" s="41">
-        <v>0.55993917982521535</v>
-      </c>
-      <c r="H24" s="17">
-        <v>-5.58</v>
-      </c>
-      <c r="I24" s="61">
-        <v>22.619999999999997</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" si="0"/>
-        <v>-0.24668435013262602</v>
-      </c>
-      <c r="K24" s="65">
-        <f t="shared" si="1"/>
-        <v>866.99999999999955</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>7073</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>44832</v>
-      </c>
-      <c r="B25" s="42">
-        <v>3651.94</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3719.04</v>
-      </c>
-      <c r="D25" s="42">
-        <v>3683.17</v>
-      </c>
-      <c r="E25" s="42">
-        <v>3694.52</v>
-      </c>
-      <c r="F25" s="41">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G25" s="41">
-        <v>0.46540855364199385</v>
-      </c>
-      <c r="H25" s="17">
-        <v>-4.8100000000000005</v>
-      </c>
-      <c r="I25" s="61">
-        <v>21.65</v>
-      </c>
-      <c r="J25" s="21">
-        <f t="shared" ref="J25" si="3">H25/I25</f>
-        <v>-0.22217090069284068</v>
-      </c>
-      <c r="K25" s="65">
-        <f t="shared" si="1"/>
-        <v>385.99999999999949</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>9238</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
-        <v>44833</v>
-      </c>
-      <c r="B26" s="42">
-        <v>3687.01</v>
-      </c>
-      <c r="C26" s="42">
-        <v>3640.71</v>
-      </c>
-      <c r="D26" s="42">
-        <v>3679.88</v>
-      </c>
-      <c r="E26" s="42">
-        <v>3671.06</v>
-      </c>
-      <c r="F26" s="41">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G26" s="41">
-        <v>0.40314105841925185</v>
-      </c>
-      <c r="H26" s="17">
-        <v>10.42</v>
-      </c>
-      <c r="I26" s="61">
-        <v>17.650000000000002</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" ref="J26" si="4">H26/I26</f>
-        <v>0.59036827195467412</v>
-      </c>
-      <c r="K26" s="65">
-        <f t="shared" ref="K26" si="5">K25+H26*100</f>
-        <v>1427.9999999999995</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26" si="6">I26*100+L25</f>
-        <v>11003</v>
+      <c r="J24" s="77">
+        <f>J23+G24*100</f>
+        <v>3250.9999999999995</v>
+      </c>
+      <c r="K24" s="78">
+        <f>H24*100+K23</f>
+        <v>12826</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C18">
-    <sortCondition ref="A5:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F16:F24" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6402,802 +6269,802 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="1" sqref="A31:XFD31 A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="100" t="s">
+      <c r="K1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="L1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="91" t="s">
-        <v>136</v>
+      <c r="M1" s="62" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="26">
         <v>44824</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="27">
         <v>949</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="101">
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="29">
         <f t="shared" ref="H2:H9" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="43">
         <f t="shared" ref="J2:J4" si="1">-I2*G2</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="26">
         <v>44824</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="27">
         <v>950</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="101">
+      <c r="C3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="65">
         <v>0.09</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="28">
         <v>3.02</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="29">
         <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="30">
         <v>3</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="43">
         <f t="shared" si="1"/>
         <v>-9.06</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="26">
         <v>44825</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="27">
         <v>944</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="101">
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="28">
         <v>5.17</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="29">
         <f t="shared" si="0"/>
         <v>5.17</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="30">
         <v>2.5</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="43">
         <f t="shared" si="1"/>
         <v>-12.925000000000001</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="30">
         <v>0.75</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="43">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="26">
         <v>44825</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="27">
         <v>243</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="C5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="28">
         <v>-1.33</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>-1.33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="26">
         <v>44826</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="27">
         <v>937</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="101">
+      <c r="C6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="65">
         <v>-0.16</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="28">
         <v>4.97</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>4.97</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="30">
         <v>3</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="43">
         <f t="shared" ref="J6:J9" si="2">-I6*G6</f>
         <v>-14.91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="26">
         <v>44826</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="27">
         <v>946</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="101">
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="65">
         <v>0.13</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="28">
         <v>2.37</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="30">
         <v>3</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="43">
         <f t="shared" si="2"/>
         <v>-7.11</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="26">
         <v>44827</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="27">
         <v>936</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="65">
         <v>-0.3</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="28">
         <v>6.47</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="29">
         <f t="shared" si="0"/>
         <v>6.47</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="30">
         <v>3</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="43">
         <f t="shared" si="2"/>
         <v>-19.41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="26">
         <v>44827</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="27">
         <v>949</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="101">
+      <c r="C9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="65">
         <v>-0.19</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="28">
         <v>3.97</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="29">
         <f t="shared" si="0"/>
         <v>3.97</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="30">
         <v>3</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="43">
         <f t="shared" si="2"/>
         <v>-11.91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="26">
         <v>44827</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="27">
         <v>240</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="28">
         <v>-12.43</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="29">
         <f t="shared" ref="H10:H18" si="3">G10*F10</f>
         <v>-12.43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="26">
         <v>44827</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="27">
         <v>255</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="C11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="28">
         <v>-20.100000000000001</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="29">
         <f t="shared" si="3"/>
         <v>-20.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="26">
         <v>44827</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="27">
         <v>311</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="101">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="65">
         <v>-0.19</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="28">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="29">
         <f t="shared" si="3"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="30">
         <v>3</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="43">
         <f>-I12*G12</f>
         <v>-6.66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="26">
         <v>44830</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="27">
         <v>942</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="101">
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>2</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="29">
         <f t="shared" si="3"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="30">
         <v>3</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="43">
         <f>-I13*G13</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="26">
         <v>44830</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="27">
         <v>942</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="101">
+      <c r="C14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="65">
         <v>0.15</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="28">
         <v>3.27</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="29">
         <f t="shared" si="3"/>
         <v>3.27</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="30">
         <v>3</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="43">
         <f t="shared" ref="J14:J15" si="4">-I14*G14</f>
         <v>-9.81</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="26">
         <v>44830</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="27">
         <v>1015</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="101">
+      <c r="C15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="65">
         <v>0.11</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="28">
         <v>1.47</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="29">
         <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="30">
         <v>3</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="43">
         <f t="shared" si="4"/>
         <v>-4.41</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="26">
         <v>44831</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="27">
         <v>950</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="101">
+      <c r="C16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="65">
         <v>-0.16</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="28">
         <v>3.37</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="29">
         <f t="shared" si="3"/>
         <v>6.74</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="30">
         <v>3</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="43">
         <f t="shared" ref="J16:J18" si="5">-I16*G16</f>
         <v>-10.11</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="26">
         <v>44831</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="27">
         <v>940</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="101">
+      <c r="C17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="65">
         <v>0.17</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="19">
         <v>1</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="28">
         <v>3.87</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="29">
         <f t="shared" si="3"/>
         <v>3.87</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="30">
         <v>3</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="43">
         <f t="shared" si="5"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="26">
         <v>44831</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="27">
         <v>1006</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="101">
+      <c r="C18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="65">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="19">
         <v>1</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="28">
         <v>2.97</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="29">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="30">
         <v>3</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="43">
         <f t="shared" si="5"/>
         <v>-8.91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="26">
         <v>44831</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="27">
         <v>1218</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="19">
         <v>2</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="28">
         <v>-14.1</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="29">
         <f t="shared" ref="H19:H30" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="26">
         <v>44831</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="27">
         <v>1224</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="101">
+      <c r="C20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="65">
         <v>0.15</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="19">
         <v>2</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="28">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="29">
         <f t="shared" si="6"/>
         <v>9.0399999999999991</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="30">
         <v>3</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="43">
         <f t="shared" ref="J20" si="7">-I20*G20</f>
         <v>-13.559999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="26">
         <v>44832</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="27">
         <v>934</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="101">
+      <c r="C21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="65">
         <v>0.15</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="29">
         <f t="shared" si="6"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="30">
         <v>3</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="43">
         <f t="shared" ref="J21:J23" si="8">-I21*G21</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="26">
         <v>44832</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="27">
         <v>938</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="101">
+      <c r="C22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="19">
         <v>1</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="28">
         <v>5.27</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="29">
         <f t="shared" si="6"/>
         <v>5.27</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="30">
         <v>3</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="43">
         <f t="shared" si="8"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="26">
         <v>44832</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="27">
         <v>940</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="101">
+      <c r="C23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="65">
         <v>-0.09</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="19">
         <v>1</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="28">
         <v>3.87</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="29">
         <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="30">
         <v>3</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="43">
         <f t="shared" si="8"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="26">
         <v>44832</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="27">
         <v>1212</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="31">
+      <c r="C24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="19">
         <v>2</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="28">
         <v>-13.23</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="29">
         <f t="shared" si="6"/>
         <v>-26.46</v>
       </c>
@@ -7206,297 +7073,297 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="26">
         <v>44832</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="27">
         <v>1318</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="101">
+      <c r="C25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="65">
         <v>0.3</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="19">
         <v>1</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="28">
         <v>3.97</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="29">
         <f t="shared" si="6"/>
         <v>3.97</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="30">
         <v>3</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="43">
         <f t="shared" ref="J25" si="9">-I25*G25</f>
         <v>-11.91</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="26">
         <v>44833</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="27">
         <v>933</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="101">
+      <c r="C26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="29">
         <f t="shared" si="6"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="30">
         <v>3</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="43">
         <f t="shared" ref="J26:J28" si="10">-I26*G26</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="26">
         <v>44833</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="27">
         <v>943</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="101">
+      <c r="C27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="65">
         <v>0.15</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="19">
         <v>1</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="28">
         <v>3.87</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="29">
         <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="30">
         <v>3</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="43">
         <f t="shared" si="10"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="26">
         <v>44833</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="27">
         <v>944</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="101">
+      <c r="C28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="65">
         <v>0.09</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="19">
         <v>1</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="28">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="29">
         <f t="shared" si="6"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="30">
         <v>3</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="43">
         <f t="shared" si="10"/>
         <v>-7.41</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="26">
         <v>44833</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="27">
         <v>1016</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="C29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="19">
         <v>1</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="28">
         <v>-7.23</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="29">
         <f t="shared" si="6"/>
         <v>-7.23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+      <c r="A30" s="26">
         <v>44833</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="27">
         <v>1035</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="101">
+      <c r="C30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="65">
         <v>0.15</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="19">
         <v>1</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="28">
         <v>2.77</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="29">
         <f t="shared" si="6"/>
         <v>2.77</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="30">
         <v>3</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="43">
         <f t="shared" ref="J30" si="11">-I30*G30</f>
         <v>-8.31</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="26">
         <v>44834</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="27">
         <v>937</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="101">
+      <c r="C31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="19">
         <v>2</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31" s="28">
         <v>4.87</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="29">
         <f>G31*F31</f>
         <v>9.74</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="30">
         <v>3</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="43">
         <f>-I31*G31</f>
         <v>-14.61</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="26">
         <v>44834</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="27">
         <v>942</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="101">
+      <c r="C32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="65">
         <v>0.15</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="19">
         <v>1</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="28">
         <v>5.32</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="29">
         <f>G32*F32</f>
         <v>5.32</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="30">
         <v>3</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="43">
         <f>-I32*G32</f>
         <v>-15.96</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="26">
         <v>44834</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="27">
         <v>943</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="101">
+      <c r="C33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="65">
         <v>0.09</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="19">
         <v>1</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="28">
         <v>3.17</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="29">
         <f>G33*F33</f>
         <v>3.17</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="30">
         <v>3</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="43">
         <f>-I33*G33</f>
         <v>-9.51</v>
       </c>
@@ -7518,449 +7385,449 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="100" t="s">
+      <c r="K1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="L1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="98" t="s">
-        <v>42</v>
+      <c r="N1" s="63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="26">
         <v>44830</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="27">
         <v>942</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="101">
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="29">
         <f>G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="43">
         <f t="shared" ref="J2:J3" si="0">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="43">
         <f>SUM(H:H)</f>
         <v>18.54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="26">
         <v>44830</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="27">
         <v>942</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="101">
+      <c r="C3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="65">
         <v>0.15</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="28">
         <v>3.27</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="29">
         <f>G3*F3</f>
         <v>3.27</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="30">
         <v>3</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="43">
         <f t="shared" si="0"/>
         <v>-9.81</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="26">
         <v>44831</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="27">
         <v>950</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="101">
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="65">
         <v>-0.16</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="28">
         <v>3.37</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="29">
         <f>G4*F4</f>
         <v>3.37</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="30">
         <v>3</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="43">
         <f t="shared" ref="J4:J5" si="1">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="26">
         <v>44831</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="27">
         <v>940</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="101">
+      <c r="C5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="65">
         <v>0.17</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="28">
         <v>3.42</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="29">
         <f>G5*F5</f>
         <v>3.42</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="30">
         <v>3</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="43">
         <f t="shared" si="1"/>
         <v>-10.26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="26">
         <v>44831</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="27">
         <v>1218</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="C6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="28">
         <v>-10.43</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="29">
         <f>G6*F6</f>
         <v>-10.43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="26">
         <v>44832</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="27">
         <v>934</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="101">
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="65">
         <v>0.15</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="29">
         <f>G7*F7</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="30">
         <v>3</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="43">
         <f t="shared" ref="J7:J8" si="2">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="26">
         <v>44832</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="27">
         <v>938</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="28">
         <v>5.27</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="29">
         <f>G8*F8</f>
         <v>5.27</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="30">
         <v>3</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="43">
         <f t="shared" si="2"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="26">
         <v>44832</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="27">
         <v>1212</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="C9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="28">
         <v>-13.23</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="29">
         <f>G9*F9</f>
         <v>-13.23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="26">
         <v>44833</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="27">
         <v>933</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="101">
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="29">
         <f>G10*F10</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="30">
         <v>3</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="43">
         <f t="shared" ref="J10:J11" si="3">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="26">
         <v>44833</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="27">
         <v>943</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="101">
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="65">
         <v>0.15</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="28">
         <v>3.87</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="29">
         <f>G11*F11</f>
         <v>3.87</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="30">
         <v>3</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="43">
         <f t="shared" si="3"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="26">
         <v>44834</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="27">
         <v>937</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="101">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="28">
         <v>4.87</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="29">
         <f>G12*F12</f>
         <v>4.87</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="30">
         <v>3</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="43">
         <f>-I12*G12</f>
         <v>-14.61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="26">
         <v>44834</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="27">
         <v>942</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="101">
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="65">
         <v>0.15</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="28">
         <v>5.32</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="29">
         <f>G13*F13</f>
         <v>5.32</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="30">
         <v>3</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="43">
         <f>-I13*G13</f>
         <v>-15.96</v>
       </c>
@@ -7981,752 +7848,447 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="100" t="s">
+      <c r="K1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="L1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="98" t="s">
-        <v>42</v>
+      <c r="N1" s="63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="26">
         <v>44830</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="27">
         <v>942</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="101">
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="29">
         <f t="shared" ref="H2:H11" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="30">
         <v>3</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="43">
         <f>SUM(H:H)</f>
         <v>16.659999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="26">
         <v>44830</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="27">
         <v>1015</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="101">
+      <c r="C3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="65">
         <v>0.11</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="28">
         <v>1.47</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="29">
         <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="30">
         <v>3</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="43">
         <f t="shared" ref="J3" si="2">-I3*H3</f>
         <v>-4.41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="26">
         <v>44831</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="27">
         <v>950</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="101">
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="65">
         <v>-0.16</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="28">
         <v>3.37</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="29">
         <f t="shared" si="0"/>
         <v>3.37</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="30">
         <v>3</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="43">
         <f t="shared" ref="J4:J5" si="3">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="26">
         <v>44831</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="27">
         <v>1006</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="101">
+      <c r="C5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="65">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="28">
         <v>3.42</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="30">
         <v>3</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="43">
         <f t="shared" si="3"/>
         <v>-10.26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="26">
         <v>44831</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="27">
         <v>1218</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="C6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="28">
         <v>-10.43</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>-10.43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="26">
         <v>44832</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="27">
         <v>934</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="101">
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="65">
         <v>0.15</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="30">
         <v>3</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="43">
         <f t="shared" ref="J7:J8" si="4">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="26">
         <v>44832</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="27">
         <v>940</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="65">
         <v>-0.09</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="28">
         <v>3.87</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="29">
         <f t="shared" si="0"/>
         <v>3.87</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="30">
         <v>3</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="43">
         <f t="shared" si="4"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="26">
         <v>44832</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="27">
         <v>1212</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="C9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="28">
         <v>-13.23</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="29">
         <f t="shared" si="0"/>
         <v>-13.23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="26">
         <v>44833</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="27">
         <v>933</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="101">
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="29">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="30">
         <v>3</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="43">
         <f t="shared" ref="J10:J11" si="5">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="26">
         <v>44833</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="27">
         <v>944</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="101">
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="65">
         <v>0.09</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="28">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="29">
         <f t="shared" si="0"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="30">
         <v>3</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="43">
         <f t="shared" si="5"/>
         <v>-7.41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="26">
         <v>44834</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="27">
         <v>937</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="101">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="65">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="28">
         <v>4.87</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="29">
         <v>9.74</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="30">
         <v>3</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="43">
         <v>-14.61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="26">
         <v>44834</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="27">
         <v>943</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="101">
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="65">
         <v>0.09</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="28">
         <v>3.17</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="29">
         <v>3.17</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="30">
         <v>3</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="43">
         <v>-9.51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F65F32E-FB9F-420E-8864-907EF6C913D5}">
-  <dimension ref="B2:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="91"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="92">
-        <v>-1.5</v>
-      </c>
-      <c r="D7" s="92">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="E7" s="92">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="92">
-        <v>1</v>
-      </c>
-      <c r="G7" s="92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="92">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>-75</v>
-      </c>
-      <c r="D8">
-        <v>-55</v>
-      </c>
-      <c r="E8">
-        <v>-50</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>55</v>
-      </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="93">
-        <v>-0.43319999999999997</v>
-      </c>
-      <c r="D9" s="93">
-        <v>-0.36430000000000001</v>
-      </c>
-      <c r="E9" s="93">
-        <v>-0.34129999999999999</v>
-      </c>
-      <c r="F9" s="93">
-        <v>0.34129999999999999</v>
-      </c>
-      <c r="G9" s="93">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="H9" s="93">
-        <v>0.43319999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="94">
-        <v>-350</v>
-      </c>
-      <c r="D10" s="94">
-        <v>0</v>
-      </c>
-      <c r="E10" s="94">
-        <v>350</v>
-      </c>
-      <c r="F10" s="94">
-        <v>350</v>
-      </c>
-      <c r="G10" s="94">
-        <v>0</v>
-      </c>
-      <c r="H10" s="94">
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="91"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="95">
-        <f>E10</f>
-        <v>350</v>
-      </c>
-      <c r="D14" s="93">
-        <f>F9-E9</f>
-        <v>0.68259999999999998</v>
-      </c>
-      <c r="E14" s="95">
-        <f>C14*D14</f>
-        <v>238.91</v>
-      </c>
-      <c r="F14" s="93"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="95">
-        <f>C10*1.05</f>
-        <v>-367.5</v>
-      </c>
-      <c r="D15" s="93">
-        <f>100%+C9-H9</f>
-        <v>0.1336</v>
-      </c>
-      <c r="E15" s="95">
-        <f>D15*C15</f>
-        <v>-49.097999999999999</v>
-      </c>
-      <c r="F15" s="93"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="95">
-        <v>0</v>
-      </c>
-      <c r="D16" s="93">
-        <f>G9-D9-D14</f>
-        <v>4.6000000000000041E-2</v>
-      </c>
-      <c r="E16" s="95">
-        <f t="shared" ref="E16:E17" si="0">D16*C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="93"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="95">
-        <f>C15</f>
-        <v>-367.5</v>
-      </c>
-      <c r="D17" s="93">
-        <f>(H9-G9)*2</f>
-        <v>0.13779999999999992</v>
-      </c>
-      <c r="E17" s="95">
-        <f t="shared" si="0"/>
-        <v>-50.641499999999972</v>
-      </c>
-      <c r="F17" s="93"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="94"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="95">
-        <f>SUM(E14:E17)</f>
-        <v>139.17050000000003</v>
-      </c>
-      <c r="D21" s="96">
-        <f>C21*21</f>
-        <v>2922.5805000000005</v>
-      </c>
-      <c r="E21" s="95">
-        <f>C21*252</f>
-        <v>35070.966000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="95">
-        <f>E10</f>
-        <v>350</v>
-      </c>
-      <c r="D22" s="96">
-        <f>C22*21</f>
-        <v>7350</v>
-      </c>
-      <c r="E22" s="95">
-        <f>C22*252</f>
-        <v>88200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="97">
-        <f>C21/C22</f>
-        <v>0.39763000000000009</v>
-      </c>
-      <c r="D23" s="97">
-        <f>D21/D22</f>
-        <v>0.39763000000000004</v>
-      </c>
-      <c r="E23" s="97">
-        <f>E21/E22</f>
-        <v>0.39763000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7E6F2-6AC4-45EC-BB35-AC68F1CDDF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163EDC3-6AC7-4439-9C36-37CBA4D60F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22245" yWindow="3645" windowWidth="19035" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="8790" yWindow="4020" windowWidth="20595" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
   <si>
     <t>SPX Open</t>
   </si>
@@ -52,9 +52,6 @@
     <t>SPX Prior Open</t>
   </si>
   <si>
-    <t>SPX Prior Close</t>
-  </si>
-  <si>
     <t>IV Last</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>HiVol</t>
   </si>
   <si>
-    <t>3D, 3L</t>
-  </si>
-  <si>
     <t>3D, 2L</t>
   </si>
   <si>
@@ -386,6 +380,15 @@
   </si>
   <si>
     <t>Suggested Quantity</t>
+  </si>
+  <si>
+    <t>2day loss count</t>
+  </si>
+  <si>
+    <t>2D, 2L</t>
+  </si>
+  <si>
+    <t>Linked</t>
   </si>
 </sst>
 </file>
@@ -396,9 +399,9 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,19 +424,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -728,15 +732,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -745,24 +740,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +841,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$J$1</c:f>
+              <c:f>Tracker!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -863,10 +864,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$16:$A$711</c:f>
+              <c:f>Tracker!$A$19:$A$713</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>44824</c:v>
                 </c:pt>
@@ -899,10 +900,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$J$16:$J$711</c:f>
+              <c:f>Tracker!$J$19:$J$713</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>728.99999999999989</c:v>
                 </c:pt>
@@ -962,7 +963,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$1</c15:sqref>
+                          <c15:sqref>Tracker!$G$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -991,13 +992,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -1033,13 +1034,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$16:$G$711</c15:sqref>
+                          <c15:sqref>Tracker!$G$19:$G$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
                       </c:pt>
@@ -1064,7 +1065,7 @@
                       <c:pt idx="7">
                         <c:v>10.42</c:v>
                       </c:pt>
-                      <c:pt idx="8" formatCode="0.00">
+                      <c:pt idx="8">
                         <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1087,7 +1088,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$1</c15:sqref>
+                          <c15:sqref>Tracker!$H$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1116,13 +1117,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -1158,13 +1159,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$16:$H$711</c15:sqref>
+                          <c15:sqref>Tracker!$H$19:$H$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
                       </c:pt>
@@ -1212,7 +1213,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$1</c15:sqref>
+                          <c15:sqref>Tracker!$I$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1241,13 +1242,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -1283,13 +1284,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$16:$I$711</c15:sqref>
+                          <c15:sqref>Tracker!$I$19:$I$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1584,10 +1585,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$16:$A$711</c:f>
+              <c:f>Tracker!$A$19:$A$713</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>44824</c:v>
                 </c:pt>
@@ -1621,10 +1622,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$H$16:$H$711</c:f>
+              <c:f>Tracker!$H$19:$H$713</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>7.2899999999999991</c:v>
                 </c:pt>
@@ -1685,7 +1686,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$1</c15:sqref>
+                          <c15:sqref>Tracker!$I$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1712,13 +1713,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -1754,13 +1755,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$16:$I$711</c15:sqref>
+                          <c15:sqref>Tracker!$I$19:$I$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1807,7 +1808,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$1</c15:sqref>
+                          <c15:sqref>Tracker!$J$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1834,13 +1835,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -1876,13 +1877,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$16:$J$711</c15:sqref>
+                          <c15:sqref>Tracker!$J$19:$J$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>728.99999999999989</c:v>
                       </c:pt>
@@ -1945,10 +1946,10 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$16:$A$711</c:f>
+              <c:f>Tracker!$A$19:$A$713</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>44824</c:v>
                 </c:pt>
@@ -1982,10 +1983,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$G$16:$G$711</c:f>
+              <c:f>Tracker!$G$19:$G$713</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>7.2899999999999991</c:v>
                 </c:pt>
@@ -2010,7 +2011,7 @@
                 <c:pt idx="7">
                   <c:v>10.42</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>18.23</c:v>
                 </c:pt>
               </c:numCache>
@@ -2350,7 +2351,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$I$1</c:f>
+              <c:f>Tracker!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2372,10 +2373,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$16:$A$711</c:f>
+              <c:f>Tracker!$A$19:$A$713</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>44824</c:v>
                 </c:pt>
@@ -2409,10 +2410,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$I$16:$I$711</c:f>
+              <c:f>Tracker!$I$19:$I$713</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="696"/>
+                <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2486,13 +2487,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -2528,13 +2529,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$16:$H$711</c15:sqref>
+                          <c15:sqref>Tracker!$H$19:$H$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
                       </c:pt>
@@ -2581,7 +2582,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$1</c15:sqref>
+                          <c15:sqref>Tracker!$J$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2608,13 +2609,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -2650,13 +2651,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$16:$J$711</c15:sqref>
+                          <c15:sqref>Tracker!$J$19:$J$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>728.99999999999989</c:v>
                       </c:pt>
@@ -2737,13 +2738,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$16:$A$711</c15:sqref>
+                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>44824</c:v>
                       </c:pt>
@@ -2779,13 +2780,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$16:$G$711</c15:sqref>
+                          <c15:sqref>Tracker!$G$19:$G$713</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="696"/>
+                      <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
                       </c:pt>
@@ -2810,7 +2811,7 @@
                       <c:pt idx="7">
                         <c:v>10.42</c:v>
                       </c:pt>
-                      <c:pt idx="8" formatCode="0.00">
+                      <c:pt idx="8">
                         <c:v>18.23</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5101,10 +5102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5114,18 +5115,16 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
+      <c r="B1" s="87">
+        <f>B2-1</f>
+        <v>44833</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -5133,135 +5132,137 @@
         <v>44834</v>
       </c>
       <c r="C2" s="68">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="14"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="91">
-        <f>SUM(C31:C33)</f>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="81">
+        <f>SUM(C31:C31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="11">
         <v>3687.01</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3640.71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="11">
         <v>3633.48</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="85">
-        <f>MAX(F9:F10)</f>
-        <v>3675</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="83">
-        <f>MIN(I9:I10)</f>
-        <v>3580</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="32"/>
+      <c r="C8" s="12">
+        <v>3586.47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="75">
+        <f>MROUND(MAX(F10:F11),5)</f>
+        <v>3675</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="73">
+        <f>MIN(I10:I11)</f>
+        <v>3589.7819221882778</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="13">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="85">
-        <f>MROUND(C7+C12, 5)</f>
-        <v>3675</v>
-      </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="83">
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="75">
+        <f>C7+C12</f>
+        <v>3677.1780778117222</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="73">
         <f>C7-C12</f>
         <v>3589.7819221882778</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="88">
-        <f>MROUND(C13+C12*0.9, 5)</f>
-        <v>3660</v>
-      </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="84">
-        <f>MROUND(C13-C12*0.9, 5)</f>
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="78">
+        <f>C13+C12*0.85</f>
+        <v>3664.0738399930215</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="74">
+        <f>C13-C12*0.85</f>
+        <v>3589.7871077130931</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
         <f>$C$7*C$9*SQRT((11/24)/252)</f>
@@ -5270,130 +5271,146 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5">
-        <f>C25*0.65+C26*0.35</f>
-        <v>3618.3890153948123</v>
+        <f>C22*0.21+C24*0.79</f>
+        <v>3626.9304738530573</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3">
-        <f>C6*C$9*SQRT((24/24)/252)</f>
-        <v>64.674774716882908</v>
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)*C$9*SQRT((24/24)/252)</f>
+        <v>63.711237445129946</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <f>C6+C16</f>
-        <v>3705.3847747168829</v>
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)+C16</f>
+        <v>3650.1812374451297</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5">
-        <f>C6-C16</f>
-        <v>3576.0352252831171</v>
-      </c>
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)-C16</f>
+        <v>3522.7587625548699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="85">
+        <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-17):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-17):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+2))</f>
+        <v>-15.564427546628403</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="86">
+        <f>$C$7+C21*0.71</f>
+        <v>3622.4292564418938</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="84"/>
+      <c r="C23" s="86"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="95">
-        <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-20):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-20):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-1))</f>
-        <v>-13.4818008204838</v>
+      <c r="B24" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="86">
+        <f>_xlfn.FORECAST.LINEAR(B2+0.1, C6:C7, B1:B2)</f>
+        <v>3628.1270000003278</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="96">
-        <f>$C$7+C24*0.76</f>
-        <v>3623.2338313764321</v>
-      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="86">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="86">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="96">
-        <f>_xlfn.FORECAST.LINEAR(B2+0.45, INDEX(Tracker!B:B,COUNTA(Tracker!B:B)-1):INDEX(Tracker!B:B,COUNTA(Tracker!B:B)), INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-1):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)))</f>
-        <v>3609.3915000003763</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="96">
-        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-4,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4))</f>
-        <v>3</v>
+      <c r="C28" s="86">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="96">
-        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-3,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4))</f>
-        <v>3</v>
-      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="84">
+        <f>IF(C26&gt;=3, 0, 1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="94">
-        <f>IF(C29=3, 0, 1)</f>
+      <c r="B31" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="84">
+        <f>IF(C27&gt;=2, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="94">
-        <f>IF(C29&gt;=2, 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="94">
-        <f>IF(C28&gt;=3, 0, 1)</f>
+      <c r="B32" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="84">
+        <f>IF(C28&gt;=2, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C24" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5402,7 +5419,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5428,54 +5445,54 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="14">
         <v>2022</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>57</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="45">
         <v>44824</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="48">
         <f>COUNTA(Tracker!J:J)-1</f>
         <v>9</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="42">
         <f>C7/F3</f>
-        <v>158.66666666666663</v>
+        <v>96.333333333333286</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="38">
         <f>2*1.25%</f>
@@ -5489,13 +5506,13 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="42">
         <v>23681.65</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="48">
         <f>COUNTIF(Tracker!I:I, "&gt;0")</f>
@@ -5506,11 +5523,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H4" s="42">
-        <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G24,"&gt;0", Tracker!G24))/F4*100</f>
-        <v>742.33333333333326</v>
+        <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G2,"&gt;0", Tracker!G2))/F4*100</f>
+        <v>1046.1666666666665</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="38">
         <f>-3.75%</f>
@@ -5523,13 +5540,13 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="42">
         <v>23681.65</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="48">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
@@ -5540,11 +5557,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H5" s="42">
-        <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G24,"&lt;0", Tracker!G24))/F5*100, 0)</f>
+        <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G2,"&lt;0", Tracker!G2))/F5*100, 0)</f>
         <v>-1008.6666666666667</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="38">
         <f>+K3+K4</f>
@@ -5562,22 +5579,22 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="42">
-        <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+13)</f>
-        <v>1427.9999999999995</v>
+        <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+14)</f>
+        <v>866.99999999999955</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="46">
         <f>C7/C4</f>
-        <v>6.0299852417377987E-2</v>
+        <v>3.6610624681979488E-2</v>
       </c>
       <c r="G7" s="46"/>
       <c r="J7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="52">
         <v>20</v>
@@ -5588,22 +5605,22 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="42">
-        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+13)</f>
-        <v>11003</v>
+        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+14)</f>
+        <v>7073</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="46">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>5.9786357641098817</v>
+        <v>2.2972801769854754</v>
       </c>
       <c r="G8" s="46"/>
       <c r="J8" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="52">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
@@ -5616,22 +5633,22 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="46">
         <f>C7/C8</f>
-        <v>0.1297827865127692</v>
+        <v>0.12257882086808986</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="46">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.73023506409867101</v>
+        <v>0.4002943049376988</v>
       </c>
       <c r="G9" s="46"/>
       <c r="J9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="53">
         <f>K7*K8*100*2</f>
@@ -5667,11 +5684,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5679,7 +5696,7 @@
     <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="14" bestFit="1" customWidth="1"/>
@@ -5691,574 +5708,621 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88">
+        <f>Indicator!$B$2</f>
+        <v>44834</v>
+      </c>
+      <c r="B2" s="89">
+        <f>Indicator!$C$7</f>
+        <v>3633.48</v>
+      </c>
+      <c r="C2" s="89">
+        <f>Indicator!$C$8</f>
+        <v>3586.47</v>
+      </c>
+      <c r="D2" s="89">
+        <f>Indicator!$C$13</f>
+        <v>3626.9304738530573</v>
+      </c>
+      <c r="E2" s="90">
+        <f>Indicator!$C$9</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F2" s="72">
+        <f>IF(ABS(D2-C2)&gt;=SQRT((7/24)/252)*E2*B2,       1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="91">
+        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
+        <v>18.23</v>
+      </c>
+      <c r="H2" s="92">
+        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
+        <v>18.23</v>
+      </c>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="F4" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="G4" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="K4" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="44" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>44803</v>
-      </c>
-      <c r="B2" s="22">
-        <v>4041.25</v>
-      </c>
-      <c r="C2" s="22">
-        <v>3986.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>44804</v>
-      </c>
-      <c r="B3" s="22">
-        <v>4000.67</v>
-      </c>
-      <c r="C3" s="22">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>44805</v>
-      </c>
-      <c r="B4" s="22">
-        <v>3936.73</v>
-      </c>
-      <c r="C4" s="22">
-        <v>3966.85</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B5" s="22">
-        <v>3994.66</v>
+        <v>4041.25</v>
       </c>
       <c r="C5" s="22">
-        <v>3924.26</v>
+        <v>3986.16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
-        <v>44810</v>
+        <v>44804</v>
       </c>
       <c r="B6" s="22">
-        <v>3930.89</v>
+        <v>4000.67</v>
       </c>
       <c r="C6" s="22">
-        <v>3908.19</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
-        <v>44811</v>
+        <v>44805</v>
       </c>
       <c r="B7" s="22">
-        <v>3909.43</v>
+        <v>3936.73</v>
       </c>
       <c r="C7" s="22">
-        <v>3979.87</v>
+        <v>3966.85</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="B8" s="22">
-        <v>3959.94</v>
+        <v>3994.66</v>
       </c>
       <c r="C8" s="22">
-        <v>4006.18</v>
+        <v>3924.26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="B9" s="22">
-        <v>4022.94</v>
+        <v>3930.89</v>
       </c>
       <c r="C9" s="22">
-        <v>4067.36</v>
+        <v>3908.19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
-        <v>44816</v>
+        <v>44811</v>
       </c>
       <c r="B10" s="22">
-        <v>4083.67</v>
+        <v>3909.43</v>
       </c>
       <c r="C10" s="22">
-        <v>4110.41</v>
+        <v>3979.87</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
-        <v>44817</v>
+        <v>44812</v>
       </c>
       <c r="B11" s="22">
-        <v>4037.12</v>
+        <v>3959.94</v>
       </c>
       <c r="C11" s="22">
-        <v>3932.69</v>
+        <v>4006.18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
-        <v>44818</v>
+        <v>44813</v>
       </c>
       <c r="B12" s="22">
-        <v>3940.73</v>
+        <v>4022.94</v>
       </c>
       <c r="C12" s="22">
-        <v>3946.01</v>
+        <v>4067.36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="B13" s="22">
-        <v>3932.41</v>
+        <v>4083.67</v>
       </c>
       <c r="C13" s="22">
-        <v>3901.35</v>
+        <v>4110.41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
-        <v>44820</v>
+        <v>44817</v>
       </c>
       <c r="B14" s="22">
-        <v>3880.95</v>
+        <v>4037.12</v>
       </c>
       <c r="C14" s="22">
-        <v>3873.33</v>
+        <v>3932.69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
-        <v>44823</v>
+        <v>44818</v>
       </c>
       <c r="B15" s="22">
-        <v>3849.91</v>
+        <v>3940.73</v>
       </c>
       <c r="C15" s="22">
-        <v>3899.89</v>
+        <v>3946.01</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
-        <v>44824</v>
+        <v>44819</v>
       </c>
       <c r="B16" s="22">
-        <v>3876.23</v>
+        <v>3932.41</v>
       </c>
       <c r="C16" s="22">
-        <v>3856.04</v>
-      </c>
-      <c r="D16" s="22">
-        <v>3876.6161446932838</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="F16" s="81">
-        <f>IF(ABS(D16-C16)&gt;=SQRT((7/24)/252)*E16*B16,       1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="H16" s="32">
-        <v>7.2899999999999991</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" ref="I16:I21" si="0">G16/H16</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="36">
-        <f>G16*100</f>
-        <v>728.99999999999989</v>
-      </c>
-      <c r="K16" s="69">
-        <f>H16*100</f>
-        <v>728.99999999999989</v>
+        <v>3901.35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
+        <v>44820</v>
+      </c>
+      <c r="B17" s="22">
+        <v>3880.95</v>
+      </c>
+      <c r="C17" s="22">
+        <v>3873.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>44823</v>
+      </c>
+      <c r="B18" s="22">
+        <v>3849.91</v>
+      </c>
+      <c r="C18" s="22">
+        <v>3899.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>44824</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3876.23</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3856.04</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3876.6161446932838</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F19" s="72">
+        <f>IF(ABS(D19-C19)&gt;=SQRT((7/24)/252)*E19*B19,       1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="H19" s="32">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" ref="I19:I24" si="0">G19/H19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="36">
+        <f>G19*100</f>
+        <v>728.99999999999989</v>
+      </c>
+      <c r="K19" s="69">
+        <f>H19*100</f>
+        <v>728.99999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>44825</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B20" s="22">
         <v>3871.4</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C20" s="22">
         <v>3789.93</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D20" s="22">
         <v>3866.8762955705743</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E20" s="21">
         <v>0.249</v>
       </c>
-      <c r="F17" s="81">
-        <f t="shared" ref="F17:F24" si="1">IF(ABS(D17-C17)&gt;=SQRT((7/24)/252)*E17*B17,       1, 0)</f>
+      <c r="F20" s="72">
+        <f t="shared" ref="F20:F26" si="1">IF(ABS(D20-C20)&gt;=SQRT((7/24)/252)*E20*B20,       1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G20" s="14">
         <v>3.84</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H20" s="32">
         <v>5.17</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I20" s="17">
         <f t="shared" si="0"/>
         <v>0.74274661508704065</v>
       </c>
-      <c r="J17" s="36">
-        <f t="shared" ref="J17:J22" si="2">J16+G17*100</f>
+      <c r="J20" s="36">
+        <f t="shared" ref="J20:J25" si="2">J19+G20*100</f>
         <v>1113</v>
       </c>
-      <c r="K17" s="69">
-        <f t="shared" ref="K17:K22" si="3">H17*100+K16</f>
+      <c r="K20" s="69">
+        <f t="shared" ref="K20:K25" si="3">H20*100+K19</f>
         <v>1246</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="L20" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>44826</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B21" s="22">
         <v>3782.36</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C21" s="22">
         <v>3757.99</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D21" s="22">
         <v>3764.3371002659705</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E21" s="21">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F21" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G21" s="14">
         <v>9.7100000000000009</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H21" s="32">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J21" s="36">
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K21" s="69">
         <f t="shared" si="3"/>
         <v>2217</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>44827</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B22" s="22">
         <v>3727.14</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C22" s="22">
         <v>3693.49</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D22" s="22">
         <v>3714.2677975626962</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E22" s="21">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F22" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G22" s="14">
         <v>-19.870000000000005</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H22" s="32">
         <v>12.66</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I22" s="17">
         <f t="shared" si="0"/>
         <v>-1.5695102685624016</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J22" s="36">
         <f t="shared" si="2"/>
         <v>96.999999999999545</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K22" s="69">
         <f t="shared" si="3"/>
         <v>3483</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="L22" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>44830</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B23" s="22">
         <v>3682.72</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C23" s="22">
         <v>3655.52</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D23" s="22">
         <v>3676.2315448980103</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E23" s="21">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F23" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G23" s="14">
         <v>13.28</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H23" s="32">
         <v>13.28</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I23" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J23" s="36">
         <f t="shared" si="2"/>
         <v>1424.9999999999995</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K23" s="69">
         <f t="shared" si="3"/>
         <v>4811</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>44831</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B24" s="22">
         <v>3686.44</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C24" s="22">
         <v>3647.29</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D24" s="22">
         <v>3682.1677437929629</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E24" s="21">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F24" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G24" s="14">
         <v>-5.58</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H24" s="32">
         <v>22.619999999999997</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I24" s="17">
         <f t="shared" si="0"/>
         <v>-0.24668435013262602</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J24" s="36">
         <f t="shared" si="2"/>
         <v>866.99999999999955</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K24" s="69">
         <f t="shared" si="3"/>
         <v>7073</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="L24" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>44832</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B25" s="22">
         <v>3651.94</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C25" s="22">
         <v>3719.04</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D25" s="22">
         <v>3641.0415148431239</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E25" s="21">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F25" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G25" s="14">
         <v>-4.8100000000000005</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H25" s="32">
         <v>21.65</v>
       </c>
-      <c r="I22" s="17">
-        <f t="shared" ref="I22" si="4">G22/H22</f>
+      <c r="I25" s="17">
+        <f t="shared" ref="I25" si="4">G25/H25</f>
         <v>-0.22217090069284068</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J25" s="36">
         <f t="shared" si="2"/>
         <v>385.99999999999949</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K25" s="69">
         <f t="shared" si="3"/>
         <v>9238</v>
       </c>
-      <c r="L22" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="L25" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <v>44833</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B26" s="22">
         <v>3687.01</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C26" s="22">
         <v>3640.71</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D26" s="22">
         <v>3686.7087244033005</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E26" s="21">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F26" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G26" s="14">
         <v>10.42</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H26" s="32">
         <v>17.650000000000002</v>
       </c>
-      <c r="I23" s="17">
-        <f t="shared" ref="I23" si="5">G23/H23</f>
+      <c r="I26" s="17">
+        <f t="shared" ref="I26" si="5">G26/H26</f>
         <v>0.59036827195467412</v>
       </c>
-      <c r="J23" s="36">
-        <f t="shared" ref="J23" si="6">J22+G23*100</f>
+      <c r="J26" s="36">
+        <f t="shared" ref="J26" si="6">J25+G26*100</f>
         <v>1427.9999999999995</v>
       </c>
-      <c r="K23" s="69">
-        <f t="shared" ref="K23" si="7">H23*100+K22</f>
+      <c r="K26" s="69">
+        <f t="shared" ref="K26" si="7">H26*100+K25</f>
         <v>11003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
-        <f>Indicator!B2</f>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
         <v>44834</v>
       </c>
-      <c r="B24" s="72">
-        <f>Indicator!$C$7</f>
+      <c r="B27" s="22">
         <v>3633.48</v>
       </c>
-      <c r="C24" s="72">
-        <f>Indicator!$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="72">
-        <f>Indicator!C13</f>
-        <v>3618.3890153948123</v>
-      </c>
-      <c r="E24" s="73">
-        <f>Indicator!$C$9</f>
+      <c r="C27" s="22">
+        <v>3586.47</v>
+      </c>
+      <c r="D27" s="22">
+        <v>3627.2519879970482</v>
+      </c>
+      <c r="E27" s="21">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F24" s="82">
-        <f t="shared" si="1"/>
+      <c r="F27" s="72">
         <v>1</v>
       </c>
-      <c r="G24" s="74">
-        <f>SUMIF(Trades!A:A,Tracker!A24,Trades!H:H)</f>
+      <c r="G27" s="14">
         <v>18.23</v>
       </c>
-      <c r="H24" s="75">
-        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A24,  Trades!C:C, "STO")</f>
+      <c r="H27" s="32">
         <v>18.23</v>
       </c>
-      <c r="I24" s="76">
-        <f t="shared" ref="I24" si="8">G24/H24</f>
+      <c r="I27" s="17">
+        <f t="shared" ref="I27" si="8">G27/H27</f>
         <v>1</v>
       </c>
-      <c r="J24" s="77">
-        <f>J23+G24*100</f>
+      <c r="J27" s="36">
+        <f t="shared" ref="J27" si="9">J26+G27*100</f>
         <v>3250.9999999999995</v>
       </c>
-      <c r="K24" s="78">
-        <f>H24*100+K23</f>
+      <c r="K27" s="69">
+        <f t="shared" ref="K27" si="10">H27*100+K26</f>
         <v>12826</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C18">
+    <sortCondition ref="A5:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F16:F24" unlockedFormula="1"/>
+    <ignoredError sqref="F19:F26" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6269,7 +6333,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,43 +6355,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6338,10 +6402,10 @@
         <v>949</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="65">
         <v>-0.15</v>
@@ -6372,10 +6436,10 @@
         <v>950</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="65">
         <v>0.09</v>
@@ -6406,10 +6470,10 @@
         <v>944</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="65">
         <v>-0.15</v>
@@ -6447,10 +6511,10 @@
         <v>243</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="19">
         <v>1</v>
@@ -6471,10 +6535,10 @@
         <v>937</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="65">
         <v>-0.16</v>
@@ -6505,10 +6569,10 @@
         <v>946</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="65">
         <v>0.13</v>
@@ -6539,10 +6603,10 @@
         <v>936</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="65">
         <v>-0.3</v>
@@ -6573,10 +6637,10 @@
         <v>949</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="65">
         <v>-0.19</v>
@@ -6607,10 +6671,10 @@
         <v>240</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="F10" s="19">
         <v>1</v>
@@ -6631,10 +6695,10 @@
         <v>255</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
@@ -6655,10 +6719,10 @@
         <v>311</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="65">
         <v>-0.19</v>
@@ -6689,10 +6753,10 @@
         <v>942</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="65">
         <v>-0.15</v>
@@ -6723,10 +6787,10 @@
         <v>942</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="65">
         <v>0.15</v>
@@ -6757,10 +6821,10 @@
         <v>1015</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="65">
         <v>0.11</v>
@@ -6791,10 +6855,10 @@
         <v>950</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="65">
         <v>-0.16</v>
@@ -6825,10 +6889,10 @@
         <v>940</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="65">
         <v>0.17</v>
@@ -6859,10 +6923,10 @@
         <v>1006</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="65">
         <v>0.14000000000000001</v>
@@ -6893,10 +6957,10 @@
         <v>1218</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="19">
         <v>2</v>
@@ -6917,10 +6981,10 @@
         <v>1224</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="65">
         <v>0.15</v>
@@ -6951,10 +7015,10 @@
         <v>934</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="65">
         <v>0.15</v>
@@ -6985,10 +7049,10 @@
         <v>938</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="65">
         <v>-0.15</v>
@@ -7019,10 +7083,10 @@
         <v>940</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="65">
         <v>-0.09</v>
@@ -7053,10 +7117,10 @@
         <v>1212</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="19">
         <v>2</v>
@@ -7080,10 +7144,10 @@
         <v>1318</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="65">
         <v>0.3</v>
@@ -7114,10 +7178,10 @@
         <v>933</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="65">
         <v>-0.15</v>
@@ -7148,10 +7212,10 @@
         <v>943</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="65">
         <v>0.15</v>
@@ -7182,10 +7246,10 @@
         <v>944</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="65">
         <v>0.09</v>
@@ -7216,10 +7280,10 @@
         <v>1016</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="19">
         <v>1</v>
@@ -7240,10 +7304,10 @@
         <v>1035</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="65">
         <v>0.15</v>
@@ -7274,10 +7338,10 @@
         <v>937</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="65">
         <v>-0.15</v>
@@ -7308,10 +7372,10 @@
         <v>942</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="65">
         <v>0.15</v>
@@ -7342,10 +7406,10 @@
         <v>943</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="65">
         <v>0.09</v>
@@ -7401,43 +7465,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>35</v>
-      </c>
       <c r="N1" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7448,10 +7512,10 @@
         <v>942</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="65">
         <v>-0.15</v>
@@ -7463,14 +7527,14 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="29">
-        <f>G2*F2</f>
+        <f t="shared" ref="H2:H13" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="30">
         <v>3</v>
       </c>
       <c r="J2" s="43">
-        <f t="shared" ref="J2:J3" si="0">-I2*H2</f>
+        <f t="shared" ref="J2:J3" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
       <c r="N2" s="43">
@@ -7486,10 +7550,10 @@
         <v>942</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="65">
         <v>0.15</v>
@@ -7501,14 +7565,14 @@
         <v>3.27</v>
       </c>
       <c r="H3" s="29">
-        <f>G3*F3</f>
+        <f t="shared" si="0"/>
         <v>3.27</v>
       </c>
       <c r="I3" s="30">
         <v>3</v>
       </c>
       <c r="J3" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.81</v>
       </c>
     </row>
@@ -7520,10 +7584,10 @@
         <v>950</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="65">
         <v>-0.16</v>
@@ -7535,14 +7599,14 @@
         <v>3.37</v>
       </c>
       <c r="H4" s="29">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>3.37</v>
       </c>
       <c r="I4" s="30">
         <v>3</v>
       </c>
       <c r="J4" s="43">
-        <f t="shared" ref="J4:J5" si="1">-I4*G4</f>
+        <f t="shared" ref="J4:J5" si="2">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
@@ -7554,10 +7618,10 @@
         <v>940</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="65">
         <v>0.17</v>
@@ -7569,14 +7633,14 @@
         <v>3.42</v>
       </c>
       <c r="H5" s="29">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
       <c r="I5" s="30">
         <v>3</v>
       </c>
       <c r="J5" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10.26</v>
       </c>
     </row>
@@ -7588,10 +7652,10 @@
         <v>1218</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="19">
         <v>1</v>
@@ -7600,7 +7664,7 @@
         <v>-10.43</v>
       </c>
       <c r="H6" s="29">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>-10.43</v>
       </c>
     </row>
@@ -7612,10 +7676,10 @@
         <v>934</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="65">
         <v>0.15</v>
@@ -7627,14 +7691,14 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H7" s="29">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
       <c r="I7" s="30">
         <v>3</v>
       </c>
       <c r="J7" s="43">
-        <f t="shared" ref="J7:J8" si="2">-I7*G7</f>
+        <f t="shared" ref="J7:J8" si="3">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -7646,10 +7710,10 @@
         <v>938</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="65">
         <v>-0.15</v>
@@ -7661,14 +7725,14 @@
         <v>5.27</v>
       </c>
       <c r="H8" s="29">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>5.27</v>
       </c>
       <c r="I8" s="30">
         <v>3</v>
       </c>
       <c r="J8" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
@@ -7680,10 +7744,10 @@
         <v>1212</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -7692,7 +7756,7 @@
         <v>-13.23</v>
       </c>
       <c r="H9" s="29">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>-13.23</v>
       </c>
     </row>
@@ -7704,10 +7768,10 @@
         <v>933</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="65">
         <v>-0.15</v>
@@ -7719,14 +7783,14 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H10" s="29">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
       <c r="I10" s="30">
         <v>3</v>
       </c>
       <c r="J10" s="43">
-        <f t="shared" ref="J10:J11" si="3">-I10*G10</f>
+        <f t="shared" ref="J10:J11" si="4">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
@@ -7738,10 +7802,10 @@
         <v>943</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="65">
         <v>0.15</v>
@@ -7753,14 +7817,14 @@
         <v>3.87</v>
       </c>
       <c r="H11" s="29">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>3.87</v>
       </c>
       <c r="I11" s="30">
         <v>3</v>
       </c>
       <c r="J11" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11.61</v>
       </c>
     </row>
@@ -7772,10 +7836,10 @@
         <v>937</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="65">
         <v>-0.15</v>
@@ -7787,7 +7851,7 @@
         <v>4.87</v>
       </c>
       <c r="H12" s="29">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
       <c r="I12" s="30">
@@ -7806,10 +7870,10 @@
         <v>942</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="65">
         <v>0.15</v>
@@ -7821,7 +7885,7 @@
         <v>5.32</v>
       </c>
       <c r="H13" s="29">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>5.32</v>
       </c>
       <c r="I13" s="30">
@@ -7843,7 +7907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7864,43 +7928,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>35</v>
-      </c>
       <c r="N1" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7911,10 +7975,10 @@
         <v>942</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="65">
         <v>-0.15</v>
@@ -7949,10 +8013,10 @@
         <v>1015</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="65">
         <v>0.11</v>
@@ -7983,10 +8047,10 @@
         <v>950</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="65">
         <v>-0.16</v>
@@ -8017,10 +8081,10 @@
         <v>1006</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="65">
         <v>0.14000000000000001</v>
@@ -8051,10 +8115,10 @@
         <v>1218</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="19">
         <v>1</v>
@@ -8075,10 +8139,10 @@
         <v>934</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="65">
         <v>0.15</v>
@@ -8109,10 +8173,10 @@
         <v>940</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="65">
         <v>-0.09</v>
@@ -8143,10 +8207,10 @@
         <v>1212</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -8167,10 +8231,10 @@
         <v>933</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="65">
         <v>-0.15</v>
@@ -8201,10 +8265,10 @@
         <v>944</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="65">
         <v>0.09</v>
@@ -8235,10 +8299,10 @@
         <v>937</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="65">
         <v>-0.15</v>
@@ -8267,10 +8331,10 @@
         <v>943</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="65">
         <v>0.09</v>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163EDC3-6AC7-4439-9C36-37CBA4D60F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08820AE8-2375-4D87-BAFE-ABDA355D0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="4020" windowWidth="20595" windowHeight="17100" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="4335" yWindow="3120" windowWidth="42720" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,20 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
-  <si>
-    <t>SPX Open</t>
-  </si>
-  <si>
-    <t>SPX Close</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Updated</t>
   </si>
   <si>
-    <t>SPX Prior Open</t>
-  </si>
-  <si>
     <t>IV Last</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>Sep30 3685/3710 Bear Call @-3.2</t>
   </si>
   <si>
-    <t>20D slope</t>
-  </si>
-  <si>
     <t>open+wtSlope</t>
   </si>
   <si>
@@ -376,9 +364,6 @@
     <t>3day loss count</t>
   </si>
   <si>
-    <t>linear 2day 4cast</t>
-  </si>
-  <si>
     <t>Suggested Quantity</t>
   </si>
   <si>
@@ -388,7 +373,34 @@
     <t>2D, 2L</t>
   </si>
   <si>
-    <t>Linked</t>
+    <t>linear 4cast wt</t>
+  </si>
+  <si>
+    <t>slope factor</t>
+  </si>
+  <si>
+    <t>linear 4cast shift</t>
+  </si>
+  <si>
+    <t>SPX T-2 Open</t>
+  </si>
+  <si>
+    <t>SPX T-1 Open</t>
+  </si>
+  <si>
+    <t>SPX T-0 Open</t>
+  </si>
+  <si>
+    <t>SPX T-0 Close</t>
+  </si>
+  <si>
+    <t>linear 3day 4cast</t>
+  </si>
+  <si>
+    <t>OTM Trigger</t>
+  </si>
+  <si>
+    <t>25D slope</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,13 +432,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -587,9 +592,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -754,7 +756,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -764,6 +765,10 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +846,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$J$4</c:f>
+              <c:f>Tracker!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -864,7 +869,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$713</c:f>
+              <c:f>Tracker!$A$20:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="695"/>
@@ -900,7 +905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$J$19:$J$713</c:f>
+              <c:f>Tracker!$J$20:$J$714</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="695"/>
@@ -963,7 +968,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$4</c15:sqref>
+                          <c15:sqref>Tracker!$G$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -992,7 +997,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1034,7 +1039,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$19:$G$713</c15:sqref>
+                          <c15:sqref>Tracker!$G$20:$G$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1088,7 +1093,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$4</c15:sqref>
+                          <c15:sqref>Tracker!$H$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1117,7 +1122,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1159,7 +1164,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$19:$H$713</c15:sqref>
+                          <c15:sqref>Tracker!$H$20:$H$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1213,7 +1218,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$4</c15:sqref>
+                          <c15:sqref>Tracker!$I$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1242,7 +1247,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1284,7 +1289,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$19:$I$713</c15:sqref>
+                          <c15:sqref>Tracker!$I$20:$I$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1585,7 +1590,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$713</c:f>
+              <c:f>Tracker!$A$20:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="695"/>
@@ -1622,7 +1627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$H$19:$H$713</c:f>
+              <c:f>Tracker!$H$20:$H$714</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="695"/>
@@ -1686,7 +1691,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$4</c15:sqref>
+                          <c15:sqref>Tracker!$I$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1713,7 +1718,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1755,7 +1760,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$I$19:$I$713</c15:sqref>
+                          <c15:sqref>Tracker!$I$20:$I$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1808,7 +1813,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                          <c15:sqref>Tracker!$J$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1835,7 +1840,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1877,7 +1882,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$19:$J$713</c15:sqref>
+                          <c15:sqref>Tracker!$J$20:$J$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1946,7 +1951,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$713</c:f>
+              <c:f>Tracker!$A$20:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="695"/>
@@ -1983,7 +1988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$G$19:$G$713</c:f>
+              <c:f>Tracker!$G$20:$G$714</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="695"/>
@@ -2351,7 +2356,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tracker!$I$4</c:f>
+              <c:f>Tracker!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2373,7 +2378,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tracker!$A$19:$A$713</c:f>
+              <c:f>Tracker!$A$20:$A$714</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="695"/>
@@ -2410,7 +2415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tracker!$I$19:$I$713</c:f>
+              <c:f>Tracker!$I$20:$I$714</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="695"/>
@@ -2487,7 +2492,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2529,7 +2534,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$H$19:$H$713</c15:sqref>
+                          <c15:sqref>Tracker!$H$20:$H$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2582,7 +2587,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$4</c15:sqref>
+                          <c15:sqref>Tracker!$J$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2609,7 +2614,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2651,7 +2656,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$J$19:$J$713</c15:sqref>
+                          <c15:sqref>Tracker!$J$20:$J$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2738,7 +2743,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$A$19:$A$713</c15:sqref>
+                          <c15:sqref>Tracker!$A$20:$A$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2780,7 +2785,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tracker!$G$19:$G$713</c15:sqref>
+                          <c15:sqref>Tracker!$G$20:$G$714</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5102,15 +5107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -5122,558 +5128,585 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="87">
-        <f>B2-1</f>
-        <v>44833</v>
-      </c>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="16">
-        <v>44834</v>
-      </c>
-      <c r="C2" s="68">
-        <v>1704</v>
+      <c r="B2" s="15">
+        <v>44836</v>
+      </c>
+      <c r="C2" s="67">
+        <v>2230</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="81">
-        <f>SUM(C31:C31)</f>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="F5" s="80">
+        <f>SUM(F26:F28)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
+        <v>114</v>
+      </c>
+      <c r="C6" s="96">
+        <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
         <v>3687.01</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="97">
+        <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
         <v>3633.48</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="82" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="81" t="s">
+        <v>105</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3586.47</v>
+        <v>116</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3633.48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="75">
+        <v>100</v>
+      </c>
+      <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
         <v>3675</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="73">
+      <c r="G8" s="75"/>
+      <c r="H8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="72">
         <f>MIN(I10:I11)</f>
+        <v>3583.5156059277028</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3586.47</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="74">
+        <f>C8+C13</f>
+        <v>3677.1780778117222</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="72">
+        <f>C8-C13</f>
         <v>3589.7819221882778</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="77">
+        <f>C14+C13</f>
+        <v>3670.9117615511473</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="73">
+        <f>C14-C13</f>
+        <v>3583.5156059277028</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <f>$C$8*C$10*SQRT((11/24)/252)</f>
+        <v>43.698077811722364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C23*(1-F24)+C24*F24</f>
+        <v>3627.2136837394251</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
+        <v>63.711237445129946</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
+        <v>3650.1812374451297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="75">
-        <f>C7+C12</f>
-        <v>3677.1780778117222</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="73">
-        <f>C7-C12</f>
-        <v>3589.7819221882778</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="C19" s="5">
+        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
+        <v>3522.7587625548699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="85">
+        <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
+        <v>-11.83093299711815</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="85">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="85">
+        <f>$C$8+C22*F22</f>
+        <v>3628.8659361311238</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="85">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="85">
+        <f>_xlfn.FORECAST.LINEAR(B32+F23, C6:C8, B30:B32)</f>
+        <v>3617.0641333332751</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="85">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="85">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-2,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="83">
+        <f>IF(C26&gt;=3, 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="E11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="78">
-        <f>C13+C12*0.85</f>
-        <v>3664.0738399930215</v>
-      </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="74">
-        <f>C13-C12*0.85</f>
-        <v>3589.7871077130931</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <f>$C$7*C$9*SQRT((11/24)/252)</f>
-        <v>43.698077811722364</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="5">
-        <f>C22*0.21+C24*0.79</f>
-        <v>3626.9304738530573</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)*C$9*SQRT((24/24)/252)</f>
-        <v>63.711237445129946</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)+C16</f>
-        <v>3650.1812374451297</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5">
-        <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2)-C16</f>
-        <v>3522.7587625548699</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="85">
-        <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-17):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+2),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-17):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+2))</f>
-        <v>-15.564427546628403</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="86">
-        <f>$C$7+C21*0.71</f>
-        <v>3622.4292564418938</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="86">
-        <f>_xlfn.FORECAST.LINEAR(B2+0.1, C6:C7, B1:B2)</f>
-        <v>3628.1270000003278</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="86">
-        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="86">
-        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="86">
-        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+2,4))</f>
+      <c r="C27" s="85">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="84">
-        <f>IF(C26&gt;=3, 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="84">
+      <c r="E27" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="83">
         <f>IF(C27&gt;=2, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="84">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="85">
+        <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="83">
         <f>IF(C28&gt;=2, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="95">
+        <f>B31-1</f>
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="95">
+        <f>B32-1</f>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="95">
+        <f>B2</f>
+        <v>44836</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C24" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471B6A24-2033-402A-BBD4-215D07AF7C50}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="14"/>
-    <col min="10" max="10" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="7" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="45"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="44"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13">
         <v>2022</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="F2" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="44">
         <v>44824</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="48">
+      <c r="E3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
         <v>9</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="42">
+      <c r="G3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>96.333333333333286</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="38">
+        <v>361.22222222222217</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="37">
         <f>2*1.25%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="41">
         <f>K3*C5</f>
         <v>592.0412500000001</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="42">
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="41">
         <v>23681.65</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="48">
+      <c r="E4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="47">
         <f>COUNTIF(Tracker!I:I, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f>F4/F3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H4" s="42">
-        <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G2,"&gt;0", Tracker!G2))/F4*100</f>
+      <c r="H4" s="41">
+        <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
         <v>1046.1666666666665</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="38">
+      <c r="J4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="37">
         <f>-3.75%</f>
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="41">
         <f>K4*C5</f>
         <v>-888.06187499999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="41">
         <v>23681.65</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="48">
+      <c r="E5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f>F5/F3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="42">
-        <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G2,"&lt;0", Tracker!G2))/F5*100, 0)</f>
+      <c r="H5" s="41">
+        <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
         <v>-1008.6666666666667</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="38">
+      <c r="J5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="37">
         <f>+K3+K4</f>
         <v>-1.2499999999999997E-2</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <f>+L3+L4</f>
         <v>-296.02062499999988</v>
       </c>
-      <c r="M5" s="47"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="42">
-        <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+14)</f>
-        <v>866.99999999999955</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="46">
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="41">
+        <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
+        <v>3250.9999999999995</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>3.6610624681979488E-2</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="J7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="52">
+        <v>0.13727928586057134</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="J7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="51">
         <v>20</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="51">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="41">
+        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
+        <v>12826</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="42">
-        <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+14)</f>
-        <v>7073</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="45">
+        <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
+        <v>36.031993001766836</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="J8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="46">
-        <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>2.2972801769854754</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="J8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <f>FLOOR(MROUND(C4/1000, 5)/20, 1)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <f>FLOOR(MROUND(C4/1000, 5)/25, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="B9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>0.12257882086808986</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="46">
+        <v>0.2534695150475596</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.4002943049376988</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="J9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="53">
+        <v>1.7710193672535528</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="J9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="52">
         <f>K7*K8*100*2</f>
         <v>4000</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="52">
         <f>L7*L8*100*2</f>
         <v>5000</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5684,1750 +5717,1803 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
-  <dimension ref="A1:L27"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88">
+    <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44834</v>
-      </c>
-      <c r="B2" s="89">
-        <f>Indicator!$C$7</f>
+        <v>44836</v>
+      </c>
+      <c r="B1" s="87">
+        <f>Indicator!$C$8</f>
         <v>3633.48</v>
       </c>
-      <c r="C2" s="89">
-        <f>Indicator!$C$8</f>
+      <c r="C1" s="87">
+        <f>Indicator!$C$9</f>
         <v>3586.47</v>
       </c>
-      <c r="D2" s="89">
-        <f>Indicator!$C$13</f>
-        <v>3626.9304738530573</v>
-      </c>
-      <c r="E2" s="90">
-        <f>Indicator!$C$9</f>
+      <c r="D1" s="87">
+        <f>Indicator!$C$14</f>
+        <v>3627.2136837394251</v>
+      </c>
+      <c r="E1" s="88">
+        <f>Indicator!$C$10</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F2" s="72">
-        <f>IF(ABS(D2-C2)&gt;=SQRT((7/24)/252)*E2*B2,       1, 0)</f>
+      <c r="F1" s="71">
+        <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="91">
-        <f>SUMIF(Trades!A:A,Tracker!A2,Trades!H:H)</f>
-        <v>18.23</v>
-      </c>
-      <c r="H2" s="92">
-        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A2,  Trades!C:C, "STO")</f>
-        <v>18.23</v>
-      </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="G1" s="89">
+        <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="90">
+        <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="95">
+        <v>44799</v>
+      </c>
+      <c r="B4" s="98">
+        <v>4198.74</v>
+      </c>
+      <c r="C4" s="98">
+        <v>4057.66</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="95">
+        <v>44802</v>
+      </c>
+      <c r="B5" s="98">
+        <v>4034.58</v>
+      </c>
+      <c r="C5" s="98">
+        <v>4030.61</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>44803</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B6" s="21">
         <v>4041.25</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C6" s="21">
         <v>3986.16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>44804</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B7" s="21">
         <v>4000.67</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C7" s="21">
         <v>3955</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>44805</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B8" s="21">
         <v>3936.73</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C8" s="21">
         <v>3966.85</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>44806</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B9" s="21">
         <v>3994.66</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C9" s="21">
         <v>3924.26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>44810</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B10" s="21">
         <v>3930.89</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C10" s="21">
         <v>3908.19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>44811</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B11" s="21">
         <v>3909.43</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C11" s="21">
         <v>3979.87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>44812</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B12" s="21">
         <v>3959.94</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C12" s="21">
         <v>4006.18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>44813</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B13" s="21">
         <v>4022.94</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="21">
         <v>4067.36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>44816</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B14" s="21">
         <v>4083.67</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C14" s="21">
         <v>4110.41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
         <v>44817</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B15" s="21">
         <v>4037.12</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C15" s="21">
         <v>3932.69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>44818</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B16" s="21">
         <v>3940.73</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C16" s="21">
         <v>3946.01</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
         <v>44819</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B17" s="21">
         <v>3932.41</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C17" s="21">
         <v>3901.35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
         <v>44820</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B18" s="21">
         <v>3880.95</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C18" s="21">
         <v>3873.33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
         <v>44823</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B19" s="21">
         <v>3849.91</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="21">
         <v>3899.89</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
         <v>44824</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B20" s="21">
         <v>3876.23</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C20" s="21">
         <v>3856.04</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D20" s="21">
         <v>3876.6161446932838</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="20">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F19" s="72">
-        <f>IF(ABS(D19-C19)&gt;=SQRT((7/24)/252)*E19*B19,       1, 0)</f>
+      <c r="F20" s="71">
+        <f>IF(ABS(D20-C20)&gt;=0.975*SQRT((11/24)/252)*E20*B20,       1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="13">
         <v>7.2899999999999991</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H20" s="31">
         <v>7.2899999999999991</v>
       </c>
-      <c r="I19" s="17">
-        <f t="shared" ref="I19:I24" si="0">G19/H19</f>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20:I25" si="0">G20/H20</f>
         <v>1</v>
       </c>
-      <c r="J19" s="36">
-        <f>G19*100</f>
+      <c r="J20" s="35">
+        <f>G20*100</f>
         <v>728.99999999999989</v>
       </c>
-      <c r="K19" s="69">
-        <f>H19*100</f>
+      <c r="K20" s="68">
+        <f>H20*100</f>
         <v>728.99999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
         <v>44825</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B21" s="21">
         <v>3871.4</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C21" s="21">
         <v>3789.93</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D21" s="21">
         <v>3866.8762955705743</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="20">
         <v>0.249</v>
       </c>
-      <c r="F20" s="72">
-        <f t="shared" ref="F20:F26" si="1">IF(ABS(D20-C20)&gt;=SQRT((7/24)/252)*E20*B20,       1, 0)</f>
+      <c r="F21" s="71">
+        <f t="shared" ref="F21:F28" si="1">IF(ABS(D21-C21)&gt;=0.975*SQRT((11/24)/252)*E21*B21,       1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="13">
         <v>3.84</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H21" s="31">
         <v>5.17</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="16">
         <f t="shared" si="0"/>
         <v>0.74274661508704065</v>
       </c>
-      <c r="J20" s="36">
-        <f t="shared" ref="J20:J25" si="2">J19+G20*100</f>
+      <c r="J21" s="35">
+        <f t="shared" ref="J21:J26" si="2">J20+G21*100</f>
         <v>1113</v>
       </c>
-      <c r="K20" s="69">
-        <f t="shared" ref="K20:K25" si="3">H20*100+K19</f>
+      <c r="K21" s="68">
+        <f t="shared" ref="K21:K26" si="3">H21*100+K20</f>
         <v>1246</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="L21" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
         <v>44826</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B22" s="21">
         <v>3782.36</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C22" s="21">
         <v>3757.99</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D22" s="21">
         <v>3764.3371002659705</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="20">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F22" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="13">
         <v>9.7100000000000009</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H22" s="31">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J22" s="35">
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K22" s="68">
         <f t="shared" si="3"/>
         <v>2217</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
         <v>44827</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B23" s="21">
         <v>3727.14</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C23" s="21">
         <v>3693.49</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D23" s="21">
         <v>3714.2677975626962</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E23" s="20">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F23" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="13">
         <v>-19.870000000000005</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H23" s="31">
         <v>12.66</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="16">
         <f t="shared" si="0"/>
         <v>-1.5695102685624016</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J23" s="35">
         <f t="shared" si="2"/>
         <v>96.999999999999545</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K23" s="68">
         <f t="shared" si="3"/>
         <v>3483</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="L23" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
         <v>44830</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B24" s="21">
         <v>3682.72</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C24" s="21">
         <v>3655.52</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="21">
         <v>3676.2315448980103</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E24" s="20">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F24" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="13">
         <v>13.28</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H24" s="31">
         <v>13.28</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J24" s="35">
         <f t="shared" si="2"/>
         <v>1424.9999999999995</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K24" s="68">
         <f t="shared" si="3"/>
         <v>4811</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
         <v>44831</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B25" s="21">
         <v>3686.44</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C25" s="21">
         <v>3647.29</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D25" s="21">
         <v>3682.1677437929629</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="20">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F25" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>-5.58</v>
+      </c>
+      <c r="H25" s="31">
+        <v>22.619999999999997</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.24668435013262602</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="2"/>
+        <v>866.99999999999955</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="3"/>
+        <v>7073</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>44832</v>
+      </c>
+      <c r="B26" s="21">
+        <v>3651.94</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3719.04</v>
+      </c>
+      <c r="D26" s="21">
+        <v>3641.0415148431239</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F26" s="71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G24" s="14">
-        <v>-5.58</v>
-      </c>
-      <c r="H24" s="32">
-        <v>22.619999999999997</v>
-      </c>
-      <c r="I24" s="17">
-        <f t="shared" si="0"/>
-        <v>-0.24668435013262602</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="G26" s="13">
+        <v>-4.8100000000000005</v>
+      </c>
+      <c r="H26" s="31">
+        <v>21.65</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" ref="I26" si="4">G26/H26</f>
+        <v>-0.22217090069284068</v>
+      </c>
+      <c r="J26" s="35">
         <f t="shared" si="2"/>
-        <v>866.99999999999955</v>
-      </c>
-      <c r="K24" s="69">
+        <v>385.99999999999949</v>
+      </c>
+      <c r="K26" s="68">
         <f t="shared" si="3"/>
-        <v>7073</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>44832</v>
-      </c>
-      <c r="B25" s="22">
-        <v>3651.94</v>
-      </c>
-      <c r="C25" s="22">
-        <v>3719.04</v>
-      </c>
-      <c r="D25" s="22">
-        <v>3641.0415148431239</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F25" s="72">
+        <v>9238</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>44833</v>
+      </c>
+      <c r="B27" s="21">
+        <v>3687.01</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3640.71</v>
+      </c>
+      <c r="D27" s="21">
+        <v>3686.7087244033005</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F27" s="71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G25" s="14">
-        <v>-4.8100000000000005</v>
-      </c>
-      <c r="H25" s="32">
-        <v>21.65</v>
-      </c>
-      <c r="I25" s="17">
-        <f t="shared" ref="I25" si="4">G25/H25</f>
-        <v>-0.22217090069284068</v>
-      </c>
-      <c r="J25" s="36">
-        <f t="shared" si="2"/>
-        <v>385.99999999999949</v>
-      </c>
-      <c r="K25" s="69">
-        <f t="shared" si="3"/>
-        <v>9238</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>44833</v>
-      </c>
-      <c r="B26" s="22">
-        <v>3687.01</v>
-      </c>
-      <c r="C26" s="22">
-        <v>3640.71</v>
-      </c>
-      <c r="D26" s="22">
-        <v>3686.7087244033005</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="G27" s="13">
+        <v>10.42</v>
+      </c>
+      <c r="H27" s="31">
+        <v>17.650000000000002</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" ref="I27" si="5">G27/H27</f>
+        <v>0.59036827195467412</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" ref="J27" si="6">J26+G27*100</f>
+        <v>1427.9999999999995</v>
+      </c>
+      <c r="K27" s="68">
+        <f t="shared" ref="K27" si="7">H27*100+K26</f>
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>44834</v>
+      </c>
+      <c r="B28" s="21">
+        <v>3633.48</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3586.47</v>
+      </c>
+      <c r="D28" s="21">
+        <v>3627.2519879970482</v>
+      </c>
+      <c r="E28" s="20">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F28" s="71">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>18.23</v>
+      </c>
+      <c r="H28" s="31">
+        <v>18.23</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" ref="I28" si="8">G28/H28</f>
         <v>1</v>
       </c>
-      <c r="G26" s="14">
-        <v>10.42</v>
-      </c>
-      <c r="H26" s="32">
-        <v>17.650000000000002</v>
-      </c>
-      <c r="I26" s="17">
-        <f t="shared" ref="I26" si="5">G26/H26</f>
-        <v>0.59036827195467412</v>
-      </c>
-      <c r="J26" s="36">
-        <f t="shared" ref="J26" si="6">J25+G26*100</f>
-        <v>1427.9999999999995</v>
-      </c>
-      <c r="K26" s="69">
-        <f t="shared" ref="K26" si="7">H26*100+K25</f>
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>44834</v>
-      </c>
-      <c r="B27" s="22">
-        <v>3633.48</v>
-      </c>
-      <c r="C27" s="22">
-        <v>3586.47</v>
-      </c>
-      <c r="D27" s="22">
-        <v>3627.2519879970482</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F27" s="72">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14">
-        <v>18.23</v>
-      </c>
-      <c r="H27" s="32">
-        <v>18.23</v>
-      </c>
-      <c r="I27" s="17">
-        <f t="shared" ref="I27" si="8">G27/H27</f>
-        <v>1</v>
-      </c>
-      <c r="J27" s="36">
-        <f t="shared" ref="J27" si="9">J26+G27*100</f>
+      <c r="J28" s="35">
+        <f t="shared" ref="J28" si="9">J27+G28*100</f>
         <v>3250.9999999999995</v>
       </c>
-      <c r="K27" s="69">
-        <f t="shared" ref="K27" si="10">H27*100+K26</f>
+      <c r="K28" s="68">
+        <f t="shared" ref="K28" si="10">H28*100+K27</f>
         <v>12826</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C18">
-    <sortCondition ref="A5:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C19">
+    <sortCondition ref="A6:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F19:F26" unlockedFormula="1"/>
+    <ignoredError sqref="F1" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
-  <dimension ref="A1:M33"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="AJ35" sqref="AJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="L1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>44824</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>949</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="65">
+      <c r="C2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f t="shared" ref="H2:H9" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>3</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="42">
         <f t="shared" ref="J2:J4" si="1">-I2*G2</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>44824</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>950</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="65">
+      <c r="C3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="64">
         <v>0.09</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>3.02</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>3</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f t="shared" si="1"/>
         <v>-9.06</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>44825</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>944</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>5.17</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f t="shared" si="0"/>
         <v>5.17</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>2.5</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f t="shared" si="1"/>
         <v>-12.925000000000001</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>0.75</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="42">
         <f>-G4+K4*G4</f>
         <v>-1.2925</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>44825</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>243</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="C5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>-1.33</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>-1.33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>44826</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>937</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="65">
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="64">
         <v>-0.16</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>4.97</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>4.97</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>3</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <f t="shared" ref="J6:J9" si="2">-I6*G6</f>
         <v>-14.91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>44826</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>946</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="65">
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="64">
         <v>0.13</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>2.37</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>3</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <f t="shared" si="2"/>
         <v>-7.11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>44827</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>936</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="65">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="64">
         <v>-0.3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>6.47</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>6.47</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <f t="shared" si="2"/>
         <v>-19.41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>44827</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>949</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="65">
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="64">
         <v>-0.19</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>3.97</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>3.97</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>3</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <f t="shared" si="2"/>
         <v>-11.91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>44827</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>240</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="C10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>-12.43</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f t="shared" ref="H10:H18" si="3">G10*F10</f>
         <v>-12.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="M10">
+        <v>3654</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>44827</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>255</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="C11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>-20.100000000000001</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f t="shared" si="3"/>
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>44827</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>311</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="65">
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="64">
         <v>-0.19</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <f t="shared" si="3"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <f>-I12*G12</f>
         <v>-6.66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>44830</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>942</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="65">
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <f t="shared" si="3"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>3</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <f>-I13*G13</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>44830</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>942</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="65">
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="64">
         <v>0.15</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>3.27</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <f t="shared" si="3"/>
         <v>3.27</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <v>3</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <f t="shared" ref="J14:J15" si="4">-I14*G14</f>
         <v>-9.81</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
         <v>44830</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>1015</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="65">
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="64">
         <v>0.11</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>1</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>1.47</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <v>3</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <f t="shared" si="4"/>
         <v>-4.41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>44831</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>950</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="65">
+      <c r="C16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="64">
         <v>-0.16</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>2</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>3.37</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <f t="shared" si="3"/>
         <v>6.74</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>3</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <f t="shared" ref="J16:J18" si="5">-I16*G16</f>
         <v>-10.11</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>44831</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>940</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="64">
         <v>0.17</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>1</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>3.87</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <f t="shared" si="3"/>
         <v>3.87</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>3</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <f t="shared" si="5"/>
         <v>-11.61</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>44831</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>1006</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="65">
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="64">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>1</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>2.97</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>3</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <f t="shared" si="5"/>
         <v>-8.91</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>44831</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>1218</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="C19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="18">
         <v>2</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>-14.1</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <f t="shared" ref="H19:H30" si="6">G19*F19</f>
         <v>-28.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="M19">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>44831</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>1224</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="65">
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="64">
         <v>0.15</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>2</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <f t="shared" si="6"/>
         <v>9.0399999999999991</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <v>3</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <f t="shared" ref="J20" si="7">-I20*G20</f>
         <v>-13.559999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>44832</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>934</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="65">
+      <c r="C21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="64">
         <v>0.15</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>2</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <f t="shared" si="6"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>3</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <f t="shared" ref="J21:J23" si="8">-I21*G21</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <v>44832</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>938</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="65">
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>1</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>5.27</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <f t="shared" si="6"/>
         <v>5.27</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>3</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <f t="shared" si="8"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>44832</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>940</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="65">
+      <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="64">
         <v>-0.09</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>1</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>3.87</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <v>3</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <f t="shared" si="8"/>
         <v>-11.61</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>44832</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>1212</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="C24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="18">
         <v>2</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>-13.23</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="28">
         <f t="shared" si="6"/>
         <v>-26.46</v>
       </c>
       <c r="M24">
         <v>3702</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="N24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>44832</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>1318</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="65">
+      <c r="C25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="64">
         <v>0.3</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>1</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>3.97</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <f t="shared" si="6"/>
         <v>3.97</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>3</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="42">
         <f t="shared" ref="J25" si="9">-I25*G25</f>
         <v>-11.91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>44833</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>933</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="65">
+      <c r="C26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>2</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <f t="shared" si="6"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <v>3</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="42">
         <f t="shared" ref="J26:J28" si="10">-I26*G26</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>44833</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>943</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="65">
+      <c r="C27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="64">
         <v>0.15</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>1</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>3.87</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <v>3</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="42">
         <f t="shared" si="10"/>
         <v>-11.61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>44833</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>944</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="65">
+      <c r="C28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="64">
         <v>0.09</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>1</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <f t="shared" si="6"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="29">
         <v>3</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="42">
         <f t="shared" si="10"/>
         <v>-7.41</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <v>44833</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>1016</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="C29" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="18">
         <v>1</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>-7.23</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <f t="shared" si="6"/>
         <v>-7.23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>44833</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>1035</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="65">
+      <c r="C30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="64">
         <v>0.15</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>1</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2.77</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <f t="shared" si="6"/>
         <v>2.77</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <v>3</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f t="shared" ref="J30" si="11">-I30*G30</f>
         <v>-8.31</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>44834</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>937</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="65">
+      <c r="C31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>4.87</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <f>G31*F31</f>
         <v>9.74</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>3</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="42">
         <f>-I31*G31</f>
         <v>-14.61</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>44834</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>942</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="65">
+      <c r="C32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="64">
         <v>0.15</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>1</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <v>5.32</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <f>G32*F32</f>
         <v>5.32</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <v>3</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="42">
         <f>-I32*G32</f>
         <v>-15.96</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>44834</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>943</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="65">
+      <c r="C33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="64">
         <v>0.09</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>1</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <v>3.17</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <f>G33*F33</f>
         <v>3.17</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>3</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="42">
         <f>-I33*G33</f>
         <v>-9.51</v>
       </c>
@@ -7440,6 +7526,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7449,449 +7536,449 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>21</v>
+      <c r="L1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>44830</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>942</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="65">
+      <c r="C2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f t="shared" ref="H2:H13" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>3</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="42">
         <f t="shared" ref="J2:J3" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="42">
         <f>SUM(H:H)</f>
         <v>18.54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>44830</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>942</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="65">
+      <c r="C3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="64">
         <v>0.15</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>3.27</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f t="shared" si="0"/>
         <v>3.27</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>3</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f t="shared" si="1"/>
         <v>-9.81</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44831</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>950</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="64">
         <v>-0.16</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>3.37</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f t="shared" si="0"/>
         <v>3.37</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>3</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f t="shared" ref="J4:J5" si="2">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>44831</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>940</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="65">
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="64">
         <v>0.17</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>3.42</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>3</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f t="shared" si="2"/>
         <v>-10.26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>44831</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>1218</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>-10.43</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>-10.43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>44832</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>934</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="65">
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="64">
         <v>0.15</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>3</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <f t="shared" ref="J7:J8" si="3">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>44832</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>938</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="65">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>5.27</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>5.27</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <f t="shared" si="3"/>
         <v>-15.809999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>44832</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>1212</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>-13.23</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>-13.23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>44833</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>933</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="65">
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>3</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <f t="shared" ref="J10:J11" si="4">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>44833</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>943</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="65">
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="64">
         <v>0.15</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>3.87</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>3.87</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" si="4"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>44834</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>937</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="65">
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>4.87</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <f>-I12*G12</f>
         <v>-14.61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>44834</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>942</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="65">
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="64">
         <v>0.15</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>5.32</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <f t="shared" si="0"/>
         <v>5.32</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>3</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <f>-I13*G13</f>
         <v>-15.96</v>
       </c>
@@ -7903,6 +7990,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7912,446 +8000,446 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>21</v>
+      <c r="L1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>44830</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>942</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="65">
+      <c r="C2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f t="shared" ref="H2:H11" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>3</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="1">-I2*H2</f>
         <v>-12.809999999999999</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="42">
         <f>SUM(H:H)</f>
         <v>16.659999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>44830</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>1015</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="65">
+      <c r="C3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="64">
         <v>0.11</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>1.47</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>3</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f t="shared" ref="J3" si="2">-I3*H3</f>
         <v>-4.41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44831</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>950</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="64">
         <v>-0.16</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>3.37</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f t="shared" si="0"/>
         <v>3.37</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>3</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f t="shared" ref="J4:J5" si="3">-I4*G4</f>
         <v>-10.11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>44831</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>1006</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="65">
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="64">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>3.42</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>3</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f t="shared" si="3"/>
         <v>-10.26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>44831</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>1218</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>-10.43</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>-10.43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>44832</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>934</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="65">
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="64">
         <v>0.15</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>3</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <f t="shared" ref="J7:J8" si="4">-I7*G7</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>44832</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>940</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="65">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="64">
         <v>-0.09</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>3.87</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>3.87</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <f t="shared" si="4"/>
         <v>-11.61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>44832</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>1212</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>-13.23</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>-13.23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>44833</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>933</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="65">
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>3</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <f t="shared" ref="J10:J11" si="5">-I10*G10</f>
         <v>-12.809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>44833</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>944</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="65">
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="64">
         <v>0.09</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" si="5"/>
         <v>-7.41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>44834</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>937</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="65">
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="64">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>4.87</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>9.74</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>-14.61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>44834</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>943</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="65">
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="64">
         <v>0.09</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>3.17</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>3.17</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>3</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>-9.51</v>
       </c>
     </row>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08820AE8-2375-4D87-BAFE-ABDA355D0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502E2E9-D8D3-4AB3-B2C1-6E1B42455760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3120" windowWidth="42720" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="16920" yWindow="5085" windowWidth="16500" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>Updated</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>25D slope</t>
+  </si>
+  <si>
+    <t>Oct03 3665/3690 Bear Call @ -3.2</t>
+  </si>
+  <si>
+    <t>Oct03 3570/3545 Bull Put @ -3.5</t>
+  </si>
+  <si>
+    <t>Oct03 3560/3535 Bull Put @ -2.8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +445,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -769,6 +790,20 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5111,7 +5146,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,10 +5167,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="C2" s="67">
-        <v>2230</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5196,31 +5231,29 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3633.48</v>
+        <v>3623.28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3675</v>
+        <v>3665</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
         <v>100</v>
       </c>
       <c r="I8" s="72">
-        <f>MIN(I10:I11)</f>
-        <v>3583.5156059277028</v>
+        <f>MROUND(MIN(I10:I11),5)</f>
+        <v>3575</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3586.47</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5232,14 +5265,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.28199999999999997</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3677.1780778117222</v>
+        <v>3665.1556574907941</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5247,7 +5280,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3589.7819221882778</v>
+        <v>3581.4043425092063</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5256,7 +5289,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3670.9117615511473</v>
+        <v>3658.9274212302412</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5264,7 +5297,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3583.5156059277028</v>
+        <v>3575.1761062486535</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5279,7 +5312,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>43.698077811722364</v>
+        <v>41.87565749079382</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5321,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3627.2136837394251</v>
+        <v>3617.0517637394473</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5304,7 +5337,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>63.711237445129946</v>
+        <v>61.226047332022048</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -5313,7 +5346,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3650.1812374451297</v>
+        <v>3647.6960473320219</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5322,7 +5355,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3522.7587625548699</v>
+        <v>3525.2439526679777</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -5346,7 +5379,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3628.8659361311238</v>
+        <v>3618.665936131124</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5361,7 +5394,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(B32+F23, C6:C8, B30:B32)</f>
-        <v>3617.0641333332751</v>
+        <v>3607.1361333334353</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5423,21 +5456,21 @@
       <c r="C29" s="83"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="95">
+      <c r="B30" s="99">
         <f>B31-1</f>
-        <v>44834</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="95">
+      <c r="B31" s="99">
         <f>B32-1</f>
-        <v>44835</v>
+        <v>44836</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="95">
+      <c r="B32" s="99">
         <f>B2</f>
-        <v>44836</v>
+        <v>44837</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5590,7 @@
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
-        <v>1046.1666666666665</v>
+        <v>1046.1666666666667</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>56</v>
@@ -5649,7 +5682,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>36.031993001766836</v>
+        <v>27.61118630328712</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5677,7 +5710,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>1.7710193672535528</v>
+        <v>1.5764543362805314</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5722,7 +5755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5743,23 +5776,23 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3633.48</v>
+        <v>3623.28</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3586.47</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3627.2136837394251</v>
+        <v>3617.0517637394473</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.28199999999999997</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
@@ -5767,28 +5800,28 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
       <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+    <row r="2" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -6400,11 +6433,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ35" sqref="AJ35"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7518,6 +7551,108 @@
         <v>-9.51</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B34" s="26">
+        <v>932</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F34" s="18">
+        <v>2</v>
+      </c>
+      <c r="G34" s="27">
+        <v>3.17</v>
+      </c>
+      <c r="H34" s="28">
+        <f>G34*F34</f>
+        <v>6.34</v>
+      </c>
+      <c r="I34" s="29">
+        <v>3</v>
+      </c>
+      <c r="J34" s="42">
+        <f t="shared" ref="J34:J36" si="12">-I34*G34</f>
+        <v>-9.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B35" s="26">
+        <v>937</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="64">
+        <v>-0.15</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="27">
+        <v>3.47</v>
+      </c>
+      <c r="H35" s="28">
+        <f>G35*F35</f>
+        <v>3.47</v>
+      </c>
+      <c r="I35" s="29">
+        <v>3</v>
+      </c>
+      <c r="J35" s="42">
+        <f t="shared" si="12"/>
+        <v>-10.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B36" s="26">
+        <v>937</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="64">
+        <v>-0.1</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="27">
+        <v>2.77</v>
+      </c>
+      <c r="H36" s="28">
+        <f>G36*F36</f>
+        <v>2.77</v>
+      </c>
+      <c r="I36" s="29">
+        <v>3</v>
+      </c>
+      <c r="J36" s="42">
+        <f t="shared" si="12"/>
+        <v>-8.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7527,11 +7662,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,7 +7761,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>18.54</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7981,6 +8116,74 @@
       <c r="J13" s="42">
         <f>-I13*G13</f>
         <v>-15.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B14" s="26">
+        <v>932</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3.17</v>
+      </c>
+      <c r="H14" s="28">
+        <f>G14*F14</f>
+        <v>3.17</v>
+      </c>
+      <c r="I14" s="29">
+        <v>3</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" ref="J14:J15" si="5">-I14*G14</f>
+        <v>-9.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B15" s="26">
+        <v>937</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="64">
+        <v>-0.15</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <v>3.47</v>
+      </c>
+      <c r="H15" s="28">
+        <f>G15*F15</f>
+        <v>3.47</v>
+      </c>
+      <c r="I15" s="29">
+        <v>3</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="5"/>
+        <v>-10.41</v>
       </c>
     </row>
   </sheetData>
@@ -7991,11 +8194,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,7 +8281,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H11" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H15" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -8090,7 +8293,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>16.659999999999997</v>
+        <v>17.729999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8402,7 +8605,8 @@
         <v>4.87</v>
       </c>
       <c r="H12" s="28">
-        <v>9.74</v>
+        <f t="shared" si="0"/>
+        <v>4.87</v>
       </c>
       <c r="I12" s="29">
         <v>3</v>
@@ -8434,6 +8638,7 @@
         <v>3.17</v>
       </c>
       <c r="H13" s="28">
+        <f t="shared" si="0"/>
         <v>3.17</v>
       </c>
       <c r="I13" s="29">
@@ -8441,6 +8646,72 @@
       </c>
       <c r="J13" s="42">
         <v>-9.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B14" s="26">
+        <v>932</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3.17</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="0"/>
+        <v>3.17</v>
+      </c>
+      <c r="I14" s="29">
+        <v>3</v>
+      </c>
+      <c r="J14" s="42">
+        <v>-9.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B15" s="26">
+        <v>937</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="64">
+        <v>-0.1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <v>2.77</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="0"/>
+        <v>2.77</v>
+      </c>
+      <c r="I15" s="29">
+        <v>3</v>
+      </c>
+      <c r="J15" s="42">
+        <v>-8.31</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502E2E9-D8D3-4AB3-B2C1-6E1B42455760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33E80C-112F-4840-AEF1-DE6DB1F96487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="5085" windowWidth="16500" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="30960" yWindow="4650" windowWidth="20505" windowHeight="14460" activeTab="3" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
   <si>
     <t>Updated</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t>Oct03 3560/3535 Bull Put @ -2.8</t>
+  </si>
+  <si>
+    <t>Oct03 3680/3705 Bear Call @ -5.1</t>
+  </si>
+  <si>
+    <t>Oct03 3665/3690 Bear Call @ -9.85</t>
+  </si>
+  <si>
+    <t>isMonday</t>
+  </si>
+  <si>
+    <t>Managed day</t>
+  </si>
+  <si>
+    <t>Oct03 3680/3705 Bear Call @ -15.30</t>
   </si>
 </sst>
 </file>
@@ -790,7 +805,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -804,6 +818,7 @@
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,6 +950,9 @@
                 <c:pt idx="8">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -970,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3250.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480.99999999999909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,6 +1087,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1107,6 +1131,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>18.23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-27.700000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1191,6 +1218,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1232,6 +1262,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>18.23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1316,6 +1349,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1357,6 +1393,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1.2191901408450707</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1656,6 +1695,9 @@
                 <c:pt idx="8">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44837</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1692,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.72</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1787,6 +1832,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1828,6 +1876,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1.2191901408450707</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1909,6 +1960,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1950,6 +2004,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>3250.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>480.99999999999909</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2017,6 +2074,9 @@
                 <c:pt idx="8">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44837</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2053,6 +2113,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2444,6 +2507,9 @@
                 <c:pt idx="8">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44837</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2480,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2191901408450707</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2561,6 +2630,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2602,6 +2674,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>18.23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2683,6 +2758,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2724,6 +2802,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>3250.9999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>480.99999999999909</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2812,6 +2893,9 @@
                       <c:pt idx="8">
                         <c:v>44834</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44837</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2853,6 +2937,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>18.23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-27.700000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5143,10 +5230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E485C-BC7E-40C9-B7A6-38794294458B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,7 +5257,7 @@
         <v>44837</v>
       </c>
       <c r="C2" s="67">
-        <v>950</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5196,7 +5283,7 @@
       </c>
       <c r="F5" s="80">
         <f>SUM(F26:F28)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5292,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3687.01</v>
+        <v>3633.48</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5214,7 +5301,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3633.48</v>
+        <v>3609.78</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5231,14 +5318,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3623.28</v>
+        <v>3609.78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3665</v>
+        <v>3650</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5246,14 +5333,16 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3575</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3678.43</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5272,7 +5361,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3665.1556574907941</v>
+        <v>3651.4996327352892</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5280,7 +5369,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3581.4043425092063</v>
+        <v>3568.0603672647112</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5289,7 +5378,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3658.9274212302412</v>
+        <v>3646.4908890496267</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5297,7 +5386,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3575.1761062486535</v>
+        <v>3563.0516235790487</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5312,7 +5401,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>41.87565749079382</v>
+        <v>41.719632735288947</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5410,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3617.0517637394473</v>
+        <v>3604.7712563143377</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5331,40 +5420,40 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>61.226047332022048</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>62.79593284971849</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3647.6960473320219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3741.2259328497184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3525.2439526679777</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3615.6340671502812</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="83" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-11.83093299711815</v>
+        <v>-11.899891728272893</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5372,14 +5461,17 @@
       <c r="F22" s="85">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3618.665936131124</v>
+        <v>3605.1390422259738</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5387,14 +5479,17 @@
       <c r="F23" s="85">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="85">
-        <f>_xlfn.FORECAST.LINEAR(B32+F23, C6:C8, B30:B32)</f>
-        <v>3607.1361333334353</v>
+        <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
+        <v>3602.5120000000006</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5402,24 +5497,27 @@
       <c r="F24" s="85">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="83" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-2,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="83">
         <f>IF(C26&gt;=3, 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="83" t="s">
         <v>107</v>
       </c>
@@ -5435,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="83" t="s">
         <v>109</v>
       </c>
@@ -5451,26 +5549,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="83"/>
       <c r="C29" s="83"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="99">
-        <f>B31-1</f>
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="99">
-        <f>B32-1</f>
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="99">
-        <f>B2</f>
-        <v>44837</v>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="83" t="b">
+        <f>WEEKDAY(B2)=2</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +5574,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,14 +5637,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>361.22222222222217</v>
+        <v>48.099999999999909</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -5586,11 +5675,11 @@
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
-        <v>1046.1666666666667</v>
+        <v>1046.1666666666665</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>56</v>
@@ -5616,15 +5705,15 @@
       </c>
       <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
-        <v>-1008.6666666666667</v>
+        <v>-1449.0000000000002</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>57</v>
@@ -5649,14 +5738,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>3250.9999999999995</v>
+        <v>480.99999999999909</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>0.13727928586057134</v>
+        <v>2.0311084742828268E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -5675,14 +5764,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>12826</v>
+        <v>15098</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>27.61118630328712</v>
+        <v>0.68916270702599203</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5703,14 +5792,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>0.2534695150475596</v>
+        <v>3.1858524307855282E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>1.5764543362805314</v>
+        <v>0.15943664279977643</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5751,11 +5840,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,15 +5869,15 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3623.28</v>
+        <v>3609.78</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3678.43</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3617.0517637394473</v>
+        <v>3604.7712563143377</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -5800,28 +5889,28 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>12.58</v>
+        <v>-27.700000000000003</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>12.58</v>
+        <v>22.72</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
       <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+    <row r="2" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -6418,26 +6507,64 @@
         <v>12826</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>44837</v>
+      </c>
+      <c r="B29" s="21">
+        <v>3609.78</v>
+      </c>
+      <c r="C29" s="21">
+        <v>3678.43</v>
+      </c>
+      <c r="D29" s="21">
+        <v>3603.6021637394333</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F29" s="71">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>-27.700000000000003</v>
+      </c>
+      <c r="H29" s="31">
+        <v>22.72</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="11">G29/H29</f>
+        <v>-1.2191901408450707</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" ref="J29" si="12">J28+G29*100</f>
+        <v>480.99999999999909</v>
+      </c>
+      <c r="K29" s="68">
+        <f t="shared" ref="K29" si="13">H29*100+K28</f>
+        <v>15098</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C19">
     <sortCondition ref="A6:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F1" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7472,7 +7599,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f>G31*F31</f>
+        <f t="shared" ref="H31:H39" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -7506,7 +7633,7 @@
         <v>5.32</v>
       </c>
       <c r="H32" s="28">
-        <f>G32*F32</f>
+        <f t="shared" si="12"/>
         <v>5.32</v>
       </c>
       <c r="I32" s="29">
@@ -7517,7 +7644,7 @@
         <v>-15.96</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>44834</v>
       </c>
@@ -7540,7 +7667,7 @@
         <v>3.17</v>
       </c>
       <c r="H33" s="28">
-        <f>G33*F33</f>
+        <f t="shared" si="12"/>
         <v>3.17</v>
       </c>
       <c r="I33" s="29">
@@ -7551,7 +7678,7 @@
         <v>-9.51</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>44837</v>
       </c>
@@ -7574,18 +7701,18 @@
         <v>3.17</v>
       </c>
       <c r="H34" s="28">
-        <f>G34*F34</f>
+        <f t="shared" si="12"/>
         <v>6.34</v>
       </c>
       <c r="I34" s="29">
         <v>3</v>
       </c>
       <c r="J34" s="42">
-        <f t="shared" ref="J34:J36" si="12">-I34*G34</f>
+        <f t="shared" ref="J34:J36" si="13">-I34*G34</f>
         <v>-9.51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>44837</v>
       </c>
@@ -7608,18 +7735,18 @@
         <v>3.47</v>
       </c>
       <c r="H35" s="28">
-        <f>G35*F35</f>
+        <f t="shared" si="12"/>
         <v>3.47</v>
       </c>
       <c r="I35" s="29">
         <v>3</v>
       </c>
       <c r="J35" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-10.41</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>44837</v>
       </c>
@@ -7642,15 +7769,109 @@
         <v>2.77</v>
       </c>
       <c r="H36" s="28">
-        <f>G36*F36</f>
+        <f t="shared" si="12"/>
         <v>2.77</v>
       </c>
       <c r="I36" s="29">
         <v>3</v>
       </c>
       <c r="J36" s="42">
+        <f t="shared" si="13"/>
+        <v>-8.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1109</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0.23</v>
+      </c>
+      <c r="F37" s="18">
+        <v>2</v>
+      </c>
+      <c r="G37" s="27">
+        <v>5.07</v>
+      </c>
+      <c r="H37" s="28">
+        <f>G37*F37</f>
+        <v>10.14</v>
+      </c>
+      <c r="I37" s="29">
+        <v>3</v>
+      </c>
+      <c r="J37" s="42">
+        <f t="shared" ref="J37" si="14">-I37*G37</f>
+        <v>-15.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B38" s="26">
+        <v>1110</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
+      <c r="G38" s="27">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="H38" s="28">
         <f t="shared" si="12"/>
-        <v>-8.31</v>
+        <v>-19.760000000000002</v>
+      </c>
+      <c r="M38">
+        <v>3665</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1457</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="27">
+        <v>-15.33</v>
+      </c>
+      <c r="H39" s="28">
+        <f t="shared" si="12"/>
+        <v>-30.66</v>
+      </c>
+      <c r="M39">
+        <v>3696</v>
+      </c>
+      <c r="N39">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7662,11 +7883,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7761,7 +7982,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>25.18</v>
+        <v>15.299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8184,6 +8405,30 @@
       <c r="J15" s="42">
         <f t="shared" si="5"/>
         <v>-10.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1110</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" ref="H16" si="6">G16*F16</f>
+        <v>-9.8800000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -8194,11 +8439,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8281,7 +8526,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H15" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H16" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -8293,7 +8538,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>17.729999999999997</v>
+        <v>7.8499999999999961</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8712,6 +8957,30 @@
       </c>
       <c r="J15" s="42">
         <v>-8.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>44837</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1110</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="0"/>
+        <v>-9.8800000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33E80C-112F-4840-AEF1-DE6DB1F96487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A1C34-6B88-4AA8-8DA1-6326EF9D38FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="4650" windowWidth="20505" windowHeight="14460" activeTab="3" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="19245" yWindow="3240" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
   <si>
     <t>Updated</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>Oct03 3680/3705 Bear Call @ -15.30</t>
+  </si>
+  <si>
+    <t>Oct03 3790/3815 Bear Call @ -2.7</t>
+  </si>
+  <si>
+    <t>Oct03 3790/3815 Bear Call @ -8.7</t>
   </si>
 </sst>
 </file>
@@ -5232,8 +5238,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5254,10 +5260,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="C2" s="67">
-        <v>2332</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5318,14 +5324,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3609.78</v>
+        <v>3750</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3650</v>
+        <v>3790</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5333,16 +5339,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3565</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3678.43</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5354,14 +5358,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.27100000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3651.4996327352892</v>
+        <v>3790.9413052575328</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5369,7 +5373,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3568.0603672647112</v>
+        <v>3709.0586947424672</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5378,7 +5382,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3646.4908890496267</v>
+        <v>3785.4090735718701</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5386,7 +5390,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3563.0516235790487</v>
+        <v>3703.5264630568045</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5401,7 +5405,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>41.719632735288947</v>
+        <v>40.941305257532719</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5410,7 +5414,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3604.7712563143377</v>
+        <v>3744.4677683143373</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5426,7 +5430,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>62.79593284971849</v>
+        <v>59.32014320859016</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5435,7 +5439,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3741.2259328497184</v>
+        <v>3737.7501432085901</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5444,7 +5448,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3615.6340671502812</v>
+        <v>3619.1098567914096</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5471,7 +5475,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3605.1390422259738</v>
+        <v>3745.3590422259736</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5489,7 +5493,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3602.5120000000006</v>
+        <v>3738.9928</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5559,7 +5563,7 @@
       </c>
       <c r="C30" s="83" t="b">
         <f>WEEKDAY(B2)=2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5771,7 +5775,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.68916270702599203</v>
+        <v>0.63114806638895327</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5799,7 +5803,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.15943664279977643</v>
+        <v>0.14805815249647747</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5844,7 +5848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,23 +5869,23 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3609.78</v>
+        <v>3750</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3678.43</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3604.7712563143377</v>
+        <v>3744.4677683143373</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.27100000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
@@ -5889,11 +5893,11 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>-27.700000000000003</v>
+        <v>-12.72</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>22.72</v>
+        <v>4.74</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -6560,11 +6564,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,7 +6576,7 @@
     <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="13" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="27" customWidth="1"/>
@@ -7599,7 +7603,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H39" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H41" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -7844,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>44837</v>
       </c>
@@ -7872,6 +7876,67 @@
       </c>
       <c r="N39">
         <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B40" s="26">
+        <v>937</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="27">
+        <v>2.37</v>
+      </c>
+      <c r="H40" s="28">
+        <f t="shared" si="12"/>
+        <v>4.74</v>
+      </c>
+      <c r="I40" s="29">
+        <v>3</v>
+      </c>
+      <c r="J40" s="42">
+        <f t="shared" ref="J40" si="15">-I40*G40</f>
+        <v>-7.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B41" s="26">
+        <v>1001</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="27">
+        <v>-8.73</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="12"/>
+        <v>-17.46</v>
+      </c>
+      <c r="M41">
+        <v>3784</v>
+      </c>
+      <c r="N41">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
@@ -7883,11 +7948,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15:P19"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7982,7 +8047,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>15.299999999999999</v>
+        <v>8.9399999999999977</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8427,8 +8492,63 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H18" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B17" s="26">
+        <v>937</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2.37</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="6"/>
+        <v>2.37</v>
+      </c>
+      <c r="I17" s="29">
+        <v>3</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" ref="J17" si="7">-I17*G17</f>
+        <v>-7.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>-8.73</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="6"/>
+        <v>-8.73</v>
       </c>
     </row>
   </sheetData>
@@ -8439,11 +8559,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8526,7 +8646,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H16" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H18" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -8538,7 +8658,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>7.8499999999999961</v>
+        <v>1.4899999999999949</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8981,6 +9101,61 @@
       <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>-9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B17" s="26">
+        <v>937</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2.37</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>2.37</v>
+      </c>
+      <c r="I17" s="29">
+        <v>3</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" ref="J17" si="6">-I17*G17</f>
+        <v>-7.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>44838</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>-8.73</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>-8.73</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A1C34-6B88-4AA8-8DA1-6326EF9D38FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C1C0A-D907-4BF2-956A-33BFDEE9BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19245" yWindow="3240" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
@@ -959,6 +959,9 @@
                 <c:pt idx="9">
                   <c:v>44837</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44838</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -997,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>480.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-791.00000000000091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,6 +1102,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1140,6 +1149,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>-27.700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-12.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1227,6 +1239,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1271,6 +1286,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>22.72</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1358,6 +1376,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1402,6 +1423,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>-1.2191901408450707</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-2.6835443037974684</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1704,6 +1728,9 @@
                 <c:pt idx="9">
                   <c:v>44837</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44838</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1743,6 +1770,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.74</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1841,6 +1871,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1885,6 +1918,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>-1.2191901408450707</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-2.6835443037974684</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1969,6 +2005,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2013,6 +2052,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>480.99999999999909</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-791.00000000000091</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2083,6 +2125,9 @@
                 <c:pt idx="9">
                   <c:v>44837</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44838</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2122,6 +2167,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-27.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-12.72</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2516,6 +2564,9 @@
                 <c:pt idx="9">
                   <c:v>44837</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44838</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2555,6 +2606,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-1.2191901408450707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6835443037974684</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2639,6 +2693,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2683,6 +2740,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>22.72</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2767,6 +2827,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2811,6 +2874,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>480.99999999999909</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-791.00000000000091</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2902,6 +2968,9 @@
                       <c:pt idx="9">
                         <c:v>44837</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44838</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2946,6 +3015,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>-27.700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-12.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5239,7 +5311,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,7 +5335,7 @@
         <v>44838</v>
       </c>
       <c r="C2" s="67">
-        <v>1001</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5289,7 +5361,7 @@
       </c>
       <c r="F5" s="80">
         <f>SUM(F26:F28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5298,7 +5370,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3633.48</v>
+        <v>3609.78</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5307,7 +5379,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3609.78</v>
+        <v>3726.46</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5324,14 +5396,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3750</v>
+        <v>3726.46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3790</v>
+        <v>3770</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5339,14 +5411,16 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3705</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3790.93</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5365,7 +5439,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3790.9413052575328</v>
+        <v>3767.1443030373293</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5373,7 +5447,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3709.0586947424672</v>
+        <v>3685.7756969626707</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5382,7 +5456,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3785.4090735718701</v>
+        <v>3768.4153163736773</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5390,7 +5464,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3703.5264630568045</v>
+        <v>3687.0467102990187</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5405,7 +5479,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>40.941305257532719</v>
+        <v>40.684303037329435</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5414,7 +5488,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3744.4677683143373</v>
+        <v>3727.731013336348</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5430,7 +5504,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>59.32014320859016</v>
+        <v>61.134372679034449</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5439,7 +5513,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3737.7501432085901</v>
+        <v>3852.0643726790345</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5448,7 +5522,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3619.1098567914096</v>
+        <v>3729.7956273209652</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5457,7 +5531,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-11.899891728272893</v>
+        <v>-11.146237319575679</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5475,7 +5549,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3745.3590422259736</v>
+        <v>3722.1129674453655</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5493,7 +5567,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3738.9928</v>
+        <v>3762.2418666666672</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5543,14 +5617,14 @@
       </c>
       <c r="C28" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="83">
         <f>IF(C28&gt;=2, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -5578,7 +5652,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5641,14 +5715,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>48.099999999999909</v>
+        <v>-71.909090909090992</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -5679,7 +5753,7 @@
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
@@ -5709,15 +5783,15 @@
       </c>
       <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
-        <v>-1449.0000000000002</v>
+        <v>-1413.6000000000001</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>57</v>
@@ -5742,14 +5816,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>480.99999999999909</v>
+        <v>-791.00000000000091</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>2.0311084742828268E-2</v>
+        <v>-3.3401388839037857E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -5768,14 +5842,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>15098</v>
+        <v>15572</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.63114806638895327</v>
+        <v>-0.56248790992042808</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5796,14 +5870,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>3.1858524307855282E-2</v>
+        <v>-5.079630105317242E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>0.14805815249647747</v>
+        <v>-0.20806352650821758</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5844,11 +5918,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5873,15 +5947,15 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3750</v>
+        <v>3726.46</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3790.93</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3744.4677683143373</v>
+        <v>3727.731013336348</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -6550,6 +6624,44 @@
       </c>
       <c r="L29" s="13" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>44838</v>
+      </c>
+      <c r="B30" s="21">
+        <v>3726.46</v>
+      </c>
+      <c r="C30" s="21">
+        <v>3790.93</v>
+      </c>
+      <c r="D30" s="21">
+        <v>3721.015650981004</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F30" s="71">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>-12.72</v>
+      </c>
+      <c r="H30" s="31">
+        <v>4.74</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" ref="I30" si="14">G30/H30</f>
+        <v>-2.6835443037974684</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" ref="J30" si="15">J29+G30*100</f>
+        <v>-791.00000000000091</v>
+      </c>
+      <c r="K30" s="68">
+        <f t="shared" ref="K30" si="16">H30*100+K29</f>
+        <v>15572</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C1C0A-D907-4BF2-956A-33BFDEE9BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778602DC-2DBA-46EB-AF9A-CFF2CB2731F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="3240" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="24030" yWindow="5070" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
   <si>
     <t>Updated</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>Oct03 3790/3815 Bear Call @ -8.7</t>
+  </si>
+  <si>
+    <t>Oct05 3715/3690 Bull Put @ -3</t>
+  </si>
+  <si>
+    <t>Oct05 3790/3815 Bear Call @ -3.1</t>
+  </si>
+  <si>
+    <t>Oct05 3790/3815 Bear Call @ -9.55</t>
   </si>
 </sst>
 </file>
@@ -5311,7 +5320,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,10 +5341,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="C2" s="67">
-        <v>1745</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5396,14 +5405,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3726.46</v>
+        <v>3752</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3770</v>
+        <v>3795</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5411,16 +5420,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3685</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3790.93</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5432,14 +5439,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.25600000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3767.1443030373293</v>
+        <v>3794.2432387647223</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5447,7 +5454,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3685.7756969626707</v>
+        <v>3709.7567612352777</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5456,7 +5463,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3768.4153163736773</v>
+        <v>3795.4189027677367</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5464,7 +5471,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3687.0467102990187</v>
+        <v>3710.9324252382921</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5479,7 +5486,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>40.684303037329435</v>
+        <v>42.243238764722257</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5488,7 +5495,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3727.731013336348</v>
+        <v>3753.1756640030144</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5504,7 +5511,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>61.134372679034449</v>
+        <v>63.044821825254274</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5520,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3852.0643726790345</v>
+        <v>3853.9748218252539</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5522,7 +5529,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3729.7956273209652</v>
+        <v>3727.8851781747458</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5549,7 +5556,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3722.1129674453655</v>
+        <v>3747.6529674453654</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5567,7 +5574,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3762.2418666666672</v>
+        <v>3787.1007999999997</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5849,7 +5856,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.56248790992042808</v>
+        <v>-0.53928942606030328</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5877,7 +5884,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.20806352650821758</v>
+        <v>-0.19643280492793802</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5943,23 +5950,23 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3726.46</v>
+        <v>3752</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3790.93</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3727.731013336348</v>
+        <v>3753.1756640030144</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.25600000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
@@ -5967,11 +5974,11 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>-12.72</v>
+        <v>-7.08</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>4.74</v>
+        <v>12.08</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -6676,11 +6683,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,7 +6696,7 @@
     <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="27" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="28" customWidth="1"/>
@@ -7715,7 +7722,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H41" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H44" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -8049,6 +8056,104 @@
       </c>
       <c r="N41">
         <v>-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B42" s="26">
+        <v>935</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="64">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="27">
+        <v>2.97</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="12"/>
+        <v>5.94</v>
+      </c>
+      <c r="I42" s="29">
+        <v>3</v>
+      </c>
+      <c r="J42" s="42">
+        <f t="shared" ref="J42:J43" si="16">-I42*G42</f>
+        <v>-8.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B43" s="26">
+        <v>943</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="64">
+        <v>0.17</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" s="27">
+        <v>3.07</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="12"/>
+        <v>6.14</v>
+      </c>
+      <c r="I43" s="29">
+        <v>3</v>
+      </c>
+      <c r="J43" s="42">
+        <f t="shared" si="16"/>
+        <v>-9.2099999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B44" s="26">
+        <v>1502</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="27">
+        <v>-9.58</v>
+      </c>
+      <c r="H44" s="28">
+        <f t="shared" si="12"/>
+        <v>-19.16</v>
+      </c>
+      <c r="M44">
+        <v>3796</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8060,11 +8165,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8159,7 +8264,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>8.9399999999999977</v>
+        <v>5.3999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8604,7 +8709,7 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:H18" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H21" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
       </c>
     </row>
@@ -8661,6 +8766,98 @@
       <c r="H18" s="28">
         <f t="shared" si="6"/>
         <v>-8.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B19" s="26">
+        <v>935</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="64">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2.97</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="6"/>
+        <v>2.97</v>
+      </c>
+      <c r="I19" s="29">
+        <v>3</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" ref="J19:J20" si="8">-I19*G19</f>
+        <v>-8.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B20" s="26">
+        <v>943</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.17</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <v>3.07</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="6"/>
+        <v>3.07</v>
+      </c>
+      <c r="I20" s="29">
+        <v>3</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="8"/>
+        <v>-9.2099999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1502</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27">
+        <v>-9.58</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="6"/>
+        <v>-9.58</v>
       </c>
     </row>
   </sheetData>
@@ -8671,11 +8868,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8758,7 +8955,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H18" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H21" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -8770,7 +8967,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>1.4899999999999949</v>
+        <v>-2.0500000000000043</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9268,6 +9465,98 @@
       <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>-8.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B19" s="26">
+        <v>935</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="64">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2.97</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="0"/>
+        <v>2.97</v>
+      </c>
+      <c r="I19" s="29">
+        <v>3</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" ref="J19:J20" si="7">-I19*G19</f>
+        <v>-8.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B20" s="26">
+        <v>943</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.17</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <v>3.07</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>3.07</v>
+      </c>
+      <c r="I20" s="29">
+        <v>3</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="7"/>
+        <v>-9.2099999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>44839</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1502</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27">
+        <v>-9.58</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="0"/>
+        <v>-9.58</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778602DC-2DBA-46EB-AF9A-CFF2CB2731F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06097B04-F417-4CD0-9396-0A2F1F2C19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24030" yWindow="5070" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
@@ -971,6 +971,9 @@
                 <c:pt idx="10">
                   <c:v>44838</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44839</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1012,6 +1015,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-791.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1499.0000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,6 +1120,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1161,6 +1170,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-12.72</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-7.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1251,6 +1263,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1298,6 +1313,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>4.74</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1388,6 +1406,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1435,6 +1456,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-2.6835443037974684</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.58609271523178808</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1740,6 +1764,9 @@
                 <c:pt idx="10">
                   <c:v>44838</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44839</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1782,6 +1809,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1883,6 +1913,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1930,6 +1963,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-2.6835443037974684</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.58609271523178808</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2017,6 +2053,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2064,6 +2103,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-791.00000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1499.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2137,6 +2179,9 @@
                 <c:pt idx="10">
                   <c:v>44838</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44839</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2179,6 +2224,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-12.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.08</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2576,6 +2624,9 @@
                 <c:pt idx="10">
                   <c:v>44838</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44839</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2618,6 +2669,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-2.6835443037974684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.58609271523178808</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2705,6 +2759,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2752,6 +2809,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>4.74</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2839,6 +2899,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2886,6 +2949,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-791.00000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1499.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2980,6 +3046,9 @@
                       <c:pt idx="10">
                         <c:v>44838</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44839</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3027,6 +3096,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>-12.72</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-7.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5320,7 +5392,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,7 +5416,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="67">
-        <v>950</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5370,7 +5442,7 @@
       </c>
       <c r="F5" s="80">
         <f>SUM(F26:F28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5379,7 +5451,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3609.78</v>
+        <v>3726.46</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5388,7 +5460,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3726.46</v>
+        <v>3753.25</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5405,7 +5477,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3752</v>
+        <v>3753.25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
@@ -5427,7 +5499,9 @@
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3783.28</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5446,7 +5520,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3794.2432387647223</v>
+        <v>3795.5073123384045</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5454,7 +5528,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3709.7567612352777</v>
+        <v>3710.9926876615955</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5463,7 +5537,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3795.4189027677367</v>
+        <v>3793.0652546186966</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5471,7 +5545,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3710.9324252382921</v>
+        <v>3708.5506299418876</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5486,7 +5560,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.243238764722257</v>
+        <v>42.257312338404539</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5495,7 +5569,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3753.1756640030144</v>
+        <v>3750.8079422802921</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5585,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>63.044821825254274</v>
+        <v>62.91759898363938</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5520,7 +5594,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3853.9748218252539</v>
+        <v>3846.1975989836396</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5529,7 +5603,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3727.8851781747458</v>
+        <v>3720.3624010163608</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5538,7 +5612,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-11.146237319575679</v>
+        <v>-10.710321167883212</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5556,7 +5630,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3747.6529674453654</v>
+        <v>3749.0729747445257</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5574,7 +5648,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3787.1007999999997</v>
+        <v>3761.4655999999995</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5592,14 +5666,14 @@
       </c>
       <c r="C26" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-2,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="83">
         <f>IF(C26&gt;=3, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -5624,14 +5698,14 @@
       </c>
       <c r="C28" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="83">
         <f>IF(C28&gt;=2, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -5659,7 +5733,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,14 +5796,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>-71.909090909090992</v>
+        <v>-124.91666666666674</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -5760,7 +5834,7 @@
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.54545454545454541</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
@@ -5790,15 +5864,15 @@
       </c>
       <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
-        <v>-1413.6000000000001</v>
+        <v>-1296</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>57</v>
@@ -5823,14 +5897,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>-791.00000000000091</v>
+        <v>-1499.0000000000009</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>-3.3401388839037857E-2</v>
+        <v>-6.3297954323284097E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -5849,14 +5923,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>15572</v>
+        <v>16780</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.53928942606030328</v>
+        <v>-0.77501244063798547</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5877,14 +5951,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>-5.079630105317242E-2</v>
+        <v>-8.9332538736591235E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.19643280492793802</v>
+        <v>-0.34357599474061573</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -5925,11 +5999,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5954,15 +6028,15 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3752</v>
+        <v>3753.25</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3783.28</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3753.1756640030144</v>
+        <v>3750.8079422802921</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -5970,7 +6044,7 @@
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
@@ -6669,6 +6743,44 @@
       <c r="K30" s="68">
         <f t="shared" ref="K30" si="16">H30*100+K29</f>
         <v>15572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>44839</v>
+      </c>
+      <c r="B31" s="21">
+        <v>3753.25</v>
+      </c>
+      <c r="C31" s="21">
+        <v>3783.28</v>
+      </c>
+      <c r="D31" s="21">
+        <v>3754.4209973363477</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F31" s="71">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-7.08</v>
+      </c>
+      <c r="H31" s="31">
+        <v>12.08</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" ref="I31" si="17">G31/H31</f>
+        <v>-0.58609271523178808</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" ref="J31" si="18">J30+G31*100</f>
+        <v>-1499.0000000000009</v>
+      </c>
+      <c r="K31" s="68">
+        <f t="shared" ref="K31" si="19">H31*100+K30</f>
+        <v>16780</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06097B04-F417-4CD0-9396-0A2F1F2C19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F3C30D-17FB-4019-90F5-782CF69DA42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24030" yWindow="5070" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="1500" yWindow="4155" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
   <si>
     <t>Updated</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>Oct05 3790/3815 Bear Call @ -9.55</t>
+  </si>
+  <si>
+    <t>Oct06 3820/3845 Bear Call @-2.6</t>
+  </si>
+  <si>
+    <t>Oct06 3735/3710 Bull Put @-2.5</t>
   </si>
 </sst>
 </file>
@@ -5392,7 +5398,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5413,10 +5419,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="C2" s="67">
-        <v>1907</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5477,14 +5483,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3753.25</v>
+        <v>3777</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3795</v>
+        <v>3820</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5492,16 +5498,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3710</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3783.28</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5513,14 +5517,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.26400000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3795.5073123384045</v>
+        <v>3819.2025533426227</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5528,7 +5532,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3710.9926876615955</v>
+        <v>3734.7974466573773</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5537,7 +5541,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3793.0652546186966</v>
+        <v>3816.6718289562482</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5545,7 +5549,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3708.5506299418876</v>
+        <v>3732.2667222710029</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5560,7 +5564,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.257312338404539</v>
+        <v>42.202553342622586</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5569,7 +5573,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3750.8079422802921</v>
+        <v>3774.4692756136255</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5585,7 +5589,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>62.91759898363938</v>
+        <v>62.440950506490587</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5594,7 +5598,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3846.1975989836396</v>
+        <v>3845.7209505064907</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5603,7 +5607,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3720.3624010163608</v>
+        <v>3720.8390494935097</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5630,7 +5634,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3749.0729747445257</v>
+        <v>3772.8229747445257</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5648,7 +5652,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3761.4655999999995</v>
+        <v>3784.5822666666663</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5930,7 +5934,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.77501244063798547</v>
+        <v>-0.75437824630874639</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5958,7 +5962,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.34357599474061573</v>
+        <v>-0.32711893039872053</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6024,35 +6028,35 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3753.25</v>
+        <v>3777</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3783.28</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3750.8079422802921</v>
+        <v>3774.4692756136255</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.26400000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>-7.08</v>
+        <v>10.08</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>12.08</v>
+        <v>10.08</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -6795,11 +6799,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7834,7 +7838,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H44" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H46" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -8266,6 +8270,74 @@
       </c>
       <c r="N44">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B45" s="26">
+        <v>934</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="27">
+        <v>2.57</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" si="12"/>
+        <v>5.14</v>
+      </c>
+      <c r="I45" s="29">
+        <v>3</v>
+      </c>
+      <c r="J45" s="42">
+        <f t="shared" ref="J45:J46" si="17">-I45*G45</f>
+        <v>-7.7099999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B46" s="26">
+        <v>957</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="64">
+        <v>-0.12</v>
+      </c>
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="27">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="12"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I46" s="29">
+        <v>3</v>
+      </c>
+      <c r="J46" s="42">
+        <f t="shared" si="17"/>
+        <v>-7.41</v>
       </c>
     </row>
   </sheetData>
@@ -8277,11 +8349,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8376,7 +8448,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>5.3999999999999986</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8821,7 +8893,7 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:H21" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H23" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
       </c>
     </row>
@@ -8970,6 +9042,74 @@
       <c r="H21" s="28">
         <f t="shared" si="6"/>
         <v>-9.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B22" s="26">
+        <v>934</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
+        <v>2.57</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="6"/>
+        <v>2.57</v>
+      </c>
+      <c r="I22" s="29">
+        <v>3</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22:J23" si="9">-I22*G22</f>
+        <v>-7.7099999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B23" s="26">
+        <v>957</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="64">
+        <v>-0.12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="6"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I23" s="29">
+        <v>3</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="9"/>
+        <v>-7.41</v>
       </c>
     </row>
   </sheetData>
@@ -8980,7 +9120,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9067,7 +9207,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H21" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H23" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -9079,7 +9219,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>-2.0500000000000043</v>
+        <v>2.9899999999999958</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9669,6 +9809,74 @@
       <c r="H21" s="28">
         <f t="shared" si="0"/>
         <v>-9.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B22" s="26">
+        <v>934</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
+        <v>2.57</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="0"/>
+        <v>2.57</v>
+      </c>
+      <c r="I22" s="29">
+        <v>3</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22:J23" si="8">-I22*G22</f>
+        <v>-7.7099999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B23" s="26">
+        <v>957</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="64">
+        <v>-0.12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="0"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I23" s="29">
+        <v>3</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="8"/>
+        <v>-7.41</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F3C30D-17FB-4019-90F5-782CF69DA42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E788F3F-E874-4334-B101-864CF7734D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="4155" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="10260" yWindow="2610" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -980,6 +980,9 @@
                 <c:pt idx="11">
                   <c:v>44839</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1024,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-1499.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-491.00000000000091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,6 +1135,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1179,6 +1188,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-7.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1272,6 +1284,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1322,6 +1337,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>12.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1415,6 +1433,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1465,6 +1486,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-0.58609271523178808</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1773,6 +1797,9 @@
                 <c:pt idx="11">
                   <c:v>44839</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1818,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.08</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1922,6 +1952,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1972,6 +2005,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-0.58609271523178808</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2062,6 +2098,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2112,6 +2151,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-1499.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-491.00000000000091</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2188,6 +2230,9 @@
                 <c:pt idx="11">
                   <c:v>44839</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2233,6 +2278,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-7.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.08</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2633,6 +2681,9 @@
                 <c:pt idx="11">
                   <c:v>44839</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2678,6 +2729,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.58609271523178808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2768,6 +2822,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2818,6 +2875,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>12.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2908,6 +2968,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2958,6 +3021,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-1499.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-491.00000000000091</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3055,6 +3121,9 @@
                       <c:pt idx="11">
                         <c:v>44839</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44840</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3105,6 +3174,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>-7.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5398,7 +5470,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5422,7 +5494,7 @@
         <v>44840</v>
       </c>
       <c r="C2" s="67">
-        <v>1010</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5448,7 +5520,7 @@
       </c>
       <c r="F5" s="80">
         <f>SUM(F26:F28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5457,7 +5529,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3726.46</v>
+        <v>3753.25</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5466,7 +5538,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3753.25</v>
+        <v>3771.97</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5483,14 +5555,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3777</v>
+        <v>3771.97</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3820</v>
+        <v>3815</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5498,14 +5570,16 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3730</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3744.52</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5524,7 +5598,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3819.2025533426227</v>
+        <v>3814.1163503128864</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5532,7 +5606,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3734.7974466573773</v>
+        <v>3729.8236496871132</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5541,7 +5615,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3816.6718289562482</v>
+        <v>3811.3275328439263</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5549,7 +5623,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3732.2667222710029</v>
+        <v>3727.034832218153</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5564,7 +5638,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.202553342622586</v>
+        <v>42.146350312886447</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5573,7 +5647,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3774.4692756136255</v>
+        <v>3769.1811825310397</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5589,7 +5663,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>62.440950506490587</v>
+        <v>61.801238076633012</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5598,7 +5672,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3845.7209505064907</v>
+        <v>3806.3212380766331</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5607,7 +5681,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3720.8390494935097</v>
+        <v>3682.7187619233669</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5616,7 +5690,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-10.710321167883212</v>
+        <v>-10.711179096482352</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5634,7 +5708,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3772.8229747445257</v>
+        <v>3767.7926401523719</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5652,7 +5726,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3784.5822666666663</v>
+        <v>3777.7107999999994</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5686,14 +5760,14 @@
       </c>
       <c r="C27" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="83">
         <f>IF(C27&gt;=2, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -5702,7 +5776,7 @@
       </c>
       <c r="C28" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>110</v>
@@ -5737,7 +5811,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,14 +5874,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>-124.91666666666674</v>
+        <v>-37.769230769230838</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -5834,15 +5908,15 @@
       </c>
       <c r="F4" s="47">
         <f>COUNTIF(Tracker!I:I, "&gt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
-        <v>1046.1666666666665</v>
+        <v>1040.7142857142856</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>56</v>
@@ -5872,7 +5946,7 @@
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.5</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
@@ -5901,14 +5975,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>-1499.0000000000009</v>
+        <v>-491.00000000000091</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>-6.3297954323284097E-2</v>
+        <v>-2.0733352616899618E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -5927,14 +6001,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>16780</v>
+        <v>17788</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.75437824630874639</v>
+        <v>-0.36226782595202978</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -5955,14 +6029,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>-8.9332538736591235E-2</v>
+        <v>-2.7602878344951703E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.32711893039872053</v>
+        <v>-0.11921371825263494</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6003,11 +6077,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,15 +6106,15 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3777</v>
+        <v>3771.97</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3744.52</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3774.4692756136255</v>
+        <v>3769.1811825310397</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -6048,7 +6122,7 @@
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
@@ -6785,6 +6859,44 @@
       <c r="K31" s="68">
         <f t="shared" ref="K31" si="19">H31*100+K30</f>
         <v>16780</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>44840</v>
+      </c>
+      <c r="B32" s="21">
+        <v>3771.97</v>
+      </c>
+      <c r="C32" s="21">
+        <v>3744.52</v>
+      </c>
+      <c r="D32" s="21">
+        <v>3769.4580542802919</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F32" s="71">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>10.08</v>
+      </c>
+      <c r="H32" s="31">
+        <v>10.08</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" ref="I32" si="20">G32/H32</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="35">
+        <f t="shared" ref="J32" si="21">J31+G32*100</f>
+        <v>-491.00000000000091</v>
+      </c>
+      <c r="K32" s="68">
+        <f t="shared" ref="K32" si="22">H32*100+K31</f>
+        <v>17788</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E788F3F-E874-4334-B101-864CF7734D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44480D51-3E8A-45E7-BD98-8B2361AB8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="2610" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
   <si>
     <t>Updated</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>Oct06 3735/3710 Bull Put @-2.5</t>
+  </si>
+  <si>
+    <t>Oct07 3740/3765 Bear Call @ -4</t>
+  </si>
+  <si>
+    <t>Oct07 3645/3620 Bull Put @ -3.5</t>
   </si>
 </sst>
 </file>
@@ -5470,7 +5476,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,10 +5497,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="C2" s="67">
-        <v>1625</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5555,14 +5561,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3771.97</v>
+        <v>3690</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5570,16 +5576,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3725</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3744.52</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5591,14 +5595,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.26200000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3814.1163503128864</v>
+        <v>3732.8041346467503</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5606,7 +5610,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3729.8236496871132</v>
+        <v>3647.1958653532497</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5615,7 +5619,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3811.3275328439263</v>
+        <v>3730.3213385111235</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5623,7 +5627,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3727.034832218153</v>
+        <v>3644.7130692176229</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5638,7 +5642,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.146350312886447</v>
+        <v>42.804134646750462</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5647,7 +5651,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3769.1811825310397</v>
+        <v>3687.5172038643732</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5663,7 +5667,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>61.801238076633012</v>
+        <v>64.160063957420533</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5672,7 +5676,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3806.3212380766331</v>
+        <v>3808.6800639574203</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5681,7 +5685,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3682.7187619233669</v>
+        <v>3680.3599360425796</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5708,7 +5712,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3767.7926401523719</v>
+        <v>3685.8226401523721</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5726,7 +5730,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3777.7107999999994</v>
+        <v>3697.9266666666663</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5916,7 +5920,7 @@
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
-        <v>1040.7142857142856</v>
+        <v>1040.7142857142858</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>56</v>
@@ -6008,7 +6012,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.36226782595202978</v>
+        <v>-0.34612948488050754</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -6036,7 +6040,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.11921371825263494</v>
+        <v>-0.11298025041497672</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6102,35 +6106,35 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3771.97</v>
+        <v>3690</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3744.52</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3769.1811825310397</v>
+        <v>3687.5172038643732</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.26200000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>10.08</v>
+        <v>14.88</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>10.08</v>
+        <v>14.88</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -6911,11 +6915,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD46"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7950,7 +7954,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H46" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H48" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -8450,6 +8454,68 @@
       <c r="J46" s="42">
         <f t="shared" si="17"/>
         <v>-7.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B47" s="26">
+        <v>936</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="27">
+        <v>3.97</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="12"/>
+        <v>7.94</v>
+      </c>
+      <c r="I47" s="29">
+        <v>3</v>
+      </c>
+      <c r="J47" s="42">
+        <f t="shared" ref="J47:J48" si="18">-I47*G47</f>
+        <v>-11.91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B48" s="26">
+        <v>944</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="18">
+        <v>2</v>
+      </c>
+      <c r="G48" s="27">
+        <v>3.47</v>
+      </c>
+      <c r="H48" s="28">
+        <f t="shared" si="12"/>
+        <v>6.94</v>
+      </c>
+      <c r="I48" s="29">
+        <v>3</v>
+      </c>
+      <c r="J48" s="42">
+        <f t="shared" si="18"/>
+        <v>-10.41</v>
       </c>
     </row>
   </sheetData>
@@ -8461,11 +8527,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="J29" activeCellId="1" sqref="I24:J25 J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,7 +8626,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>10.44</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9005,7 +9071,7 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:H23" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H25" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
       </c>
     </row>
@@ -9222,6 +9288,68 @@
       <c r="J23" s="42">
         <f t="shared" si="9"/>
         <v>-7.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B24" s="26">
+        <v>936</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <v>3.97</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="6"/>
+        <v>3.97</v>
+      </c>
+      <c r="I24" s="29">
+        <v>3</v>
+      </c>
+      <c r="J24" s="42">
+        <f t="shared" ref="J24:J25" si="10">-I24*G24</f>
+        <v>-11.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B25" s="26">
+        <v>944</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27">
+        <v>3.47</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="I25" s="29">
+        <v>3</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="10"/>
+        <v>-10.41</v>
       </c>
     </row>
   </sheetData>
@@ -9232,11 +9360,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9319,7 +9447,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H23" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H25" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -9331,7 +9459,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>2.9899999999999958</v>
+        <v>10.429999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9989,6 +10117,68 @@
       <c r="J23" s="42">
         <f t="shared" si="8"/>
         <v>-7.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B24" s="26">
+        <v>936</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <v>3.97</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="0"/>
+        <v>3.97</v>
+      </c>
+      <c r="I24" s="29">
+        <v>3</v>
+      </c>
+      <c r="J24" s="42">
+        <f t="shared" ref="J24:J25" si="9">-I24*G24</f>
+        <v>-11.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B25" s="26">
+        <v>944</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27">
+        <v>3.47</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="0"/>
+        <v>3.47</v>
+      </c>
+      <c r="I25" s="29">
+        <v>3</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="9"/>
+        <v>-10.41</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44480D51-3E8A-45E7-BD98-8B2361AB8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA26D18-6BA8-456A-9F08-DF2FF518E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="2610" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="32445" yWindow="4995" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="139">
   <si>
     <t>Updated</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>Oct07 3645/3620 Bull Put @ -3.5</t>
+  </si>
+  <si>
+    <t>Oct07 3645/3620 Bull Put @ -10.65</t>
   </si>
 </sst>
 </file>
@@ -989,6 +992,9 @@
                 <c:pt idx="12">
                   <c:v>44840</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44841</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1036,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-491.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1139.0000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,6 +1153,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1197,6 +1209,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>10.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-6.4799999999999986</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1293,6 +1308,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1346,6 +1364,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>10.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14.88</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1442,6 +1463,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1495,6 +1519,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.43548387096774183</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1806,6 +1833,9 @@
                 <c:pt idx="12">
                   <c:v>44840</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44841</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1854,6 +1884,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.88</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1961,6 +1994,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2014,6 +2050,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.43548387096774183</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2107,6 +2146,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2160,6 +2202,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>-491.00000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-1139.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2239,6 +2284,9 @@
                 <c:pt idx="12">
                   <c:v>44840</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44841</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2287,6 +2335,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.4799999999999986</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2690,6 +2741,9 @@
                 <c:pt idx="12">
                   <c:v>44840</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44841</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2738,6 +2792,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.43548387096774183</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2831,6 +2888,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2884,6 +2944,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>10.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14.88</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2977,6 +3040,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3030,6 +3096,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>-491.00000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-1139.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3130,6 +3199,9 @@
                       <c:pt idx="12">
                         <c:v>44840</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44841</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3183,6 +3255,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>10.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-6.4799999999999986</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5476,7 +5551,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5497,10 +5572,10 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="C2" s="67">
-        <v>1040</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5535,7 +5610,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3753.25</v>
+        <v>3771.97</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5544,7 +5619,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3771.97</v>
+        <v>3706.74</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5561,14 +5636,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3690</v>
+        <v>3706.74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3735</v>
+        <v>3750</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5576,14 +5651,16 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3645</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3639.66</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5602,7 +5679,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3732.8041346467503</v>
+        <v>3749.7383192575867</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5610,7 +5687,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3647.1958653532497</v>
+        <v>3663.7416807424129</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5619,7 +5696,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3730.3213385111235</v>
+        <v>3743.1648744190929</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5627,7 +5704,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3644.7130692176229</v>
+        <v>3657.1682359039191</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5642,7 +5719,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.804134646750462</v>
+        <v>42.998319257586935</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5651,7 +5728,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3687.5172038643732</v>
+        <v>3700.166555161506</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5667,7 +5744,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>64.160063957420533</v>
+        <v>62.363351880418641</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5676,7 +5753,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3808.6800639574203</v>
+        <v>3702.0233518804184</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5685,7 +5762,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3680.3599360425796</v>
+        <v>3577.2966481195813</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5694,7 +5771,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-10.711179096482352</v>
+        <v>-11.248966920572517</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5712,7 +5789,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3685.8226401523721</v>
+        <v>3702.3529029009765</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5730,7 +5807,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3697.9266666666663</v>
+        <v>3686.7361333333329</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5780,7 +5857,7 @@
       </c>
       <c r="C28" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>110</v>
@@ -5800,7 +5877,7 @@
       </c>
       <c r="C30" s="83" t="b">
         <f>WEEKDAY(B2)=2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5878,14 +5955,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>-37.769230769230838</v>
+        <v>-81.357142857142918</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -5916,11 +5993,11 @@
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.53846153846153844</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
-        <v>1040.7142857142858</v>
+        <v>1040.7142857142856</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>56</v>
@@ -5946,15 +6023,15 @@
       </c>
       <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
-        <v>-1296</v>
+        <v>-1203.4285714285716</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>57</v>
@@ -5979,14 +6056,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>-491.00000000000091</v>
+        <v>-1139.0000000000009</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>-2.0733352616899618E-2</v>
+        <v>-4.8096310856718213E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -6005,14 +6082,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>17788</v>
+        <v>19276</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.34612948488050754</v>
+        <v>-0.57545265885784314</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -6033,14 +6110,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>-2.7602878344951703E-2</v>
+        <v>-5.9089022618800627E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.11298025041497672</v>
+        <v>-0.21475747532648704</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6081,11 +6158,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,19 +6183,19 @@
     <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3690</v>
+        <v>3706.74</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3639.66</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3687.5172038643732</v>
+        <v>3700.166555161506</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -6130,11 +6207,11 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -6903,6 +6980,44 @@
         <v>17788</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>44841</v>
+      </c>
+      <c r="B33" s="21">
+        <v>3706.74</v>
+      </c>
+      <c r="C33" s="21">
+        <v>3639.66</v>
+      </c>
+      <c r="D33" s="21">
+        <v>3704.194707864373</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F33" s="71">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>-6.4799999999999986</v>
+      </c>
+      <c r="H33" s="31">
+        <v>14.88</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" ref="I33" si="23">G33/H33</f>
+        <v>-0.43548387096774183</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" ref="J33" si="24">J32+G33*100</f>
+        <v>-1139.0000000000009</v>
+      </c>
+      <c r="K33" s="68">
+        <f t="shared" ref="K33" si="25">H33*100+K32</f>
+        <v>19276</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C19">
     <sortCondition ref="A6:A19"/>
@@ -6915,11 +7030,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7954,7 +8069,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H48" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H49" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -8516,6 +8631,36 @@
       <c r="J48" s="42">
         <f t="shared" si="18"/>
         <v>-10.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B49" s="26">
+        <v>1431</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="27">
+        <v>-10.68</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" si="12"/>
+        <v>-21.36</v>
+      </c>
+      <c r="M49">
+        <v>3636</v>
+      </c>
+      <c r="N49">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8527,11 +8672,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" activeCellId="1" sqref="I24:J25 J29"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,7 +8771,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>17.88</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9071,11 +9216,11 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:H25" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H26" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44838</v>
       </c>
@@ -9106,7 +9251,7 @@
         <v>-7.11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44838</v>
       </c>
@@ -9130,7 +9275,7 @@
         <v>-8.73</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44839</v>
       </c>
@@ -9164,7 +9309,7 @@
         <v>-8.91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44839</v>
       </c>
@@ -9198,7 +9343,7 @@
         <v>-9.2099999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44839</v>
       </c>
@@ -9222,7 +9367,7 @@
         <v>-9.58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44840</v>
       </c>
@@ -9256,7 +9401,7 @@
         <v>-7.7099999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44840</v>
       </c>
@@ -9290,7 +9435,7 @@
         <v>-7.41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44841</v>
       </c>
@@ -9321,7 +9466,7 @@
         <v>-11.91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44841</v>
       </c>
@@ -9350,6 +9495,36 @@
       <c r="J25" s="42">
         <f t="shared" si="10"/>
         <v>-10.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1431</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27">
+        <v>-10.68</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="6"/>
+        <v>-10.68</v>
+      </c>
+      <c r="M26">
+        <v>3636</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9360,11 +9535,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,7 +9622,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H25" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H26" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -9459,7 +9634,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>10.429999999999996</v>
+        <v>-0.25000000000000355</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9904,7 +10079,7 @@
         <v>-9.8800000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44838</v>
       </c>
@@ -9935,7 +10110,7 @@
         <v>-7.11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44838</v>
       </c>
@@ -9959,7 +10134,7 @@
         <v>-8.73</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44839</v>
       </c>
@@ -9993,7 +10168,7 @@
         <v>-8.91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44839</v>
       </c>
@@ -10027,7 +10202,7 @@
         <v>-9.2099999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44839</v>
       </c>
@@ -10051,7 +10226,7 @@
         <v>-9.58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44840</v>
       </c>
@@ -10085,7 +10260,7 @@
         <v>-7.7099999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44840</v>
       </c>
@@ -10119,7 +10294,7 @@
         <v>-7.41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44841</v>
       </c>
@@ -10150,7 +10325,7 @@
         <v>-11.91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44841</v>
       </c>
@@ -10179,6 +10354,36 @@
       <c r="J25" s="42">
         <f t="shared" si="9"/>
         <v>-10.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>44841</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1431</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27">
+        <v>-10.68</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="0"/>
+        <v>-10.68</v>
+      </c>
+      <c r="M26">
+        <v>3636</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA26D18-6BA8-456A-9F08-DF2FF518E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DDDAE-17F7-4DAE-A023-1CA58B9F3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32445" yWindow="4995" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>Updated</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>Oct07 3645/3620 Bull Put @ -10.65</t>
+  </si>
+  <si>
+    <t>Oct10 3590/3565 Bull Put @ -2.2</t>
+  </si>
+  <si>
+    <t>Oct10 3600/3575 Bull Put @ -3</t>
+  </si>
+  <si>
+    <t>Oct10 3685/3710 Bear Call @ -2.9</t>
   </si>
 </sst>
 </file>
@@ -5551,7 +5560,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,7 +5584,7 @@
         <v>44844</v>
       </c>
       <c r="C2" s="67">
-        <v>925</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5636,14 +5645,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3706.74</v>
+        <v>3640</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3750</v>
+        <v>3685</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5651,16 +5660,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3655</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3639.66</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5672,14 +5679,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.27200000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3749.7383192575867</v>
+        <v>3684.7079053412258</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5687,7 +5694,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3663.7416807424129</v>
+        <v>3595.2920946587742</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5703,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3743.1648744190929</v>
+        <v>3678.383623169399</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5704,7 +5711,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3657.1682359039191</v>
+        <v>3588.9678124869474</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5719,7 +5726,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>42.998319257586935</v>
+        <v>44.707905341225725</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5728,7 +5735,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3700.166555161506</v>
+        <v>3633.6757178281732</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5744,7 +5751,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>62.363351880418641</v>
+        <v>66.03178434397266</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5753,7 +5760,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3702.0233518804184</v>
+        <v>3705.6917843439724</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5762,7 +5769,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3577.2966481195813</v>
+        <v>3573.6282156560274</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5789,7 +5796,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3702.3529029009765</v>
+        <v>3635.6129029009767</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5807,7 +5814,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3686.7361333333329</v>
+        <v>3621.7758666666664</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -6167,7 +6174,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="71" bestFit="1" customWidth="1"/>
@@ -6187,19 +6194,19 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3706.74</v>
+        <v>3640</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3639.66</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3700.166555161506</v>
+        <v>3633.6757178281732</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.27200000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
@@ -6207,11 +6214,11 @@
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
@@ -7030,16 +7037,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="13" customWidth="1"/>
@@ -8069,7 +8076,7 @@
         <v>4.87</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" ref="H31:H49" si="12">G31*F31</f>
+        <f t="shared" ref="H31:H52" si="12">G31*F31</f>
         <v>9.74</v>
       </c>
       <c r="I31" s="29">
@@ -8661,6 +8668,108 @@
       </c>
       <c r="N49">
         <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B50" s="26">
+        <v>941</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="18">
+        <v>2</v>
+      </c>
+      <c r="G50" s="27">
+        <v>2.88</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="12"/>
+        <v>5.76</v>
+      </c>
+      <c r="I50" s="29">
+        <v>3</v>
+      </c>
+      <c r="J50" s="42">
+        <f t="shared" ref="J50:J52" si="19">-I50*G50</f>
+        <v>-8.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B51" s="26">
+        <v>942</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="64">
+        <v>-0.15</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="27">
+        <v>3.02</v>
+      </c>
+      <c r="H51" s="28">
+        <f t="shared" si="12"/>
+        <v>3.02</v>
+      </c>
+      <c r="I51" s="29">
+        <v>3</v>
+      </c>
+      <c r="J51" s="42">
+        <f t="shared" si="19"/>
+        <v>-9.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B52" s="26">
+        <v>943</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="64">
+        <v>-0.11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="27">
+        <v>2.17</v>
+      </c>
+      <c r="H52" s="28">
+        <f t="shared" si="12"/>
+        <v>2.17</v>
+      </c>
+      <c r="I52" s="29">
+        <v>3</v>
+      </c>
+      <c r="J52" s="42">
+        <f t="shared" si="19"/>
+        <v>-6.51</v>
       </c>
     </row>
   </sheetData>
@@ -8672,16 +8781,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE4BC4F-EB6D-4F7C-A4AB-32C246F0D899}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="A29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
@@ -8771,7 +8880,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>7.1999999999999993</v>
+        <v>13.099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9216,7 +9325,7 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:H26" si="6">G16*F16</f>
+        <f t="shared" ref="H16:H29" si="6">G16*F16</f>
         <v>-9.8800000000000008</v>
       </c>
     </row>
@@ -9526,6 +9635,77 @@
       <c r="N26">
         <v>9</v>
       </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B27" s="26">
+        <v>941</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="27">
+        <v>2.88</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="6"/>
+        <v>2.88</v>
+      </c>
+      <c r="I27" s="29">
+        <v>3</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" ref="J27:J29" si="11">-I27*G27</f>
+        <v>-8.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B28" s="26">
+        <v>942</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="64">
+        <v>-0.15</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <v>3.02</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="6"/>
+        <v>3.02</v>
+      </c>
+      <c r="I28" s="29">
+        <v>3</v>
+      </c>
+      <c r="J28" s="42">
+        <f t="shared" si="11"/>
+        <v>-9.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9535,16 +9715,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
@@ -9622,7 +9802,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H26" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H28" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -9634,7 +9814,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>-0.25000000000000355</v>
+        <v>4.7999999999999963</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -10384,6 +10564,74 @@
       </c>
       <c r="N26">
         <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B27" s="26">
+        <v>941</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="27">
+        <v>2.88</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="I27" s="29">
+        <v>3</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" ref="J27:J28" si="10">-I27*G27</f>
+        <v>-8.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B28" s="26">
+        <v>943</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="64">
+        <v>-0.11</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2.17</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="I28" s="29">
+        <v>3</v>
+      </c>
+      <c r="J28" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.51</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DDDAE-17F7-4DAE-A023-1CA58B9F3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5D88AC-1D57-405F-BE5E-4F5BB99ACA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="4995" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="29595" yWindow="4890" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
   <si>
     <t>Updated</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>Oct10 3685/3710 Bear Call @ -2.9</t>
+  </si>
+  <si>
+    <t>Oct10 3600/3575 Bull Put @ -9.15</t>
+  </si>
+  <si>
+    <t>Oct10 3590/3565 Bull Put @ -6.8</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1010,9 @@
                 <c:pt idx="13">
                   <c:v>44841</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44844</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1054,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-1139.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1645.0000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,6 +1177,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1221,6 +1236,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-6.4799999999999986</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-5.0600000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1320,6 +1338,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1376,6 +1397,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>14.88</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1475,6 +1499,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1531,6 +1558,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-0.43548387096774183</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.46210045662100463</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1845,6 +1875,9 @@
                 <c:pt idx="13">
                   <c:v>44841</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44844</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1896,6 +1929,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.95</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2006,6 +2042,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2062,6 +2101,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-0.43548387096774183</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.46210045662100463</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2158,6 +2200,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2214,6 +2259,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-1139.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-1645.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2296,6 +2344,9 @@
                 <c:pt idx="13">
                   <c:v>44841</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44844</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2347,6 +2398,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6.4799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2753,6 +2807,9 @@
                 <c:pt idx="13">
                   <c:v>44841</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44844</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2804,6 +2861,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-0.43548387096774183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.46210045662100463</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2900,6 +2960,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2956,6 +3019,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>14.88</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3052,6 +3118,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3108,6 +3177,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-1139.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-1645.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3211,6 +3283,9 @@
                       <c:pt idx="13">
                         <c:v>44841</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44844</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3267,6 +3342,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>-6.4799999999999986</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-5.0600000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5560,7 +5638,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5619,7 +5697,7 @@
       </c>
       <c r="C6" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3771.97</v>
+        <v>3706.74</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5628,7 +5706,7 @@
       </c>
       <c r="C7" s="97">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3706.74</v>
+        <v>3647.51</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5645,14 +5723,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3640</v>
+        <v>3647.51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3685</v>
+        <v>3690</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5660,14 +5738,16 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3590</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>3612.39</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5686,7 +5766,7 @@
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3684.7079053412258</v>
+        <v>3692.310146101971</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5694,7 +5774,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3595.2920946587742</v>
+        <v>3602.7098538980295</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,7 +5783,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3678.383623169399</v>
+        <v>3685.7155756554926</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5711,7 +5791,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3588.9678124869474</v>
+        <v>3596.115283451551</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5726,7 +5806,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>44.707905341225725</v>
+        <v>44.800146101970952</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5735,7 +5815,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3633.6757178281732</v>
+        <v>3640.9154295535218</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5751,7 +5831,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>66.03178434397266</v>
+        <v>65.537043967382502</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5840,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3705.6917843439724</v>
+        <v>3677.9270439673824</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5769,7 +5849,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3573.6282156560274</v>
+        <v>3546.8529560326174</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5778,7 +5858,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-11.248966920572517</v>
+        <v>-12.079991392801247</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5796,7 +5876,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3635.6129029009767</v>
+        <v>3642.7988033568076</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5814,7 +5894,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3621.7758666666664</v>
+        <v>3629.3461333333339</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5832,7 +5912,7 @@
       </c>
       <c r="C26" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-2,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>98</v>
@@ -5962,14 +6042,14 @@
       </c>
       <c r="F3" s="47">
         <f>COUNTA(Tracker!J:J)-1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="41">
         <f>C7/F3</f>
-        <v>-81.357142857142918</v>
+        <v>-109.66666666666673</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>55</v>
@@ -6000,7 +6080,7 @@
       </c>
       <c r="G4" s="50">
         <f>F4/F3</f>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="H4" s="41">
         <f>(SUMIF(Tracker!G:G, "&gt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&gt;0", Tracker!G1))/F4*100</f>
@@ -6030,15 +6110,15 @@
       </c>
       <c r="F5" s="47">
         <f>COUNTIF(Tracker!I:I, "&lt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="50">
         <f>F5/F3</f>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H5" s="41">
         <f>IFERROR((SUMIF(Tracker!G:G, "&lt;0", Tracker!G:G)-SUMIF(Tracker!G1,"&lt;0", Tracker!G1))/F5*100, 0)</f>
-        <v>-1203.4285714285716</v>
+        <v>-1116.2500000000002</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>57</v>
@@ -6063,14 +6143,14 @@
       </c>
       <c r="C7" s="41">
         <f>INDEX(Tracker!J:J, COUNTA(Tracker!J:J)+18)</f>
-        <v>-1139.0000000000009</v>
+        <v>-1645.0000000000009</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
         <f>C7/C4</f>
-        <v>-4.8096310856718213E-2</v>
+        <v>-6.9463065284724707E-2</v>
       </c>
       <c r="G7" s="45"/>
       <c r="J7" s="17" t="s">
@@ -6089,14 +6169,14 @@
       </c>
       <c r="C8" s="41">
         <f>INDEX(Tracker!K:K, COUNTA(Tracker!K:K)+18)</f>
-        <v>19276</v>
+        <v>20371</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.57545265885784314</v>
+        <v>-0.71387193078190858</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -6117,14 +6197,14 @@
       </c>
       <c r="C9" s="45">
         <f>C7/C8</f>
-        <v>-5.9089022618800627E-2</v>
+        <v>-8.0752049482106958E-2</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.21475747532648704</v>
+        <v>-0.2975008070594819</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6165,11 +6245,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6194,15 +6274,15 @@
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3640</v>
+        <v>3647.51</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>0</v>
+        <v>3612.39</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3633.6757178281732</v>
+        <v>3640.9154295535218</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
@@ -6210,11 +6290,11 @@
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="89">
         <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>10.95</v>
+        <v>-5.0600000000000005</v>
       </c>
       <c r="H1" s="90">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
@@ -7025,6 +7105,44 @@
         <v>19276</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>44844</v>
+      </c>
+      <c r="B34" s="21">
+        <v>3647.51</v>
+      </c>
+      <c r="C34" s="21">
+        <v>3612.39</v>
+      </c>
+      <c r="D34" s="21">
+        <v>3632.2222075403761</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F34" s="71">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>-5.0600000000000005</v>
+      </c>
+      <c r="H34" s="31">
+        <v>10.95</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" ref="I34" si="26">G34/H34</f>
+        <v>-0.46210045662100463</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" ref="J34" si="27">J33+G34*100</f>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K34" s="68">
+        <f t="shared" ref="K34" si="28">H34*100+K33</f>
+        <v>20371</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C19">
     <sortCondition ref="A6:A19"/>
@@ -7037,11 +7155,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,6 +8890,66 @@
         <v>-6.51</v>
       </c>
     </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B53" s="26">
+        <v>1251</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="27">
+        <v>-9.18</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" ref="H53:H54" si="20">G53*F53</f>
+        <v>-9.18</v>
+      </c>
+      <c r="M53">
+        <v>3598</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B54" s="26">
+        <v>1253</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="27">
+        <v>-6.83</v>
+      </c>
+      <c r="H54" s="28">
+        <f t="shared" si="20"/>
+        <v>-6.83</v>
+      </c>
+      <c r="M54">
+        <v>3956</v>
+      </c>
+      <c r="N54">
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8785,7 +8963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="A29:J30"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,7 +9058,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>13.099999999999998</v>
+        <v>3.9199999999999982</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9666,7 +9844,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="42">
-        <f t="shared" ref="J27:J29" si="11">-I27*G27</f>
+        <f t="shared" ref="J27:J28" si="11">-I27*G27</f>
         <v>-8.64</v>
       </c>
     </row>
@@ -9705,7 +9883,28 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="66"/>
+      <c r="A29" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1251</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <v>-9.18</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="6"/>
+        <v>-9.18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9715,11 +9914,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E4B5F-C3CE-4821-8081-9385439A4F7E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9802,7 +10001,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" ref="H2:H28" si="0">G2*F2</f>
+        <f t="shared" ref="H2:H29" si="0">G2*F2</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="I2" s="29">
@@ -9814,7 +10013,7 @@
       </c>
       <c r="N2" s="42">
         <f>SUM(H:H)</f>
-        <v>4.7999999999999963</v>
+        <v>-2.0300000000000038</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -10632,6 +10831,30 @@
       <c r="J28" s="42">
         <f t="shared" si="10"/>
         <v>-6.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>44844</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1253</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <v>-6.83</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="0"/>
+        <v>-6.83</v>
       </c>
     </row>
   </sheetData>

--- a/0DTE Experiment.xlsx
+++ b/0DTE Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5D88AC-1D57-405F-BE5E-4F5BB99ACA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5C0FC-8A09-42FC-BE5D-1CF33202B246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="4890" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
+    <workbookView xWindow="2250" yWindow="3435" windowWidth="20505" windowHeight="14460" xr2:uid="{70494AAA-D256-49B2-A3DF-05E6F986F6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -840,7 +840,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -857,13 +856,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,6 +1020,30 @@
                 <c:pt idx="14">
                   <c:v>44844</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44854</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1065,6 +1096,30 @@
                   <c:v>-1139.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1645.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>-1645.0000000000009</c:v>
                 </c:pt>
               </c:numCache>
@@ -1180,6 +1235,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1193,7 +1272,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>#,##0.00</c:formatCode>
                       <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
@@ -1239,6 +1318,30 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>-5.0600000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1341,6 +1444,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1400,6 +1527,30 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>10.95</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1501,6 +1652,30 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>44844</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1878,6 +2053,30 @@
                 <c:pt idx="14">
                   <c:v>44844</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44854</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1932,6 +2131,30 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2045,6 +2268,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2203,6 +2450,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2261,6 +2532,30 @@
                         <c:v>-1139.0000000000009</c:v>
                       </c:pt>
                       <c:pt idx="14">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>-1645.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2347,6 +2642,30 @@
                 <c:pt idx="14">
                   <c:v>44844</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44854</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2355,7 +2674,7 @@
             <c:numRef>
               <c:f>Tracker!$G$20:$G$714</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="695"/>
                 <c:pt idx="0">
                   <c:v>7.2899999999999991</c:v>
@@ -2401,6 +2720,30 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-5.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2810,6 +3153,30 @@
                 <c:pt idx="14">
                   <c:v>44844</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44854</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2963,6 +3330,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3022,6 +3413,30 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>10.95</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3121,6 +3536,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3179,6 +3618,30 @@
                         <c:v>-1139.0000000000009</c:v>
                       </c:pt>
                       <c:pt idx="14">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-1645.0000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>-1645.0000000000009</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3286,6 +3749,30 @@
                       <c:pt idx="14">
                         <c:v>44844</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44854</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3299,7 +3786,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>#,##0.00</c:formatCode>
                       <c:ptCount val="695"/>
                       <c:pt idx="0">
                         <c:v>7.2899999999999991</c:v>
@@ -3345,6 +3832,30 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>-5.0600000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5638,7 +6149,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,7 +6170,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="C2" s="67">
         <v>951</v>
@@ -5695,18 +6206,18 @@
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="95">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+0)</f>
-        <v>3706.74</v>
+        <v>3703.11</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="96">
         <f>INDEX(Tracker!B:B,COUNTA(Tracker!B:B)+1)</f>
-        <v>3647.51</v>
+        <v>3689.05</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>104</v>
@@ -5723,14 +6234,14 @@
         <v>116</v>
       </c>
       <c r="C8" s="11">
-        <v>3647.51</v>
+        <v>3673</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="74">
         <f>MROUND(MAX(F10:F11),5)</f>
-        <v>3690</v>
+        <v>3715</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="13" t="s">
@@ -5738,16 +6249,14 @@
       </c>
       <c r="I8" s="72">
         <f>MROUND(MIN(I10:I11),5)</f>
-        <v>3595</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11">
-        <v>3612.39</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
       <c r="G9" s="76"/>
@@ -5759,14 +6268,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0.28799999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="74">
         <f>C8+C13</f>
-        <v>3692.310146101971</v>
+        <v>3716.5467928652447</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="13" t="s">
@@ -5774,7 +6283,7 @@
       </c>
       <c r="I10" s="72">
         <f>C8-C13</f>
-        <v>3602.7098538980295</v>
+        <v>3629.4532071347553</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5783,7 +6292,7 @@
       </c>
       <c r="F11" s="77">
         <f>C14+C13</f>
-        <v>3685.7155756554926</v>
+        <v>3714.3431887206439</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79" t="s">
@@ -5791,7 +6300,7 @@
       </c>
       <c r="I11" s="73">
         <f>C14-C13</f>
-        <v>3596.115283451551</v>
+        <v>3627.2496029901545</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -5806,7 +6315,7 @@
       </c>
       <c r="C13" s="3">
         <f>$C$8*C$10*SQRT((11/24)/252)</f>
-        <v>44.800146101970952</v>
+        <v>43.54679286524491</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,7 +6324,7 @@
       </c>
       <c r="C14" s="5">
         <f>C23*(1-F24)+C24*F24</f>
-        <v>3640.9154295535218</v>
+        <v>3670.7963958553992</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5831,7 +6340,7 @@
       </c>
       <c r="C17" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)*C$10*SQRT((24/24)/252)</f>
-        <v>65.537043967382502</v>
+        <v>64.196436738539788</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5840,7 +6349,7 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)+C17</f>
-        <v>3677.9270439673824</v>
+        <v>3729.9764367385401</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5849,7 +6358,7 @@
       </c>
       <c r="C19" s="5">
         <f>INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1)-C17</f>
-        <v>3546.8529560326174</v>
+        <v>3601.5835632614603</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5858,7 +6367,7 @@
       </c>
       <c r="C22" s="85">
         <f>SLOPE(INDEX(Tracker!C:C,COUNTA(Tracker!C:C)-23):INDEX(Tracker!C:C,COUNTA(Tracker!C:C)+1),  INDEX(Tracker!A:A,COUNTA(Tracker!A:A)-23):INDEX(Tracker!A:A,COUNTA(Tracker!A:A)+1))</f>
-        <v>-12.079991392801247</v>
+        <v>-4.9489608763693207</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>112</v>
@@ -5866,7 +6375,7 @@
       <c r="F22" s="85">
         <v>0.39</v>
       </c>
-      <c r="G22" s="109">
+      <c r="G22" s="107">
         <v>1</v>
       </c>
     </row>
@@ -5876,7 +6385,7 @@
       </c>
       <c r="C23" s="85">
         <f>$C$8+C22*F22</f>
-        <v>3642.7988033568076</v>
+        <v>3671.0699052582158</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>113</v>
@@ -5884,7 +6393,7 @@
       <c r="F23" s="85">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G23" s="109">
+      <c r="G23" s="107">
         <v>2</v>
       </c>
     </row>
@@ -5894,7 +6403,7 @@
       </c>
       <c r="C24" s="85">
         <f>_xlfn.FORECAST.LINEAR(G24+F23, C6:C8, G22:G24)</f>
-        <v>3629.3461333333339</v>
+        <v>3669.1162666666669</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>111</v>
@@ -5902,7 +6411,7 @@
       <c r="F24" s="85">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G24" s="109">
+      <c r="G24" s="107">
         <v>3</v>
       </c>
     </row>
@@ -5912,7 +6421,7 @@
       </c>
       <c r="C26" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-2,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>98</v>
@@ -5928,7 +6437,7 @@
       </c>
       <c r="C27" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)-1,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>97</v>
@@ -5944,7 +6453,7 @@
       </c>
       <c r="C28" s="85">
         <f>SUM(INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+0,4):INDEX(Tracker!C:F,COUNTA(Tracker!C:C)+1,4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>110</v>
@@ -5964,7 +6473,7 @@
       </c>
       <c r="C30" s="83" t="b">
         <f>WEEKDAY(B2)=2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +6488,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6041,7 +6550,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="47">
-        <f>COUNTA(Tracker!J:J)-1</f>
+        <f>COUNTA(Tracker!I:I)-1</f>
         <v>15</v>
       </c>
       <c r="G3" s="49" t="s">
@@ -6176,7 +6685,7 @@
       </c>
       <c r="F8" s="45">
         <f>(1+F7)^(365/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.71387193078190858</v>
+        <v>-0.56008597840825236</v>
       </c>
       <c r="G8" s="45"/>
       <c r="J8" s="17" t="s">
@@ -6204,7 +6713,7 @@
       </c>
       <c r="F9" s="45">
         <f>(1+F7)^((44927-C3)/(Indicator!B2-Dashboard!C3+1))-1</f>
-        <v>-0.2975008070594819</v>
+        <v>-0.2068390473856474</v>
       </c>
       <c r="G9" s="45"/>
       <c r="J9" s="17" t="s">
@@ -6245,11 +6754,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C82D01-CC02-4066-B9D6-9DFF5A0A89C9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,7 +6767,7 @@
     <col min="2" max="4" width="8.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="35" bestFit="1" customWidth="1"/>
@@ -6267,55 +6776,55 @@
     <col min="13" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <f>Indicator!$B$2</f>
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B1" s="87">
         <f>Indicator!$C$8</f>
-        <v>3647.51</v>
+        <v>3673</v>
       </c>
       <c r="C1" s="87">
         <f>Indicator!$C$9</f>
-        <v>3612.39</v>
+        <v>0</v>
       </c>
       <c r="D1" s="87">
         <f>Indicator!$C$14</f>
-        <v>3640.9154295535218</v>
+        <v>3670.7963958553992</v>
       </c>
       <c r="E1" s="88">
         <f>Indicator!$C$10</f>
-        <v>0.28799999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="F1" s="71">
         <f>IF(ABS(D1-C1)&gt;=SQRT((7/24)/252)*E1*B1,       1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G1" s="108">
+        <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="89">
-        <f>SUMIF(Trades!A:A,Tracker!A1,Trades!H:H)</f>
-        <v>-5.0600000000000005</v>
-      </c>
-      <c r="H1" s="90">
+      <c r="H1" s="89">
         <f>SUMIFS(Trades!H:H,  Trades!A:A,Tracker!A1,  Trades!C:C, "STO")</f>
-        <v>10.95</v>
-      </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="2" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+    </row>
+    <row r="2" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -6336,7 +6845,7 @@
       <c r="F3" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="110" t="s">
         <v>95</v>
       </c>
       <c r="H3" s="33" t="s">
@@ -6356,19 +6865,18 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="95">
+      <c r="A4" s="94">
         <v>44799</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="97">
         <v>4198.74</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="97">
         <v>4057.66</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="70"/>
-      <c r="G4" s="24"/>
       <c r="H4" s="33"/>
       <c r="I4" s="24"/>
       <c r="J4" s="36"/>
@@ -6376,19 +6884,18 @@
       <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="95">
+      <c r="A5" s="94">
         <v>44802</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="97">
         <v>4034.58</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="97">
         <v>4030.61</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="70"/>
-      <c r="G5" s="24"/>
       <c r="H5" s="33"/>
       <c r="I5" s="24"/>
       <c r="J5" s="36"/>
@@ -6566,17 +7073,17 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="F20" s="71">
-        <f>IF(ABS(D20-C20)&gt;=0.975*SQRT((11/24)/252)*E20*B20,       1, 0)</f>
+        <f t="shared" ref="F20:F41" si="0">IF(ABS(D20-C20)&gt;=0.975*SQRT((11/24)/252)*E20*B20,       1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="108">
         <v>7.2899999999999991</v>
       </c>
       <c r="H20" s="31">
         <v>7.2899999999999991</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" ref="I20:I25" si="0">G20/H20</f>
+        <f t="shared" ref="I20:I25" si="1">G20/H20</f>
         <v>1</v>
       </c>
       <c r="J20" s="35">
@@ -6605,17 +7112,17 @@
         <v>0.249</v>
       </c>
       <c r="F21" s="71">
-        <f t="shared" ref="F21:F28" si="1">IF(ABS(D21-C21)&gt;=0.975*SQRT((11/24)/252)*E21*B21,       1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="108">
         <v>3.84</v>
       </c>
       <c r="H21" s="31">
         <v>5.17</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74274661508704065</v>
       </c>
       <c r="J21" s="35">
@@ -6647,17 +7154,17 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="F22" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="108">
         <v>9.7100000000000009</v>
       </c>
       <c r="H22" s="31">
         <v>9.7100000000000009</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22" s="35">
@@ -6686,17 +7193,17 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="F23" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="108">
         <v>-19.870000000000005</v>
       </c>
       <c r="H23" s="31">
         <v>12.66</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5695102685624016</v>
       </c>
       <c r="J23" s="35">
@@ -6728,17 +7235,17 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="F24" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="108">
         <v>13.28</v>
       </c>
       <c r="H24" s="31">
         <v>13.28</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="35">
@@ -6767,17 +7274,17 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F25" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="108">
         <v>-5.58</v>
       </c>
       <c r="H25" s="31">
         <v>22.619999999999997</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24668435013262602</v>
       </c>
       <c r="J25" s="35">
@@ -6809,10 +7316,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F26" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="108">
         <v>-4.8100000000000005</v>
       </c>
       <c r="H26" s="31">
@@ -6851,10 +7358,10 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="F27" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="108">
         <v>10.42</v>
       </c>
       <c r="H27" s="31">
@@ -6890,10 +7397,10 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="F28" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="108">
         <v>18.23</v>
       </c>
       <c r="H28" s="31">
@@ -6923,15 +7430,17 @@
         <v>3678.43</v>
       </c>
       <c r="D29" s="21">
+        <f>(B29+SLOPE(C4:C28,A4:A28)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B27:B29,Indicator!$G$22:$G$24)</f>
         <v>3603.6021637394333</v>
       </c>
       <c r="E29" s="20">
         <v>0.27100000000000002</v>
       </c>
       <c r="F29" s="71">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="108">
         <v>-27.700000000000003</v>
       </c>
       <c r="H29" s="31">
@@ -6964,15 +7473,17 @@
         <v>3790.93</v>
       </c>
       <c r="D30" s="21">
+        <f>(B30+SLOPE(C5:C29,A5:A29)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B28:B30,Indicator!$G$22:$G$24)</f>
         <v>3721.015650981004</v>
       </c>
       <c r="E30" s="20">
         <v>0.25600000000000001</v>
       </c>
       <c r="F30" s="71">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="108">
         <v>-12.72</v>
       </c>
       <c r="H30" s="31">
@@ -7002,15 +7513,17 @@
         <v>3783.28</v>
       </c>
       <c r="D31" s="21">
+        <f>(B31+SLOPE(C6:C30,A6:A30)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B29:B31,Indicator!$G$22:$G$24)</f>
         <v>3754.4209973363477</v>
       </c>
       <c r="E31" s="20">
         <v>0.26400000000000001</v>
       </c>
       <c r="F31" s="71">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="108">
         <v>-7.08</v>
       </c>
       <c r="H31" s="31">
@@ -7040,15 +7553,17 @@
         <v>3744.52</v>
       </c>
       <c r="D32" s="21">
+        <f>(B32+SLOPE(C7:C31,A7:A31)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B30:B32,Indicator!$G$22:$G$24)</f>
         <v>3769.4580542802919</v>
       </c>
       <c r="E32" s="20">
         <v>0.26200000000000001</v>
       </c>
       <c r="F32" s="71">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="108">
         <v>10.08</v>
       </c>
       <c r="H32" s="31">
@@ -7078,15 +7593,17 @@
         <v>3639.66</v>
       </c>
       <c r="D33" s="21">
+        <f>(B33+SLOPE(C8:C32,A8:A32)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B31:B33,Indicator!$G$22:$G$24)</f>
         <v>3704.194707864373</v>
       </c>
       <c r="E33" s="20">
         <v>0.27200000000000002</v>
       </c>
       <c r="F33" s="71">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="108">
         <v>-6.4799999999999986</v>
       </c>
       <c r="H33" s="31">
@@ -7116,15 +7633,17 @@
         <v>3612.39</v>
       </c>
       <c r="D34" s="21">
-        <v>3632.2222075403761</v>
+        <f>(B34+SLOPE(C9:C33,A9:A33)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B32:B34,Indicator!$G$22:$G$24)</f>
+        <v>3641.1576804948404</v>
       </c>
       <c r="E34" s="20">
         <v>0.28799999999999998</v>
       </c>
       <c r="F34" s="71">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="108">
         <v>-5.0600000000000005</v>
       </c>
       <c r="H34" s="31">
@@ -7140,6 +7659,299 @@
       </c>
       <c r="K34" s="68">
         <f t="shared" ref="K34" si="28">H34*100+K33</f>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>44845</v>
+      </c>
+      <c r="B35" s="21">
+        <v>3595.86</v>
+      </c>
+      <c r="C35" s="21">
+        <v>3588.84</v>
+      </c>
+      <c r="D35" s="21">
+        <f>(B35+SLOPE(C10:C34,A10:A34)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B33:B35,Indicator!$G$22:$G$24)</f>
+        <v>3589.4582562201876</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F35" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="108">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31">
+        <v>0</v>
+      </c>
+      <c r="I35" s="90"/>
+      <c r="J35" s="35">
+        <f t="shared" ref="J35:J41" si="29">J34+G35*100</f>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K35" s="68">
+        <f t="shared" ref="K35:K41" si="30">H35*100+K34</f>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>44846</v>
+      </c>
+      <c r="B36" s="21">
+        <v>3590.83</v>
+      </c>
+      <c r="C36" s="21">
+        <v>3608.34</v>
+      </c>
+      <c r="D36" s="21">
+        <f>(B36+SLOPE(C11:C35,A11:A35)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B34:B36,Indicator!$G$22:$G$24)</f>
+        <v>3584.3619329503094</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F36" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="108">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31">
+        <v>0</v>
+      </c>
+      <c r="I36" s="90"/>
+      <c r="J36" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K36" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>44847</v>
+      </c>
+      <c r="B37" s="21">
+        <v>3520.37</v>
+      </c>
+      <c r="C37" s="21">
+        <v>3685.41</v>
+      </c>
+      <c r="D37" s="21">
+        <f>(B37+SLOPE(C12:C36,A12:A36)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B35:B37,Indicator!$G$22:$G$24)</f>
+        <v>3516.1726105575854</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F37" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="108">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0</v>
+      </c>
+      <c r="I37" s="90"/>
+      <c r="J37" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K37" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>44848</v>
+      </c>
+      <c r="B38" s="21">
+        <v>3690.41</v>
+      </c>
+      <c r="C38" s="21">
+        <v>3583.07</v>
+      </c>
+      <c r="D38" s="21">
+        <f>(B38+SLOPE(C13:C37,A13:A37)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B36:B38,Indicator!$G$22:$G$24)</f>
+        <v>3682.8020704042251</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F38" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="108">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0</v>
+      </c>
+      <c r="I38" s="90"/>
+      <c r="J38" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K38" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>44851</v>
+      </c>
+      <c r="B39" s="21">
+        <v>3638.65</v>
+      </c>
+      <c r="C39" s="21">
+        <v>3677.95</v>
+      </c>
+      <c r="D39" s="21">
+        <f>(B39+SLOPE(C14:C38,A14:A38)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B37:B39,Indicator!$G$22:$G$24)</f>
+        <v>3642.4715212653336</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F39" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="108">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0</v>
+      </c>
+      <c r="I39" s="90"/>
+      <c r="J39" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K39" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>44852</v>
+      </c>
+      <c r="B40" s="21">
+        <v>3746.26</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3719.98</v>
+      </c>
+      <c r="D40" s="21">
+        <f>(B40+SLOPE(C15:C39,A15:A39)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B38:B40,Indicator!$G$22:$G$24)</f>
+        <v>3740.7054707413149</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F40" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="108">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0</v>
+      </c>
+      <c r="I40" s="90"/>
+      <c r="J40" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K40" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>44853</v>
+      </c>
+      <c r="B41" s="21">
+        <v>3703.11</v>
+      </c>
+      <c r="C41" s="21">
+        <v>3695.16</v>
+      </c>
+      <c r="D41" s="21">
+        <f>(B41+SLOPE(C16:C40,A16:A40)*Indicator!$F$22)*(1-Indicator!$F$24)+Indicator!$F$24*_xlfn.FORECAST.LINEAR(Indicator!$G$24+Indicator!$F$23,B39:B41,Indicator!$G$22:$G$24)</f>
+        <v>3705.430541489216</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F41" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="108">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0</v>
+      </c>
+      <c r="I41" s="90"/>
+      <c r="J41" s="35">
+        <f t="shared" si="29"/>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K41" s="68">
+        <f t="shared" si="30"/>
+        <v>20371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>44854</v>
+      </c>
+      <c r="B42" s="21">
+        <v>3689.05</v>
+      </c>
+      <c r="C42" s="21">
+        <v>3665.78</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3685.2545427772966</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F42" s="71">
+        <v>0</v>
+      </c>
+      <c r="G42" s="108">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="35">
+        <f t="shared" ref="J42" si="31">J41+G42*100</f>
+        <v>-1645.0000000000009</v>
+      </c>
+      <c r="K42" s="68">
+        <f t="shared" ref="K42" si="32">H42*100+K41</f>
         <v>20371</v>
       </c>
     </row>
@@ -7155,11 +7967,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64AAA6-779C-4846-96DE-7528F04CBAF7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8948,6 +9760,11 @@
       </c>
       <c r="N54">
         <v>-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E55" s="64">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
